--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="244">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,14 +941,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 업체 목록에서 상세 버튼 불필요 : 업체명 클릭시 상세 정보 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 업체 목록에서 수정 버튼 불필요 : 테이블 목록에서 바로 수정 요망, 테이블 상단에 편집 버튼 클릭시 편집 상태로 전환 &gt; 변경 항목 있을시 저장 버튼 활성화 &gt; 미저장 상태에서 메뉴 이동시 변경사항을 적용하시겠습니까? 팝업으로 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이용자 가입요청시
 입력 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +985,55 @@
   </si>
   <si>
     <t>승인 &lt;-&gt; 미승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 보기 &gt; 수정</t>
+  </si>
+  <si>
+    <t>별도의 상세 보기 버튼을 넣지 말고,</t>
+  </si>
+  <si>
+    <t>업체명 표기를 weigh를 조금만 굵게, 파란색 언더바로 하고, 클릭하면 업체 상세 정보 팝업이 나오면 돼.</t>
+  </si>
+  <si>
+    <t>팝업의 UI와 구성은 신규 업체 추가와 거의 동일해.</t>
+  </si>
+  <si>
+    <t>보여주는 항목과 신규 업체 등록하는 항목이 100% 일치하기 때문이야.</t>
+  </si>
+  <si>
+    <t>다만 신규업체 등록은 비밀번호, 비밀번호 확인이 있는데,</t>
+  </si>
+  <si>
+    <t>상세는 이 2개 항목이 빠지고 대신 비밀번호 초기화라는 버튼이 있으면 돼.</t>
+  </si>
+  <si>
+    <t>이 버튼을 누르면 비밀번호를 asdf1234로 바꿔주는거야.</t>
+  </si>
+  <si>
+    <t>항목들은 모두 수정이 가능한 상태고, 처음에 하단에 "수정"(비활성), "닫기"(활성) 2개 버튼이 있어.</t>
+  </si>
+  <si>
+    <t>수정한 내용이 있을 경우 (위 비밀번호 초기화는 제외)</t>
+  </si>
+  <si>
+    <t>1) "수정" 버튼이 비활성 상태에서 -&gt; 활성 상태로 바뀌고</t>
+  </si>
+  <si>
+    <t>2) "닫기" 버튼은 활성 상태에서 -&gt; 비활성 상태로 바뀌고</t>
+  </si>
+  <si>
+    <t>3) "수정" 버튼 앞에 "취소" 버튼이 활성 상태로 나타나.</t>
+  </si>
+  <si>
+    <t>수정을 누르면 변경된 내용이 저장되고 팝업이 닫히는거고,</t>
+  </si>
+  <si>
+    <t>취소를 누르면 변경된 내용이 저장되지 않고고 팝업이 닫히는거야.</t>
+  </si>
+  <si>
+    <t>아이디(이메일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,18 +1844,144 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,132 +2022,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M35"/>
+  <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2337,708 +2378,759 @@
     <col min="14" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="1:13">
       <c r="B3" s="55" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+    <row r="5" spans="1:13" ht="24.75" customHeight="1">
+      <c r="B5" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="G5" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="114" t="s">
+      <c r="K5" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="114" t="s">
+      <c r="M5" s="89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="54">
+        <v>1</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="76"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="54">
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="54">
+        <v>1</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="54">
+        <v>2</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="54">
+        <v>2</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="54">
+        <v>2</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="54">
+        <v>2</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="54">
+        <v>2</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="54">
+        <v>2</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="54">
+        <v>2</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="65"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="54">
+        <v>2</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="65"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="54">
+        <v>2</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="54">
+        <v>3</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="76"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="54">
+        <v>3</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="65"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="54">
+        <v>3</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5" s="107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="103" t="s">
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="L22" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="M22" s="65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="54">
+        <v>3</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="103" t="s">
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="80" t="s">
+      <c r="L23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="54">
+        <v>3</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="M7" s="94" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="80" t="s">
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="L24" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="76"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="94"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="80" t="s">
+      <c r="J26" s="62"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="65"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="83"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="83"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="83"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" s="83"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="90"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="94"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="83"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="84" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="85" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L23" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="M23" s="83"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="90"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="94"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="83"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" s="101"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="90"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="91" t="s">
+      <c r="J27" s="83"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="94"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="82" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="76"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="83"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="87" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="65"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="90"/>
-    </row>
-    <row r="32" spans="2:13">
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="C32" s="54" t="s">
         <v>216</v>
       </c>
@@ -3050,12 +3142,77 @@
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="54" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="54" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3246,14 +3403,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3627,10 +3784,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="60" t="s">
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3925,10 +4082,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="60" t="s">
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -4209,10 +4366,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="60" t="s">
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -4784,16 +4941,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="75" t="s">
+      <c r="Q24" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="75" t="s">
+      <c r="U24" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="75"/>
+      <c r="V24" s="117"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -5012,14 +5169,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5089,10 +5246,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="62" t="s">
+      <c r="AP13" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="62"/>
+      <c r="AQ13" s="104"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -5155,65 +5312,65 @@
       <c r="AQ16" s="23"/>
     </row>
     <row r="20" spans="2:40" ht="18" customHeight="1">
-      <c r="B20" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116" t="s">
+      <c r="B20" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="116" t="s">
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="116" t="s">
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="116" t="s">
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="116" t="s">
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="116" t="s">
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="116" t="s">
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="116" t="s">
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="116" t="s">
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="AN20" s="117"/>
+      <c r="AN20" s="99"/>
     </row>
     <row r="21" spans="2:40" ht="18" customHeight="1">
       <c r="C21" s="53" t="s">
@@ -5277,7 +5434,7 @@
     </row>
     <row r="22" spans="2:40" ht="18" customHeight="1">
       <c r="AM22" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5475,14 +5632,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -5552,10 +5709,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="62" t="s">
+      <c r="AP13" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="62"/>
+      <c r="AQ13" s="104"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -5823,10 +5980,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5896,10 +6053,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="62" t="s">
+      <c r="AR13" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="62"/>
+      <c r="AS13" s="104"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -6117,18 +6274,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="58" t="s">
+      <c r="AM11" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="59"/>
-      <c r="AP11" s="58" t="s">
+      <c r="AN11" s="103"/>
+      <c r="AP11" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6249,18 +6406,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="63" t="s">
+      <c r="S16" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="65"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="107"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -6460,15 +6617,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="66" t="s">
+      <c r="W27" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="67"/>
+      <c r="X27" s="109"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="58" t="s">
+      <c r="Z27" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="59"/>
+      <c r="AA27" s="103"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -6694,14 +6851,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6854,20 +7011,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="68" t="s">
+      <c r="Z19" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="70"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="112"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -6998,10 +7155,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="66" t="s">
+      <c r="AI26" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="67"/>
+      <c r="AJ26" s="109"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -7213,14 +7370,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7363,18 +7520,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="107"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -7394,34 +7551,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="68" t="s">
+      <c r="R18" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="70"/>
-      <c r="AF18" s="68" t="s">
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="112"/>
+      <c r="AF18" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="70"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="112"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -7788,15 +7945,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="66" t="s">
+      <c r="X27" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="67"/>
+      <c r="Y27" s="109"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="58" t="s">
+      <c r="AA27" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="59"/>
+      <c r="AB27" s="103"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -7804,15 +7961,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="66" t="s">
+      <c r="AL27" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="67"/>
+      <c r="AM27" s="109"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="58" t="s">
+      <c r="AO27" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="59"/>
+      <c r="AP27" s="103"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -7820,15 +7977,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="67"/>
+      <c r="K28" s="109"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="58" t="s">
+      <c r="M28" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="59"/>
+      <c r="N28" s="103"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -7864,10 +8021,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="113"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -8347,14 +8504,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8565,20 +8722,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="68" t="s">
+      <c r="S20" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="70"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="112"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -8708,10 +8865,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="66" t="s">
+      <c r="AB26" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="67"/>
+      <c r="AC26" s="109"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -8923,14 +9080,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="58" t="s">
+      <c r="AP11" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="59"/>
-      <c r="AS11" s="60" t="s">
+      <c r="AQ11" s="103"/>
+      <c r="AS11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="61"/>
+      <c r="AT11" s="101"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9057,18 +9214,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="72" t="s">
+      <c r="S16" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="74"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="116"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -9205,15 +9362,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="66" t="s">
+      <c r="W24" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="67"/>
+      <c r="X24" s="109"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="58" t="s">
+      <c r="Z24" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="59"/>
+      <c r="AA24" s="103"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="15" r:id="rId1"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId2"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId3"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId4"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId5"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId6"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId7"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId8"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId9"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId10"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId11"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId12"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId13"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId14"/>
+    <sheet name="UI" sheetId="19" r:id="rId1"/>
+    <sheet name="테이블" sheetId="15" r:id="rId2"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId3"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId4"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId5"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId6"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId7"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId8"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId9"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId10"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId11"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId12"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId13"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId14"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,53 +49,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="258">
   <si>
     <t>정산내역서 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관리자(제약사)용 어드민</t>
   </si>
   <si>
     <t>제품 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실적 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정산내역서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체 목록</t>
@@ -110,7 +111,7 @@
   </si>
   <si>
     <t>내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실적 등록</t>
@@ -123,7 +124,7 @@
   </si>
   <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
@@ -163,79 +164,79 @@
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A  ▼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>On/off (스위치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>처음 이전 1 2 3 4 5 다음 마지막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체명, 대표자, 사업자등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엑셀다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인    ▼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>등록일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>요청일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미승인 ▼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품명, 보험코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품명/규격</t>
@@ -257,175 +258,175 @@
   </si>
   <si>
     <t>저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병의원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원장명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국명, 사업자등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병의원명, 사업자등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병의원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병의원 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국코드 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약국명 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주소 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품명/규격 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표준코드 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>약가 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>보험코드 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급 A *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급 B *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급 A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급 B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급 C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처코드 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병의원명 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 등록 (수정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(수정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울메디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울메디컬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베스트약국</t>
@@ -438,27 +439,27 @@
   </si>
   <si>
     <t>서울특별시 동대문구 답십리로 9, 5층 (전농동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삼성베스트내과의원(동대문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>848-93-01591</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대표자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -498,7 +499,7 @@
       </rPr>
       <t>▶</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -515,23 +516,23 @@
       </rPr>
       <t>▶</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>복수 선택 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업체 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>닫기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>든든약국</t>
@@ -547,159 +548,159 @@
   </si>
   <si>
     <t>문전약국 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N개일 경우 "상세" 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 1 : 업체 N / 거래처 1 : 문전약국 N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>썬약국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>552-05-01276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>강내과의원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경기도 남양주시 와부읍 덕소로 214, (와부읍)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고척으뜸내과의원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 구로구 경인로43길 49, B동 201호 (고척동, 고척아이파크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 1 : 거래처 N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>더편한내과의원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>174-98-01670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>521-20-01969</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도매매출 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>직거래매출 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엑셀 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>표준코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도매매출 목록 (직거래매출 목록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이용자(업체)용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수수료율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>companies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
@@ -709,7 +710,7 @@
   </si>
   <si>
     <t>created_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>company_name</t>
@@ -749,91 +750,91 @@
   </si>
   <si>
     <t>등록요청일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>updated_at</t>
   </si>
   <si>
     <t>수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>user_type</t>
   </si>
   <si>
     <t>회원구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>admin, user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>company_group</t>
   </si>
   <si>
     <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assigned_pharmacist_contact</t>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>receive_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신일제약 실적관리 관리자페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test1@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제품 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>거래처 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test5@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신일제약 실적관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정산 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정산내역서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -859,133 +860,82 @@
       </rPr>
       <t>승인 요청</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>active, passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>목록 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컬럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>디폴트값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 학인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 변경 기능 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수정 불가</t>
   </si>
   <si>
-    <t>비밀번호 초기화 기능 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 업체 비밀번호 초기화 asdf1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제는 정책적으로 구현하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정보 수정시 이용자는 내 정보에서 수정 (메뉴바 상단 &gt; 로그인 계정 정보(test5@test.com) 클릭 &gt; 서브 메뉴 - 내 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용자 가입요청시
-입력 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 업체 추가시
-입력 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 항목
-(이용자, 관리자 공통)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용자 - 내 정보
-수정 가능 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용자 - 내 정보
-표기 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 업체 상세 정보
-표기 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 업체 상세 정보
-수정 가능 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인(approve), 미승인(disapprove 또는 pending), 거부(reject) 불필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컬럼명 -&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승인 &lt;-&gt; 미승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상세 보기 &gt; 수정</t>
@@ -1034,14 +984,131 @@
   </si>
   <si>
     <t>아이디(이메일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 화면에서 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 초기화 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 비밀번호 초기화 asdf1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인(approve), 미승인(pending), 거부(reject) 불필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신일제약 실적관리 프로그램</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>[관리자 또는 업체명]님 반갑습니다.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  대메뉴명 &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중메뉴명</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>대메뉴명   ⅴ</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 오버</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin 추가</t>
+  </si>
+  <si>
+    <t>user 가입</t>
+  </si>
+  <si>
+    <t>user-내 정보</t>
+  </si>
+  <si>
+    <t>admin-업체상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-수정가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-수정가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1116,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1243,8 +1317,110 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1287,8 +1463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1663,370 +1845,552 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2358,865 +2722,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M51"/>
+  <dimension ref="B3:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="13" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="54" customWidth="1"/>
-    <col min="4" max="5" width="14.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="54" customWidth="1"/>
-    <col min="10" max="12" width="18.625" style="54" customWidth="1"/>
-    <col min="13" max="13" width="52.125" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="9" style="137"/>
+    <col min="2" max="2" width="3.25" style="137" customWidth="1"/>
+    <col min="3" max="3" width="1.5" style="137" customWidth="1"/>
+    <col min="4" max="12" width="8.5" style="137" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="137" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="137" customWidth="1"/>
+    <col min="15" max="15" width="3.25" style="137" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="137" customWidth="1"/>
+    <col min="17" max="17" width="1.5" style="137" customWidth="1"/>
+    <col min="18" max="25" width="8.5" style="137" customWidth="1"/>
+    <col min="26" max="26" width="1.5" style="137" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="B3" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1">
-      <c r="B5" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>223</v>
-      </c>
-      <c r="L5" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="54">
-        <v>1</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="76"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="54">
-        <v>1</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="54">
-        <v>1</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="76"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="54">
-        <v>2</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="65"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="54">
-        <v>2</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="54">
-        <v>2</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="65"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="54">
-        <v>2</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="65"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="54">
-        <v>2</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="65"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="54">
-        <v>2</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="65"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="54">
-        <v>2</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="65"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="54">
-        <v>2</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" s="65"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="54">
-        <v>2</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="72"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="54">
-        <v>3</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="L18" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="76"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="54">
-        <v>3</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="65"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="54">
-        <v>3</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="54">
-        <v>3</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L23" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="M23" s="65"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="54">
-        <v>3</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="76"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="65"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" s="83"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="72"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="76"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="65"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="72"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="C32" s="54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="54" t="s">
-        <v>242</v>
-      </c>
+    <row r="3" spans="2:26" ht="21.95" customHeight="1">
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="135" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="136"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y3" s="135" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z3" s="136"/>
+    </row>
+    <row r="4" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="144"/>
+    </row>
+    <row r="5" spans="2:26" ht="18" customHeight="1">
+      <c r="B5" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="148" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="144"/>
+      <c r="O5" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="148" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="144"/>
+    </row>
+    <row r="6" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="144"/>
+    </row>
+    <row r="7" spans="2:26" ht="18" customHeight="1">
+      <c r="B7" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="142"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="144"/>
+      <c r="O7" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="144"/>
+    </row>
+    <row r="8" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="144"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="144"/>
+    </row>
+    <row r="9" spans="2:26" ht="18" customHeight="1">
+      <c r="B9" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="152" t="s">
+        <v>250</v>
+      </c>
+      <c r="O9" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P9" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="144"/>
+    </row>
+    <row r="10" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="144"/>
+    </row>
+    <row r="11" spans="2:26" ht="18" customHeight="1">
+      <c r="B11" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="142"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="153" t="s">
+        <v>251</v>
+      </c>
+      <c r="O11" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="P11" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="144"/>
+    </row>
+    <row r="12" spans="2:26" ht="18" customHeight="1">
+      <c r="B12" s="154"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="144"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="144"/>
+    </row>
+    <row r="13" spans="2:26" ht="18" customHeight="1">
+      <c r="B13" s="154"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="144"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="144"/>
+    </row>
+    <row r="14" spans="2:26" ht="18" customHeight="1">
+      <c r="B14" s="154"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="144"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="144"/>
+    </row>
+    <row r="15" spans="2:26" ht="18" customHeight="1">
+      <c r="B15" s="154"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="144"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="144"/>
+    </row>
+    <row r="16" spans="2:26" ht="18" customHeight="1">
+      <c r="B16" s="154"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="144"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="144"/>
+    </row>
+    <row r="17" spans="2:26" ht="18" customHeight="1">
+      <c r="B17" s="154"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="144"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="144"/>
+    </row>
+    <row r="18" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B18" s="157"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="159"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="159"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="N9:N10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3226,7 +3219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -3384,7 +3379,7 @@
     </row>
     <row r="9" spans="1:46" ht="18" customHeight="1">
       <c r="C9" s="8" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="18" customHeight="1">
@@ -3403,14 +3398,527 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="112"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="16" spans="1:46" ht="18" customHeight="1">
+      <c r="S16" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="127"/>
+    </row>
+    <row r="17" spans="19:46" ht="18" customHeight="1">
+      <c r="S17" s="30"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="31"/>
+      <c r="AT17" s="18"/>
+    </row>
+    <row r="18" spans="19:46" ht="18" customHeight="1">
+      <c r="S18" s="32"/>
+      <c r="T18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="27"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="34"/>
+    </row>
+    <row r="19" spans="19:46" ht="18" customHeight="1">
+      <c r="S19" s="32"/>
+      <c r="T19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+    </row>
+    <row r="20" spans="19:46" ht="18" customHeight="1">
+      <c r="S20" s="32"/>
+      <c r="T20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="27"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+    </row>
+    <row r="21" spans="19:46" ht="18" customHeight="1">
+      <c r="S21" s="32"/>
+      <c r="T21" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" s="27"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+    </row>
+    <row r="22" spans="19:46" ht="18" customHeight="1">
+      <c r="S22" s="32"/>
+      <c r="T22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="27"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+    </row>
+    <row r="23" spans="19:46" ht="18" customHeight="1">
+      <c r="S23" s="32"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+    </row>
+    <row r="24" spans="19:46" ht="18" customHeight="1">
+      <c r="S24" s="32"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+    </row>
+    <row r="25" spans="19:46" ht="18" customHeight="1">
+      <c r="S25" s="13"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="S16:AB16"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3605,12 +4113,12 @@
     <mergeCell ref="AP11:AQ11"/>
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -3784,10 +4292,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="100" t="s">
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3903,12 +4411,12 @@
   <mergeCells count="1">
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -4082,10 +4590,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="100" t="s">
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -4201,12 +4709,12 @@
   <mergeCells count="1">
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -4366,10 +4874,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="100" t="s">
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -4499,12 +5007,12 @@
   <mergeCells count="1">
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -4941,16 +5449,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="117" t="s">
+      <c r="Q24" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="117" t="s">
+      <c r="U24" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="117"/>
+      <c r="V24" s="128"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -4971,12 +5479,936 @@
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="U24:V24"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="54" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="9" customWidth="1"/>
+    <col min="8" max="10" width="12.625" style="54" customWidth="1"/>
+    <col min="11" max="13" width="16.625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="40.125" style="54" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="B2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="55"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="B4" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="162">
+        <v>1</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="76"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="162">
+        <v>1</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="162">
+        <v>1</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="76"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="162">
+        <v>2</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="A9" s="162">
+        <v>2</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="162">
+        <v>2</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="162">
+        <v>2</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="162">
+        <v>2</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="65"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="162">
+        <v>2</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="65"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="162">
+        <v>2</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="65"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="162">
+        <v>2</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="65"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="162">
+        <v>2</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="72"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="162">
+        <v>3</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="76"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="162">
+        <v>3</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="65"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="162">
+        <v>3</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="162"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="162"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="162">
+        <v>3</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="162">
+        <v>3</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="162"/>
+      <c r="B24" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="76"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="162"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="62"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="162"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="83"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="162"/>
+      <c r="B27" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="76"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="162"/>
+      <c r="B28" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="65"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="162"/>
+      <c r="B29" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="72"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="D31" s="54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="D32" s="54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="15" customHeight="1">
+      <c r="D33" s="54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="15" customHeight="1">
+      <c r="D35" s="54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="15" customHeight="1">
+      <c r="D36" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="15" customHeight="1">
+      <c r="D37" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15" customHeight="1">
+      <c r="D38" s="54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="15" customHeight="1">
+      <c r="D39" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="15" customHeight="1">
+      <c r="D40" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="15" customHeight="1">
+      <c r="D41" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15" customHeight="1">
+      <c r="D42" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="15" customHeight="1">
+      <c r="D44" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="15" customHeight="1">
+      <c r="D45" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="15" customHeight="1">
+      <c r="D46" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="15" customHeight="1">
+      <c r="D47" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15" customHeight="1">
+      <c r="D49" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15" customHeight="1">
+      <c r="D50" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
@@ -5169,14 +6601,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5246,10 +6678,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="104" t="s">
+      <c r="AP13" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="104"/>
+      <c r="AQ13" s="115"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -5313,7 +6745,7 @@
     </row>
     <row r="20" spans="2:40" ht="18" customHeight="1">
       <c r="B20" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
@@ -5434,7 +6866,7 @@
     </row>
     <row r="22" spans="2:40" ht="18" customHeight="1">
       <c r="AM22" s="9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5443,17 +6875,17 @@
     <mergeCell ref="AP11:AQ11"/>
     <mergeCell ref="AP13:AQ13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -5632,14 +7064,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -5709,10 +7141,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="104" t="s">
+      <c r="AP13" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="104"/>
+      <c r="AQ13" s="115"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -5804,13 +7236,13 @@
     <mergeCell ref="AS11:AT11"/>
     <mergeCell ref="AP13:AQ13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -5980,10 +7412,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6053,10 +7485,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="104" t="s">
+      <c r="AR13" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="104"/>
+      <c r="AS13" s="115"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -6086,18 +7518,16 @@
     <mergeCell ref="AS11:AT11"/>
     <mergeCell ref="AR13:AS13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -6274,18 +7704,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="102" t="s">
+      <c r="AM11" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="103"/>
-      <c r="AP11" s="102" t="s">
+      <c r="AN11" s="114"/>
+      <c r="AP11" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6406,18 +7836,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="105" t="s">
+      <c r="S16" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="107"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="118"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -6617,15 +8047,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="108" t="s">
+      <c r="W27" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="109"/>
+      <c r="X27" s="120"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="102" t="s">
+      <c r="Z27" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="103"/>
+      <c r="AA27" s="114"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -6663,12 +8093,12 @@
     <mergeCell ref="W27:X27"/>
     <mergeCell ref="Z27:AA27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -6851,14 +8281,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7011,20 +8441,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="110" t="s">
+      <c r="Z19" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="111"/>
-      <c r="AJ19" s="111"/>
-      <c r="AK19" s="112"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="122"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="123"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -7155,10 +8585,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="108" t="s">
+      <c r="AI26" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="109"/>
+      <c r="AJ26" s="120"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -7182,12 +8612,12 @@
     <mergeCell ref="AP11:AQ11"/>
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
@@ -7370,14 +8800,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7520,18 +8950,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="107"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -7551,34 +8981,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="110" t="s">
+      <c r="R18" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="112"/>
-      <c r="AF18" s="110" t="s">
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="123"/>
+      <c r="AF18" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="111"/>
-      <c r="AJ18" s="111"/>
-      <c r="AK18" s="111"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="112"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="122"/>
+      <c r="AP18" s="122"/>
+      <c r="AQ18" s="123"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -7945,15 +9375,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="108" t="s">
+      <c r="X27" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="109"/>
+      <c r="Y27" s="120"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="102" t="s">
+      <c r="AA27" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="103"/>
+      <c r="AB27" s="114"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -7961,15 +9391,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="108" t="s">
+      <c r="AL27" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="109"/>
+      <c r="AM27" s="120"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="102" t="s">
+      <c r="AO27" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="103"/>
+      <c r="AP27" s="114"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -7977,15 +9407,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="109"/>
+      <c r="K28" s="120"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="102" t="s">
+      <c r="M28" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="103"/>
+      <c r="N28" s="114"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -8021,10 +9451,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="113" t="s">
+      <c r="M29" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="113"/>
+      <c r="N29" s="124"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -8316,12 +9746,12 @@
     <mergeCell ref="AL27:AM27"/>
     <mergeCell ref="AO27:AP27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -8504,14 +9934,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="102" t="s">
+      <c r="AP11" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="101"/>
+      <c r="AT11" s="112"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8722,20 +10152,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="110" t="s">
+      <c r="S20" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="112"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="123"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -8865,10 +10295,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="108" t="s">
+      <c r="AB26" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="109"/>
+      <c r="AC26" s="120"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -8892,522 +10322,7 @@
     <mergeCell ref="AP11:AQ11"/>
     <mergeCell ref="AS11:AT11"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ11" s="103"/>
-      <c r="AS11" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="101"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="40">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="9"/>
-    </row>
-    <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="116"/>
-    </row>
-    <row r="17" spans="19:46" ht="18" customHeight="1">
-      <c r="S17" s="30"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="31"/>
-      <c r="AT17" s="18"/>
-    </row>
-    <row r="18" spans="19:46" ht="18" customHeight="1">
-      <c r="S18" s="32"/>
-      <c r="T18" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="34"/>
-    </row>
-    <row r="19" spans="19:46" ht="18" customHeight="1">
-      <c r="S19" s="32"/>
-      <c r="T19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="19:46" ht="18" customHeight="1">
-      <c r="S20" s="32"/>
-      <c r="T20" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-    </row>
-    <row r="21" spans="19:46" ht="18" customHeight="1">
-      <c r="S21" s="32"/>
-      <c r="T21" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-    </row>
-    <row r="22" spans="19:46" ht="18" customHeight="1">
-      <c r="S22" s="32"/>
-      <c r="T22" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-    </row>
-    <row r="23" spans="19:46" ht="18" customHeight="1">
-      <c r="S23" s="32"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-    </row>
-    <row r="24" spans="19:46" ht="18" customHeight="1">
-      <c r="S24" s="32"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-    </row>
-    <row r="25" spans="19:46" ht="18" customHeight="1">
-      <c r="S25" s="13"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="S16:AB16"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="19" r:id="rId1"/>
     <sheet name="테이블" sheetId="15" r:id="rId2"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId3"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId4"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId5"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId6"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId7"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId8"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId9"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId10"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId11"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId12"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId13"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId14"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId3"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId4"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId5"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId6"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId7"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId8"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId9"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId10"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId11"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId12"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId13"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId14"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId15"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="281">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1103,12 +1104,112 @@
     <t>admin-수정가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>신규 업체 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정보</t>
+  </si>
+  <si>
+    <t>아이디(이메일) *</t>
+  </si>
+  <si>
+    <t>비밀번호 *</t>
+  </si>
+  <si>
+    <t>비밀번호 확인 *</t>
+  </si>
+  <si>
+    <t>업체 정보</t>
+  </si>
+  <si>
+    <t>업체명 *</t>
+  </si>
+  <si>
+    <t>사업자등록번호 *</t>
+  </si>
+  <si>
+    <t>대표자 *</t>
+  </si>
+  <si>
+    <t>사업장 소재지 *</t>
+  </si>
+  <si>
+    <t>담당자 *</t>
+  </si>
+  <si>
+    <t>휴대폰 번호 *</t>
+  </si>
+  <si>
+    <t>관리 정보</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>수수료 등급</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>승인여부</t>
+  </si>
+  <si>
+    <t>이메일(수신용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">승인         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ⅴ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ⅴ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,6 +1520,32 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1470,7 +1597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1884,6 +2011,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1896,7 +2124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2613,81 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2724,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
   <cols>
@@ -3217,7 +3520,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
@@ -3439,6 +3742,582 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
+      <c r="X13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" customHeight="1">
+      <c r="C15" s="40">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="48">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="43"/>
+    </row>
+    <row r="17" spans="8:46" ht="18" customHeight="1">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="S17" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT17" s="18"/>
+    </row>
+    <row r="18" spans="8:46" ht="18" customHeight="1">
+      <c r="S18" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="8:46" ht="18" customHeight="1">
+      <c r="R19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+    </row>
+    <row r="20" spans="8:46" ht="18" customHeight="1">
+      <c r="R20" s="25"/>
+      <c r="S20" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+    </row>
+    <row r="21" spans="8:46" ht="18" customHeight="1">
+      <c r="R21" s="25"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+    </row>
+    <row r="22" spans="8:46" ht="18" customHeight="1">
+      <c r="R22" s="25"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+    </row>
+    <row r="23" spans="8:46" ht="18" customHeight="1">
+      <c r="R23" s="25"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="38">
+        <v>1</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+    </row>
+    <row r="24" spans="8:46" ht="18" customHeight="1">
+      <c r="R24" s="25"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="39">
+        <v>2</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+    </row>
+    <row r="25" spans="8:46" ht="18" customHeight="1">
+      <c r="S25" s="30"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="31"/>
+    </row>
+    <row r="26" spans="8:46" ht="18" customHeight="1">
+      <c r="S26" s="30"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="31"/>
+    </row>
+    <row r="27" spans="8:46" ht="18" customHeight="1">
+      <c r="S27" s="13"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="S20:AD20"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="112"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17" t="s">
@@ -3730,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -4118,7 +4997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -4416,7 +5295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -4714,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -5012,7 +5891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -6410,6 +7289,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="180" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="180" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="180" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B3" s="168"/>
+      <c r="C3" s="175" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="177"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="176" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="170"/>
+      <c r="C5" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="186" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="164"/>
+      <c r="F5" s="186" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="164"/>
+      <c r="H5" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="164"/>
+      <c r="J5" s="172"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="170"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="172"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="170"/>
+      <c r="C8" s="185" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="164"/>
+      <c r="F8" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="164"/>
+      <c r="H8" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="164"/>
+      <c r="J8" s="172"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="186" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="186" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="172"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="186" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="186" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="164"/>
+      <c r="H12" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="164"/>
+      <c r="J12" s="172"/>
+    </row>
+    <row r="13" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="172"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="186" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="172"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="170"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="172"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="170"/>
+      <c r="C17" s="185" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="164"/>
+      <c r="F17" s="186" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="186" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="164"/>
+      <c r="J17" s="172"/>
+    </row>
+    <row r="18" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B18" s="170"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="170"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="165"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="172"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B20" s="170"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
+    </row>
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="186" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="181" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" s="178"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="172"/>
+    </row>
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="170"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="178"/>
+      <c r="I23" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" s="172"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="173"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="174"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -6881,11 +8085,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -7242,7 +8446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -7523,7 +8727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
@@ -8098,7 +9302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -8617,7 +9821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
@@ -9749,580 +10953,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="112"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="40">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="9"/>
-    </row>
-    <row r="15" spans="1:46" ht="18" customHeight="1">
-      <c r="C15" s="40">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="48">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="43"/>
-    </row>
-    <row r="17" spans="8:46" ht="18" customHeight="1">
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-      <c r="S17" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT17" s="18"/>
-    </row>
-    <row r="18" spans="8:46" ht="18" customHeight="1">
-      <c r="S18" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="8:46" ht="18" customHeight="1">
-      <c r="R19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="8:46" ht="18" customHeight="1">
-      <c r="R20" s="25"/>
-      <c r="S20" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-    </row>
-    <row r="21" spans="8:46" ht="18" customHeight="1">
-      <c r="R21" s="25"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-    </row>
-    <row r="22" spans="8:46" ht="18" customHeight="1">
-      <c r="R22" s="25"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-    </row>
-    <row r="23" spans="8:46" ht="18" customHeight="1">
-      <c r="R23" s="25"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="38">
-        <v>1</v>
-      </c>
-      <c r="U23" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-    </row>
-    <row r="24" spans="8:46" ht="18" customHeight="1">
-      <c r="R24" s="25"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="39">
-        <v>2</v>
-      </c>
-      <c r="U24" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-    </row>
-    <row r="25" spans="8:46" ht="18" customHeight="1">
-      <c r="S25" s="30"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="31"/>
-    </row>
-    <row r="26" spans="8:46" ht="18" customHeight="1">
-      <c r="S26" s="30"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="31"/>
-    </row>
-    <row r="27" spans="8:46" ht="18" customHeight="1">
-      <c r="S27" s="13"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S20:AD20"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="286">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1202,6 +1202,26 @@
       </rPr>
       <t>ⅴ</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 상세 정보 및 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7289,10 +7309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J24"/>
+  <dimension ref="B3:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7565,7 +7585,7 @@
       <c r="I21" s="171"/>
       <c r="J21" s="172"/>
     </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:10" ht="27.95" customHeight="1">
       <c r="B22" s="170"/>
       <c r="C22" s="171"/>
       <c r="D22" s="178"/>
@@ -7576,7 +7596,7 @@
       <c r="I22" s="171"/>
       <c r="J22" s="172"/>
     </row>
-    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:10" ht="24" customHeight="1">
       <c r="B23" s="170"/>
       <c r="C23" s="171"/>
       <c r="D23" s="178"/>
@@ -7602,10 +7622,349 @@
       <c r="I24" s="163"/>
       <c r="J24" s="174"/>
     </row>
+    <row r="30" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B30" s="168"/>
+      <c r="C30" s="175" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="177"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="176" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="170"/>
+      <c r="C32" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="186" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="164"/>
+      <c r="F32" s="186" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="164"/>
+      <c r="H32" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="I32" s="164"/>
+      <c r="J32" s="172"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="170"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="172"/>
+    </row>
+    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="172"/>
+    </row>
+    <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="170"/>
+      <c r="C35" s="185" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="164"/>
+      <c r="F35" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="164"/>
+      <c r="H35" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="164"/>
+      <c r="J35" s="172"/>
+    </row>
+    <row r="36" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B36" s="170"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="172"/>
+    </row>
+    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="186" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="165"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="186" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="164"/>
+      <c r="J37" s="172"/>
+    </row>
+    <row r="38" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
+    </row>
+    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="186" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="164"/>
+      <c r="F39" s="186" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="164"/>
+      <c r="H39" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="164"/>
+      <c r="J39" s="172"/>
+    </row>
+    <row r="40" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B40" s="170"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
+    </row>
+    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="170"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="186" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="164"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="172"/>
+    </row>
+    <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="170"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="172"/>
+    </row>
+    <row r="43" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="172"/>
+    </row>
+    <row r="44" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="170"/>
+      <c r="C44" s="185" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="164"/>
+      <c r="F44" s="186" t="s">
+        <v>272</v>
+      </c>
+      <c r="G44" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="186" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" s="164"/>
+      <c r="J44" s="172"/>
+    </row>
+    <row r="45" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="172"/>
+    </row>
+    <row r="46" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="170"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="165"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="172"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="172"/>
+    </row>
+    <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="186" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" s="181" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" s="178"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="172"/>
+    </row>
+    <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="170"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="172"/>
+    </row>
+    <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="170"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="172"/>
+    </row>
+    <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="170"/>
+      <c r="C51" s="185" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="186" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="164"/>
+      <c r="F51" s="186" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="H51" s="186" t="s">
+        <v>285</v>
+      </c>
+      <c r="I51" s="164"/>
+      <c r="J51" s="172"/>
+    </row>
+    <row r="52" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="172"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1">
+      <c r="B53" s="170"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" s="178"/>
+      <c r="I53" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="172"/>
+    </row>
+    <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="173"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="174"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E46:I46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -14,20 +14,21 @@
   <sheets>
     <sheet name="UI" sheetId="19" r:id="rId1"/>
     <sheet name="테이블" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId3"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId4"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId5"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId6"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId7"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId8"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId9"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId10"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId11"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId12"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId13"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId14"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId15"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId16"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId4"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId5"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId6"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId7"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId8"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId9"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId10"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId11"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId12"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId13"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId14"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId15"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId16"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="296">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1222,6 +1223,46 @@
   </si>
   <si>
     <t>최종 수정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 등록(추가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록(추가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상세 (관리자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 수정 (관리자)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1616,8 +1657,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2132,6 +2185,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2144,7 +2228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2708,6 +2792,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3540,7 +3648,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
@@ -3702,7 +3810,7 @@
     </row>
     <row r="9" spans="1:46" ht="18" customHeight="1">
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="18" customHeight="1">
@@ -3710,7 +3818,7 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3722,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AP11" s="113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AQ11" s="114"/>
       <c r="AS11" s="111" t="s">
@@ -3736,14 +3844,14 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -3752,43 +3860,49 @@
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="W13" s="17"/>
-      <c r="X13" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC13" s="17"/>
+      <c r="AA13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
+      <c r="AF13" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="AG13" s="17"/>
       <c r="AH13" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
+      <c r="AL13" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
@@ -3797,52 +3911,56 @@
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="40">
+      <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="47" t="s">
-        <v>101</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="40" t="s">
-        <v>102</v>
+      <c r="M14" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="R14" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="9">
-        <v>1</v>
-      </c>
+      <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="44" t="s">
-        <v>127</v>
+      <c r="AA14" s="9">
+        <v>1</v>
       </c>
       <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
+      <c r="AC14" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="AD14" s="9"/>
-      <c r="AE14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="43">
+        <v>3</v>
+      </c>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
+      <c r="AH14" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
@@ -3850,7 +3968,9 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="43"/>
+      <c r="AP14" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9" t="s">
@@ -3858,110 +3978,180 @@
       </c>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" ht="18" customHeight="1">
-      <c r="C15" s="40">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="48">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="43"/>
-    </row>
-    <row r="17" spans="8:46" ht="18" customHeight="1">
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-      <c r="S17" s="46" t="s">
-        <v>131</v>
+    <row r="17" spans="6:46" ht="18" customHeight="1">
+      <c r="F17" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
+      <c r="W17" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK17" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="AT17" s="18"/>
     </row>
-    <row r="18" spans="8:46" ht="18" customHeight="1">
-      <c r="S18" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="8:46" ht="18" customHeight="1">
-      <c r="R19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="8:46" ht="18" customHeight="1">
-      <c r="R20" s="25"/>
-      <c r="S20" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-    </row>
-    <row r="21" spans="8:46" ht="18" customHeight="1">
-      <c r="R21" s="25"/>
-      <c r="S21" s="30"/>
+    <row r="18" spans="6:46" ht="18" customHeight="1">
+      <c r="F18" s="30"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="31"/>
+      <c r="R18" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="123"/>
+      <c r="AF18" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="122"/>
+      <c r="AP18" s="122"/>
+      <c r="AQ18" s="123"/>
+    </row>
+    <row r="19" spans="6:46" ht="18" customHeight="1">
+      <c r="F19" s="32"/>
+      <c r="G19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="34"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="31"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="31"/>
+    </row>
+    <row r="20" spans="6:46" ht="18" customHeight="1">
+      <c r="F20" s="32"/>
+      <c r="G20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="25"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="31"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="31"/>
+    </row>
+    <row r="21" spans="6:46" ht="18" customHeight="1">
+      <c r="F21" s="32"/>
+      <c r="G21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="25"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
@@ -3971,97 +4161,176 @@
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-    </row>
-    <row r="22" spans="8:46" ht="18" customHeight="1">
-      <c r="R22" s="25"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16" t="s">
+      <c r="AC21" s="31"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="31"/>
+    </row>
+    <row r="22" spans="6:46" ht="18" customHeight="1">
+      <c r="F22" s="32"/>
+      <c r="G22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="25"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="31"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="31"/>
+    </row>
+    <row r="23" spans="6:46" ht="18" customHeight="1">
+      <c r="F23" s="32"/>
+      <c r="G23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-    </row>
-    <row r="23" spans="8:46" ht="18" customHeight="1">
-      <c r="R23" s="25"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="38">
-        <v>1</v>
-      </c>
-      <c r="U23" s="49" t="s">
-        <v>129</v>
-      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="25"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
-      <c r="Y23" s="40" t="s">
-        <v>134</v>
-      </c>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-    </row>
-    <row r="24" spans="8:46" ht="18" customHeight="1">
-      <c r="R24" s="25"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="39">
-        <v>2</v>
-      </c>
-      <c r="U24" s="49" t="s">
-        <v>133</v>
-      </c>
+      <c r="AC23" s="31"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="31"/>
+    </row>
+    <row r="24" spans="6:46" ht="18" customHeight="1">
+      <c r="F24" s="32"/>
+      <c r="G24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="25"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
-      <c r="Y24" s="40" t="s">
-        <v>135</v>
-      </c>
+      <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-    </row>
-    <row r="25" spans="8:46" ht="18" customHeight="1">
-      <c r="S25" s="30"/>
-      <c r="T25" s="37"/>
+      <c r="AC24" s="31"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="31"/>
+    </row>
+    <row r="25" spans="6:46" ht="18" customHeight="1">
+      <c r="F25" s="32"/>
+      <c r="G25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="25"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
@@ -4070,44 +4339,441 @@
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="31"/>
-    </row>
-    <row r="26" spans="8:46" ht="18" customHeight="1">
-      <c r="S26" s="30"/>
+      <c r="AC25" s="31"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="31"/>
+    </row>
+    <row r="26" spans="6:46" ht="18" customHeight="1">
+      <c r="F26" s="32"/>
+      <c r="G26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="25"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="31"/>
-    </row>
-    <row r="27" spans="8:46" ht="18" customHeight="1">
-      <c r="S27" s="13"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="23"/>
+      <c r="AC26" s="31"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AQ26" s="31"/>
+    </row>
+    <row r="27" spans="6:46" ht="18" customHeight="1">
+      <c r="F27" s="32"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="25"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB27" s="114"/>
+      <c r="AC27" s="31"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="31"/>
+    </row>
+    <row r="28" spans="6:46" ht="18" customHeight="1">
+      <c r="F28" s="32"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="120"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="114"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="25"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="23"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="23"/>
+    </row>
+    <row r="29" spans="6:46" ht="18" customHeight="1">
+      <c r="F29" s="13"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="124"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="34" spans="4:40" ht="18" customHeight="1">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+    </row>
+    <row r="35" spans="4:40" ht="18" customHeight="1">
+      <c r="D35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+    </row>
+    <row r="36" spans="4:40" ht="18" customHeight="1">
+      <c r="D36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+    </row>
+    <row r="37" spans="4:40" ht="18" customHeight="1">
+      <c r="D37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+    </row>
+    <row r="38" spans="4:40" ht="18" customHeight="1">
+      <c r="D38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+    </row>
+    <row r="39" spans="4:40" ht="18" customHeight="1">
+      <c r="D39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+    </row>
+    <row r="40" spans="4:40" ht="18" customHeight="1">
+      <c r="D40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+    </row>
+    <row r="41" spans="4:40" ht="18" customHeight="1">
+      <c r="D41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+    </row>
+    <row r="42" spans="4:40" ht="18" customHeight="1">
+      <c r="D42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="25"/>
+    </row>
+    <row r="43" spans="4:40" ht="18" customHeight="1">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+    </row>
+    <row r="44" spans="4:40" ht="18" customHeight="1">
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S20:AD20"/>
-    <mergeCell ref="AB26:AC26"/>
+  <mergeCells count="12">
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="AP11:AQ11"/>
     <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="R18:AC18"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AF18:AQ18"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="AO27:AP27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,7 +4782,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
@@ -4338,6 +5004,582 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
+      <c r="X13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" customHeight="1">
+      <c r="C15" s="40">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="48">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="43"/>
+    </row>
+    <row r="17" spans="8:46" ht="18" customHeight="1">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="S17" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT17" s="18"/>
+    </row>
+    <row r="18" spans="8:46" ht="18" customHeight="1">
+      <c r="S18" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="8:46" ht="18" customHeight="1">
+      <c r="R19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+    </row>
+    <row r="20" spans="8:46" ht="18" customHeight="1">
+      <c r="R20" s="25"/>
+      <c r="S20" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+    </row>
+    <row r="21" spans="8:46" ht="18" customHeight="1">
+      <c r="R21" s="25"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+    </row>
+    <row r="22" spans="8:46" ht="18" customHeight="1">
+      <c r="R22" s="25"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+    </row>
+    <row r="23" spans="8:46" ht="18" customHeight="1">
+      <c r="R23" s="25"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="38">
+        <v>1</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+    </row>
+    <row r="24" spans="8:46" ht="18" customHeight="1">
+      <c r="R24" s="25"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="39">
+        <v>2</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+    </row>
+    <row r="25" spans="8:46" ht="18" customHeight="1">
+      <c r="S25" s="30"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="31"/>
+    </row>
+    <row r="26" spans="8:46" ht="18" customHeight="1">
+      <c r="S26" s="30"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="31"/>
+    </row>
+    <row r="27" spans="8:46" ht="18" customHeight="1">
+      <c r="S27" s="13"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="S20:AD20"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ11" s="114"/>
+      <c r="AS11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="112"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17" t="s">
@@ -4629,7 +5871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -5017,7 +6259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -5315,7 +6557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -5613,7 +6855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -5911,7 +7153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -6387,7 +7629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7309,10 +8553,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="2" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="6" width="6.625" style="180" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="180" customWidth="1"/>
+    <col min="9" max="10" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="188"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="170"/>
+      <c r="C4" s="193" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="178"/>
+      <c r="I8" s="184" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" s="172"/>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="173"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="174"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="188"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191"/>
+    </row>
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="170"/>
+      <c r="C13" s="193" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="195" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="178"/>
+      <c r="I13" s="194" t="s">
+        <v>291</v>
+      </c>
+      <c r="J13" s="172"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="172"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="170"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="170"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="183" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="172"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="173"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="174"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="188"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="191"/>
+    </row>
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="170"/>
+      <c r="C22" s="193" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="170"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="170"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="170"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
+    </row>
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="178"/>
+      <c r="I26" s="184" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" s="172"/>
+    </row>
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="173"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="174"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7971,7 +9500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
@@ -8444,7 +9973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
@@ -8805,7 +10334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -9086,7 +10615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
@@ -9661,7 +11190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -10178,1138 +11707,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="112"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="43">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="9"/>
-    </row>
-    <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
-      <c r="W17" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK17" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT17" s="18"/>
-    </row>
-    <row r="18" spans="6:46" ht="18" customHeight="1">
-      <c r="F18" s="30"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="31"/>
-      <c r="R18" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="123"/>
-      <c r="AF18" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="122"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="123"/>
-    </row>
-    <row r="19" spans="6:46" ht="18" customHeight="1">
-      <c r="F19" s="32"/>
-      <c r="G19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="34"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="31"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="31"/>
-    </row>
-    <row r="20" spans="6:46" ht="18" customHeight="1">
-      <c r="F20" s="32"/>
-      <c r="G20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="25"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="31"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="31"/>
-    </row>
-    <row r="21" spans="6:46" ht="18" customHeight="1">
-      <c r="F21" s="32"/>
-      <c r="G21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="25"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="31"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="31"/>
-    </row>
-    <row r="22" spans="6:46" ht="18" customHeight="1">
-      <c r="F22" s="32"/>
-      <c r="G22" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="25"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="31"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="31"/>
-    </row>
-    <row r="23" spans="6:46" ht="18" customHeight="1">
-      <c r="F23" s="32"/>
-      <c r="G23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="25"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="31"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="31"/>
-    </row>
-    <row r="24" spans="6:46" ht="18" customHeight="1">
-      <c r="F24" s="32"/>
-      <c r="G24" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="25"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="31"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="31"/>
-    </row>
-    <row r="25" spans="6:46" ht="18" customHeight="1">
-      <c r="F25" s="32"/>
-      <c r="G25" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="25"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="31"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="31"/>
-    </row>
-    <row r="26" spans="6:46" ht="18" customHeight="1">
-      <c r="F26" s="32"/>
-      <c r="G26" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="25"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="AC26" s="31"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AQ26" s="31"/>
-    </row>
-    <row r="27" spans="6:46" ht="18" customHeight="1">
-      <c r="F27" s="32"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="25"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="31"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM27" s="120"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="31"/>
-    </row>
-    <row r="28" spans="6:46" ht="18" customHeight="1">
-      <c r="F28" s="32"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="N28" s="114"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="25"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="23"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="23"/>
-    </row>
-    <row r="29" spans="6:46" ht="18" customHeight="1">
-      <c r="F29" s="13"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="N29" s="124"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-    </row>
-    <row r="34" spans="4:40" ht="18" customHeight="1">
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-    </row>
-    <row r="35" spans="4:40" ht="18" customHeight="1">
-      <c r="D35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-    </row>
-    <row r="36" spans="4:40" ht="18" customHeight="1">
-      <c r="D36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-    </row>
-    <row r="37" spans="4:40" ht="18" customHeight="1">
-      <c r="D37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-    </row>
-    <row r="38" spans="4:40" ht="18" customHeight="1">
-      <c r="D38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-    </row>
-    <row r="39" spans="4:40" ht="18" customHeight="1">
-      <c r="D39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-    </row>
-    <row r="40" spans="4:40" ht="18" customHeight="1">
-      <c r="D40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-    </row>
-    <row r="41" spans="4:40" ht="18" customHeight="1">
-      <c r="D41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-    </row>
-    <row r="42" spans="4:40" ht="18" customHeight="1">
-      <c r="D42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-    </row>
-    <row r="43" spans="4:40" ht="18" customHeight="1">
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-    </row>
-    <row r="44" spans="4:40" ht="18" customHeight="1">
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="R18:AC18"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AF18:AQ18"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="AO27:AP27"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="19" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="304">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1263,6 +1263,38 @@
   </si>
   <si>
     <t>3. 수정 (관리자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2228,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2538,6 +2570,198 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2562,6 +2786,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2616,205 +2849,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3159,482 +3200,482 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="137"/>
-    <col min="2" max="2" width="3.25" style="137" customWidth="1"/>
-    <col min="3" max="3" width="1.5" style="137" customWidth="1"/>
-    <col min="4" max="12" width="8.5" style="137" customWidth="1"/>
-    <col min="13" max="13" width="1.5" style="137" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="137" customWidth="1"/>
-    <col min="15" max="15" width="3.25" style="137" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="137" customWidth="1"/>
-    <col min="17" max="17" width="1.5" style="137" customWidth="1"/>
-    <col min="18" max="25" width="8.5" style="137" customWidth="1"/>
-    <col min="26" max="26" width="1.5" style="137" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="9" style="111"/>
+    <col min="2" max="2" width="3.25" style="111" customWidth="1"/>
+    <col min="3" max="3" width="1.5" style="111" customWidth="1"/>
+    <col min="4" max="12" width="8.5" style="111" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="111" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="111" customWidth="1"/>
+    <col min="15" max="15" width="3.25" style="111" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="111" customWidth="1"/>
+    <col min="17" max="17" width="1.5" style="111" customWidth="1"/>
+    <col min="18" max="25" width="8.5" style="111" customWidth="1"/>
+    <col min="26" max="26" width="1.5" style="111" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="111"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="21.95" customHeight="1">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="135" t="s">
+      <c r="L3" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="131" t="s">
+      <c r="M3" s="110"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134" t="s">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="Y3" s="135" t="s">
+      <c r="Y3" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="Z3" s="136"/>
+      <c r="Z3" s="110"/>
     </row>
     <row r="4" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="144"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="144"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="118"/>
     </row>
     <row r="5" spans="2:26" ht="18" customHeight="1">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="148" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="144"/>
-      <c r="O5" s="150" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="118"/>
+      <c r="O5" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="148" t="s">
+      <c r="Q5" s="116"/>
+      <c r="R5" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="144"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="118"/>
     </row>
     <row r="6" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B6" s="141"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="144"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="118"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="118"/>
     </row>
     <row r="7" spans="2:26" ht="18" customHeight="1">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="144"/>
-      <c r="O7" s="150" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="118"/>
+      <c r="O7" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="P7" s="151" t="s">
+      <c r="P7" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="144"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="118"/>
     </row>
     <row r="8" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="144"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="144"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="118"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="118"/>
     </row>
     <row r="9" spans="2:26" ht="18" customHeight="1">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="152" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="150" t="s">
+      <c r="O9" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="P9" s="151" t="s">
+      <c r="P9" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="144"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="118"/>
     </row>
     <row r="10" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="144"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="118"/>
     </row>
     <row r="11" spans="2:26" ht="18" customHeight="1">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="153" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="O11" s="150" t="s">
+      <c r="O11" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="P11" s="151" t="s">
+      <c r="P11" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="149"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="144"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="118"/>
     </row>
     <row r="12" spans="2:26" ht="18" customHeight="1">
-      <c r="B12" s="154"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="144"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="144"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="118"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="118"/>
     </row>
     <row r="13" spans="2:26" ht="18" customHeight="1">
-      <c r="B13" s="154"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="144"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="144"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="118"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="118"/>
     </row>
     <row r="14" spans="2:26" ht="18" customHeight="1">
-      <c r="B14" s="154"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="144"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="144"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="118"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="118"/>
     </row>
     <row r="15" spans="2:26" ht="18" customHeight="1">
-      <c r="B15" s="154"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="144"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="144"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="118"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="118"/>
     </row>
     <row r="16" spans="2:26" ht="18" customHeight="1">
-      <c r="B16" s="154"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="144"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="144"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="118"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="118"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1">
-      <c r="B17" s="154"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="144"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="149"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="144"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="118"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="118"/>
     </row>
     <row r="18" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="159"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="159"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3829,14 +3870,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3979,18 +4020,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="185"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -4010,34 +4051,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="121" t="s">
+      <c r="R18" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="123"/>
-      <c r="AF18" s="121" t="s">
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="190"/>
+      <c r="AF18" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="122"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="123"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="189"/>
+      <c r="AI18" s="189"/>
+      <c r="AJ18" s="189"/>
+      <c r="AK18" s="189"/>
+      <c r="AL18" s="189"/>
+      <c r="AM18" s="189"/>
+      <c r="AN18" s="189"/>
+      <c r="AO18" s="189"/>
+      <c r="AP18" s="189"/>
+      <c r="AQ18" s="190"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -4404,15 +4445,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="119" t="s">
+      <c r="X27" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="120"/>
+      <c r="Y27" s="187"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="113" t="s">
+      <c r="AA27" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="114"/>
+      <c r="AB27" s="181"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -4420,15 +4461,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="119" t="s">
+      <c r="AL27" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="120"/>
+      <c r="AM27" s="187"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="113" t="s">
+      <c r="AO27" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="114"/>
+      <c r="AP27" s="181"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -4436,15 +4477,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="119" t="s">
+      <c r="J28" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="120"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="113" t="s">
+      <c r="M28" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="114"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -4480,10 +4521,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="124" t="s">
+      <c r="M29" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="124"/>
+      <c r="N29" s="191"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -4963,14 +5004,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5181,20 +5222,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="121" t="s">
+      <c r="S20" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="123"/>
+      <c r="T20" s="189"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="189"/>
+      <c r="W20" s="189"/>
+      <c r="X20" s="189"/>
+      <c r="Y20" s="189"/>
+      <c r="Z20" s="189"/>
+      <c r="AA20" s="189"/>
+      <c r="AB20" s="189"/>
+      <c r="AC20" s="189"/>
+      <c r="AD20" s="190"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -5324,10 +5365,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="119" t="s">
+      <c r="AB26" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="120"/>
+      <c r="AC26" s="187"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -5539,14 +5580,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5673,18 +5714,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="125" t="s">
+      <c r="S16" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="127"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="194"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -5821,15 +5862,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="119" t="s">
+      <c r="W24" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="120"/>
+      <c r="X24" s="187"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="113" t="s">
+      <c r="Z24" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="114"/>
+      <c r="AA24" s="181"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -6052,14 +6093,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6433,10 +6474,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="111" t="s">
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6731,10 +6772,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="111" t="s">
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -7015,10 +7056,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="111" t="s">
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7590,16 +7631,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="128" t="s">
+      <c r="Q24" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="128" t="s">
+      <c r="U24" s="195" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="128"/>
+      <c r="V24" s="195"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -7627,10 +7668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N50"/>
+  <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -7694,10 +7735,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="162">
+      <c r="A5" s="135">
         <v>1</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="167" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -7732,10 +7773,10 @@
       <c r="N5" s="76"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="162">
+      <c r="A6" s="135">
         <v>1</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -7766,10 +7807,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="162">
+      <c r="A7" s="135">
         <v>1</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -7794,10 +7835,10 @@
       <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="162">
+      <c r="A8" s="135">
         <v>2</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="170" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -7834,10 +7875,10 @@
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="162">
+      <c r="A9" s="135">
         <v>2</v>
       </c>
-      <c r="B9" s="104"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -7872,10 +7913,10 @@
       <c r="N9" s="65"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="162">
+      <c r="A10" s="135">
         <v>2</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -7910,10 +7951,10 @@
       <c r="N10" s="65"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="162">
+      <c r="A11" s="135">
         <v>2</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -7948,10 +7989,10 @@
       <c r="N11" s="65"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="135">
         <v>2</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -7980,10 +8021,10 @@
       <c r="N12" s="65"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="162">
+      <c r="A13" s="135">
         <v>2</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -8016,10 +8057,10 @@
       <c r="N13" s="65"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="162">
+      <c r="A14" s="135">
         <v>2</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -8052,10 +8093,10 @@
       <c r="N14" s="65"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="162">
+      <c r="A15" s="135">
         <v>2</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -8084,10 +8125,10 @@
       <c r="N15" s="65"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="162">
+      <c r="A16" s="135">
         <v>2</v>
       </c>
-      <c r="B16" s="107"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -8116,10 +8157,10 @@
       <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="162">
+      <c r="A17" s="135">
         <v>3</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="167" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -8150,10 +8191,10 @@
       <c r="N17" s="76"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="162">
+      <c r="A18" s="135">
         <v>3</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -8180,10 +8221,10 @@
       <c r="N18" s="65"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="162">
+      <c r="A19" s="135">
         <v>3</v>
       </c>
-      <c r="B19" s="104"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -8214,8 +8255,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="162"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -8238,8 +8279,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="162"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -8264,10 +8305,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="162">
+      <c r="A22" s="135">
         <v>3</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -8294,10 +8335,10 @@
       <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="162">
+      <c r="A23" s="135">
         <v>3</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -8324,8 +8365,8 @@
       <c r="N23" s="72"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
-      <c r="A24" s="162"/>
-      <c r="B24" s="108" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="172" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -8346,8 +8387,8 @@
       <c r="N24" s="76"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -8368,8 +8409,8 @@
       <c r="N25" s="65"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
-      <c r="A26" s="162"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -8390,7 +8431,7 @@
       <c r="N26" s="72"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="100" t="s">
         <v>150</v>
       </c>
@@ -8410,7 +8451,7 @@
       <c r="N27" s="76"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="A28" s="162"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="101" t="s">
         <v>66</v>
       </c>
@@ -8432,7 +8473,7 @@
       <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="162"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="102" t="s">
         <v>152</v>
       </c>
@@ -8528,14 +8569,148 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="15" customHeight="1">
+    <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="D49" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="15" customHeight="1">
+    <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="D50" s="54" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1">
+      <c r="B56" s="55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1">
+      <c r="B58" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="197">
+        <f>SUM(D59:D64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1">
+      <c r="B59" s="73"/>
+      <c r="C59" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="197">
+        <v>0.11</v>
+      </c>
+      <c r="F59" s="9">
+        <v>120</v>
+      </c>
+      <c r="G59" s="196">
+        <f>F59/SUM($F$59:$F$64)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H59" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1">
+      <c r="B60" s="73"/>
+      <c r="C60" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="197">
+        <v>0.42</v>
+      </c>
+      <c r="F60" s="9">
+        <v>720</v>
+      </c>
+      <c r="G60" s="196">
+        <f>F60/SUM($F$59:$F$64)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="H60" s="54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15" customHeight="1">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="197">
+        <v>0.11</v>
+      </c>
+      <c r="F61" s="9">
+        <v>120</v>
+      </c>
+      <c r="G61" s="196">
+        <f>F61/SUM($F$59:$F$64)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H61" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15" customHeight="1">
+      <c r="B62" s="64"/>
+      <c r="C62" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="198">
+        <v>0.11</v>
+      </c>
+      <c r="F62" s="9">
+        <v>120</v>
+      </c>
+      <c r="G62" s="196">
+        <f>F62/SUM($F$59:$F$64)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H62" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="15" customHeight="1">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="198">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F63" s="9">
+        <v>200</v>
+      </c>
+      <c r="G63" s="196">
+        <f>F63/SUM($F$59:$F$64)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H63" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1">
+      <c r="B64" s="64"/>
+      <c r="C64" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="198">
+        <v>0.11</v>
+      </c>
+      <c r="F64" s="9">
+        <v>120</v>
+      </c>
+      <c r="G64" s="196">
+        <f>F64/SUM($F$59:$F$64)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H64" s="54">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8555,14 +8730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="2" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="6" width="6.625" style="180" customWidth="1"/>
+    <col min="4" max="6" width="6.625" style="150" customWidth="1"/>
     <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="180" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="150" customWidth="1"/>
     <col min="9" max="10" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8572,87 +8747,87 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="188"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="161"/>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="170"/>
-      <c r="C4" s="193" t="s">
+      <c r="B4" s="140"/>
+      <c r="C4" s="163" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="170"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="170"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="170"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="183" t="s">
+      <c r="B8" s="140"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="184" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="172"/>
+      <c r="J8" s="142"/>
     </row>
     <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="173"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="174"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="24" t="s">
@@ -8660,87 +8835,87 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="188"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="170"/>
-      <c r="C13" s="193" t="s">
+      <c r="B13" s="140"/>
+      <c r="C13" s="163" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="195" t="s">
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="H13" s="178"/>
-      <c r="I13" s="194" t="s">
+      <c r="H13" s="148"/>
+      <c r="I13" s="164" t="s">
         <v>291</v>
       </c>
-      <c r="J13" s="172"/>
+      <c r="J13" s="142"/>
     </row>
     <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="170"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="183" t="s">
+      <c r="B17" s="140"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="172"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="173"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="174"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="144"/>
     </row>
     <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="24" t="s">
@@ -8748,87 +8923,87 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="188"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="170"/>
-      <c r="C22" s="193" t="s">
+      <c r="B22" s="140"/>
+      <c r="C22" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="142"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="142"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="170"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="142"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="170"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="142"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="170"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="183" t="s">
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="H26" s="178"/>
-      <c r="I26" s="184" t="s">
+      <c r="H26" s="148"/>
+      <c r="I26" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="J26" s="172"/>
+      <c r="J26" s="142"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="173"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="174"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="144"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8848,645 +9023,645 @@
   <cols>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="180" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="150" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="180" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="150" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="180" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="150" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B3" s="168"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="176" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="146" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="170"/>
-      <c r="C5" s="185" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="186" t="s">
+      <c r="E5" s="137"/>
+      <c r="F5" s="156" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="186" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="172"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="170"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="172"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="170"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="170"/>
-      <c r="C8" s="185" t="s">
+      <c r="B8" s="140"/>
+      <c r="C8" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="156" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="186" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="186" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="156" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="172"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="142"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="186" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="186" t="s">
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="172"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="142"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="170"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="186" t="s">
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="186" t="s">
+      <c r="E12" s="137"/>
+      <c r="F12" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="164"/>
-      <c r="H12" s="186" t="s">
+      <c r="G12" s="137"/>
+      <c r="H12" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="164"/>
-      <c r="J12" s="172"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B13" s="170"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
     </row>
     <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="186" t="s">
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="156" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="170"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="172"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="185" t="s">
+      <c r="B17" s="140"/>
+      <c r="C17" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="186" t="s">
+      <c r="D17" s="156" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="186" t="s">
+      <c r="E17" s="137"/>
+      <c r="F17" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="182" t="s">
+      <c r="G17" s="152" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="186" t="s">
+      <c r="H17" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="164"/>
-      <c r="J17" s="172"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="186" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="165"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B20" s="170"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="142"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="170"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="186" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="E21" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
     </row>
     <row r="22" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="142"/>
     </row>
     <row r="23" spans="2:10" ht="24" customHeight="1">
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="183" t="s">
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="H23" s="178"/>
-      <c r="I23" s="184" t="s">
+      <c r="H23" s="148"/>
+      <c r="I23" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="J23" s="172"/>
+      <c r="J23" s="142"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="173"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="174"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="30" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B30" s="168"/>
-      <c r="C30" s="175" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="145" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="176" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="146" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="170"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="142"/>
     </row>
     <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="170"/>
-      <c r="C32" s="185" t="s">
+      <c r="B32" s="140"/>
+      <c r="C32" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="186" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="156" t="s">
         <v>261</v>
       </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="186" t="s">
+      <c r="G32" s="137"/>
+      <c r="H32" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="I32" s="164"/>
-      <c r="J32" s="172"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="142"/>
     </row>
     <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="170"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="172"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="142"/>
     </row>
     <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="172"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="142"/>
     </row>
     <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="170"/>
-      <c r="C35" s="185" t="s">
+      <c r="B35" s="140"/>
+      <c r="C35" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="D35" s="186" t="s">
+      <c r="D35" s="156" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="186" t="s">
+      <c r="E35" s="137"/>
+      <c r="F35" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="G35" s="164"/>
-      <c r="H35" s="186" t="s">
+      <c r="G35" s="137"/>
+      <c r="H35" s="156" t="s">
         <v>266</v>
       </c>
-      <c r="I35" s="164"/>
-      <c r="J35" s="172"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="142"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B36" s="170"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="186" t="s">
+      <c r="B37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="165"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="186" t="s">
+      <c r="E37" s="175"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="164"/>
-      <c r="J37" s="172"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="142"/>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B38" s="170"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="142"/>
     </row>
     <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="170"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="186" t="s">
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="186" t="s">
+      <c r="E39" s="137"/>
+      <c r="F39" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="164"/>
-      <c r="H39" s="186" t="s">
+      <c r="G39" s="137"/>
+      <c r="H39" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="164"/>
-      <c r="J39" s="172"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="142"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B40" s="170"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="142"/>
     </row>
     <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="186" t="s">
+      <c r="B41" s="140"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="156" t="s">
         <v>275</v>
       </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="170"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="172"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="142"/>
     </row>
     <row r="43" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="172"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="142"/>
     </row>
     <row r="44" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="170"/>
-      <c r="C44" s="185" t="s">
+      <c r="B44" s="140"/>
+      <c r="C44" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="186" t="s">
+      <c r="D44" s="156" t="s">
         <v>271</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="186" t="s">
+      <c r="E44" s="137"/>
+      <c r="F44" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="G44" s="182" t="s">
+      <c r="G44" s="152" t="s">
         <v>280</v>
       </c>
-      <c r="H44" s="186" t="s">
+      <c r="H44" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="I44" s="164"/>
-      <c r="J44" s="172"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="142"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B45" s="170"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="172"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="170"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="186" t="s">
+      <c r="B46" s="140"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="165"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="172"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B47" s="170"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="142"/>
     </row>
     <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="170"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="186" t="s">
+      <c r="B48" s="140"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="181" t="s">
+      <c r="E48" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="F48" s="178"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="142"/>
     </row>
     <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="170"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="187"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="163"/>
-      <c r="J49" s="172"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="142"/>
     </row>
     <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="170"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="186"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="172"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="142"/>
     </row>
     <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="170"/>
-      <c r="C51" s="185" t="s">
+      <c r="B51" s="140"/>
+      <c r="C51" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="156" t="s">
         <v>283</v>
       </c>
-      <c r="E51" s="164"/>
-      <c r="F51" s="186" t="s">
+      <c r="E51" s="137"/>
+      <c r="F51" s="156" t="s">
         <v>284</v>
       </c>
-      <c r="G51" s="182" t="s">
+      <c r="G51" s="152" t="s">
         <v>280</v>
       </c>
-      <c r="H51" s="186" t="s">
+      <c r="H51" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="I51" s="164"/>
-      <c r="J51" s="172"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="142"/>
     </row>
     <row r="52" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B52" s="170"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="142"/>
     </row>
     <row r="53" spans="2:10" ht="24" customHeight="1">
-      <c r="B53" s="170"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="183" t="s">
+      <c r="B53" s="140"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="141"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="H53" s="178"/>
-      <c r="I53" s="184" t="s">
+      <c r="H53" s="148"/>
+      <c r="I53" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="J53" s="172"/>
+      <c r="J53" s="142"/>
     </row>
     <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="173"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="174"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9693,14 +9868,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9770,10 +9945,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="115" t="s">
+      <c r="AP13" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="115"/>
+      <c r="AQ13" s="182"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -10156,14 +10331,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -10233,10 +10408,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="115" t="s">
+      <c r="AP13" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="115"/>
+      <c r="AQ13" s="182"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -10504,10 +10679,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10577,10 +10752,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="115" t="s">
+      <c r="AR13" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="115"/>
+      <c r="AS13" s="182"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -10796,18 +10971,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="113" t="s">
+      <c r="AM11" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="114"/>
-      <c r="AP11" s="113" t="s">
+      <c r="AN11" s="181"/>
+      <c r="AP11" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10928,18 +11103,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="116" t="s">
+      <c r="S16" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="118"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="184"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="184"/>
+      <c r="AB16" s="185"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -11139,15 +11314,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="119" t="s">
+      <c r="W27" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="120"/>
+      <c r="X27" s="187"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="113" t="s">
+      <c r="Z27" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="114"/>
+      <c r="AA27" s="181"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -11373,14 +11548,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="113" t="s">
+      <c r="AP11" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="114"/>
-      <c r="AS11" s="111" t="s">
+      <c r="AQ11" s="181"/>
+      <c r="AS11" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="112"/>
+      <c r="AT11" s="179"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -11533,20 +11708,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="121" t="s">
+      <c r="Z19" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="123"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="189"/>
+      <c r="AI19" s="189"/>
+      <c r="AJ19" s="189"/>
+      <c r="AK19" s="190"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -11677,10 +11852,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="119" t="s">
+      <c r="AI26" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="120"/>
+      <c r="AJ26" s="187"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,26 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="19" r:id="rId1"/>
     <sheet name="테이블" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId4"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId5"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId6"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId7"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId8"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId9"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId10"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId11"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId12"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId13"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId14"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId15"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId16"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId4"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId6"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId7"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId8"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId9"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId10"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId11"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId12"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId13"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId14"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId15"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId16"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId17"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId18"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="328">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1297,12 +1299,108 @@
     <t>너비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>아이디(이메일) *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체명 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업장 소재지 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선전화</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신용 이메일</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료 등급</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인여부</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 업체 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;------------------------------------------------------------- 960px -------------------------------------------------------------&gt;</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신일제약 실적관리 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자명 *</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;----------------------------------------- 720px ----------------------------------------&gt;</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,6 +1732,40 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2260,7 +2392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2759,6 +2891,15 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2849,13 +2990,88 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3413,7 +3629,7 @@
       <c r="K9" s="123"/>
       <c r="L9" s="123"/>
       <c r="M9" s="118"/>
-      <c r="N9" s="166" t="s">
+      <c r="N9" s="169" t="s">
         <v>250</v>
       </c>
       <c r="O9" s="124" t="s">
@@ -3446,7 +3662,7 @@
       <c r="K10" s="123"/>
       <c r="L10" s="123"/>
       <c r="M10" s="118"/>
-      <c r="N10" s="166"/>
+      <c r="N10" s="169"/>
       <c r="O10" s="119"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="116"/>
@@ -3689,11 +3905,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -3851,7 +4065,7 @@
     </row>
     <row r="9" spans="1:46" ht="18" customHeight="1">
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="18" customHeight="1">
@@ -3859,7 +4073,7 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3870,14 +4084,591 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AM11" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="184"/>
+      <c r="AP11" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="182"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="16" spans="1:46" ht="18" customHeight="1">
+      <c r="S16" s="186" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="188"/>
+    </row>
+    <row r="17" spans="19:46" ht="18" customHeight="1">
+      <c r="S17" s="30"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="31"/>
+      <c r="AT17" s="18"/>
+    </row>
+    <row r="18" spans="19:46" ht="18" customHeight="1">
+      <c r="S18" s="32"/>
+      <c r="T18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="U18" s="27"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="34"/>
+    </row>
+    <row r="19" spans="19:46" ht="18" customHeight="1">
+      <c r="S19" s="32"/>
+      <c r="T19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+    </row>
+    <row r="20" spans="19:46" ht="18" customHeight="1">
+      <c r="S20" s="32"/>
+      <c r="T20" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="27"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+    </row>
+    <row r="21" spans="19:46" ht="18" customHeight="1">
+      <c r="S21" s="32"/>
+      <c r="T21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="27"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+    </row>
+    <row r="22" spans="19:46" ht="18" customHeight="1">
+      <c r="S22" s="32"/>
+      <c r="T22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U22" s="27"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+    </row>
+    <row r="23" spans="19:46" ht="18" customHeight="1">
+      <c r="S23" s="32"/>
+      <c r="T23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23" s="27"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+    </row>
+    <row r="24" spans="19:46" ht="18" customHeight="1">
+      <c r="S24" s="32"/>
+      <c r="T24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="27"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+    </row>
+    <row r="25" spans="19:46" ht="18" customHeight="1">
+      <c r="S25" s="32"/>
+      <c r="T25" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" s="27"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+    </row>
+    <row r="26" spans="19:46" ht="18" customHeight="1">
+      <c r="S26" s="32"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+    </row>
+    <row r="27" spans="19:46" ht="18" customHeight="1">
+      <c r="S27" s="32"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="189" t="s">
+        <v>77</v>
+      </c>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="183" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA27" s="184"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+    </row>
+    <row r="28" spans="19:46" ht="18" customHeight="1">
+      <c r="S28" s="13"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="S16:AB16"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -3995,7 +4786,7 @@
       </c>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="43">
+      <c r="AF14" s="48">
         <v>3</v>
       </c>
       <c r="AG14" s="9"/>
@@ -4019,19 +4810,538 @@
       </c>
       <c r="AT14" s="9"/>
     </row>
+    <row r="16" spans="1:46" ht="18" customHeight="1">
+      <c r="Z16" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="17:46" ht="18" customHeight="1">
+      <c r="Z17" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="17:46" ht="18" customHeight="1">
+      <c r="Z19" s="191" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="192"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="192"/>
+      <c r="AI19" s="192"/>
+      <c r="AJ19" s="192"/>
+      <c r="AK19" s="193"/>
+      <c r="AT19" s="18"/>
+    </row>
+    <row r="20" spans="17:46" ht="18" customHeight="1">
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="31"/>
+    </row>
+    <row r="21" spans="17:46" ht="18" customHeight="1">
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="31"/>
+    </row>
+    <row r="22" spans="17:46" ht="18" customHeight="1">
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="31"/>
+    </row>
+    <row r="23" spans="17:46" ht="18" customHeight="1">
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="39">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="31"/>
+    </row>
+    <row r="24" spans="17:46" ht="18" customHeight="1">
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="39">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="31"/>
+    </row>
+    <row r="25" spans="17:46" ht="18" customHeight="1">
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="31"/>
+    </row>
+    <row r="26" spans="17:46" ht="18" customHeight="1">
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ26" s="190"/>
+      <c r="AK26" s="31"/>
+    </row>
+    <row r="27" spans="17:46" ht="18" customHeight="1">
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Z19:AK19"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="182"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="43">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="9"/>
+    </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="185"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="188"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -4051,34 +5361,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="188" t="s">
+      <c r="R18" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="189"/>
-      <c r="T18" s="189"/>
-      <c r="U18" s="189"/>
-      <c r="V18" s="189"/>
-      <c r="W18" s="189"/>
-      <c r="X18" s="189"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="189"/>
-      <c r="AA18" s="189"/>
-      <c r="AB18" s="189"/>
-      <c r="AC18" s="190"/>
-      <c r="AF18" s="188" t="s">
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="193"/>
+      <c r="AF18" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="189"/>
-      <c r="AH18" s="189"/>
-      <c r="AI18" s="189"/>
-      <c r="AJ18" s="189"/>
-      <c r="AK18" s="189"/>
-      <c r="AL18" s="189"/>
-      <c r="AM18" s="189"/>
-      <c r="AN18" s="189"/>
-      <c r="AO18" s="189"/>
-      <c r="AP18" s="189"/>
-      <c r="AQ18" s="190"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="192"/>
+      <c r="AI18" s="192"/>
+      <c r="AJ18" s="192"/>
+      <c r="AK18" s="192"/>
+      <c r="AL18" s="192"/>
+      <c r="AM18" s="192"/>
+      <c r="AN18" s="192"/>
+      <c r="AO18" s="192"/>
+      <c r="AP18" s="192"/>
+      <c r="AQ18" s="193"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -4445,15 +5755,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="186" t="s">
+      <c r="X27" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="187"/>
+      <c r="Y27" s="190"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="180" t="s">
+      <c r="AA27" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="181"/>
+      <c r="AB27" s="184"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -4461,15 +5771,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="186" t="s">
+      <c r="AL27" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="187"/>
+      <c r="AM27" s="190"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="180" t="s">
+      <c r="AO27" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="181"/>
+      <c r="AP27" s="184"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -4477,15 +5787,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="190"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="180" t="s">
+      <c r="M28" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="181"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -4521,10 +5831,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="191" t="s">
+      <c r="M29" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="191"/>
+      <c r="N29" s="194"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -4821,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -5004,14 +6314,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AP11" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5222,20 +6532,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="188" t="s">
+      <c r="S20" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="189"/>
-      <c r="U20" s="189"/>
-      <c r="V20" s="189"/>
-      <c r="W20" s="189"/>
-      <c r="X20" s="189"/>
-      <c r="Y20" s="189"/>
-      <c r="Z20" s="189"/>
-      <c r="AA20" s="189"/>
-      <c r="AB20" s="189"/>
-      <c r="AC20" s="189"/>
-      <c r="AD20" s="190"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="192"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="192"/>
+      <c r="Z20" s="192"/>
+      <c r="AA20" s="192"/>
+      <c r="AB20" s="192"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="193"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -5365,10 +6675,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="186" t="s">
+      <c r="AB26" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="187"/>
+      <c r="AC26" s="190"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -5397,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -5580,14 +6890,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AP11" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5714,18 +7024,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="192" t="s">
+      <c r="S16" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="Z16" s="193"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="194"/>
+      <c r="T16" s="196"/>
+      <c r="U16" s="196"/>
+      <c r="V16" s="196"/>
+      <c r="W16" s="196"/>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="196"/>
+      <c r="Z16" s="196"/>
+      <c r="AA16" s="196"/>
+      <c r="AB16" s="197"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -5862,15 +7172,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="186" t="s">
+      <c r="W24" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="187"/>
+      <c r="X24" s="190"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="180" t="s">
+      <c r="Z24" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="181"/>
+      <c r="AA24" s="184"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -5912,7 +7222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -6093,14 +7403,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AP11" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6300,7 +7610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -6474,10 +7784,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="178" t="s">
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6598,7 +7908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -6772,10 +8082,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="178" t="s">
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -6896,7 +8206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -7056,10 +8366,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="178" t="s">
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7194,7 +8504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -7631,16 +8941,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="195" t="s">
+      <c r="Q24" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="195" t="s">
+      <c r="U24" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="195"/>
+      <c r="V24" s="198"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -7670,7 +8980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -7738,7 +9048,7 @@
       <c r="A5" s="135">
         <v>1</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="170" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -7776,7 +9086,7 @@
       <c r="A6" s="135">
         <v>1</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -7810,7 +9120,7 @@
       <c r="A7" s="135">
         <v>1</v>
       </c>
-      <c r="B7" s="169"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -7838,7 +9148,7 @@
       <c r="A8" s="135">
         <v>2</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="173" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -7878,7 +9188,7 @@
       <c r="A9" s="135">
         <v>2</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -7916,7 +9226,7 @@
       <c r="A10" s="135">
         <v>2</v>
       </c>
-      <c r="B10" s="168"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -7954,7 +9264,7 @@
       <c r="A11" s="135">
         <v>2</v>
       </c>
-      <c r="B11" s="168"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -7992,7 +9302,7 @@
       <c r="A12" s="135">
         <v>2</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -8024,7 +9334,7 @@
       <c r="A13" s="135">
         <v>2</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -8060,7 +9370,7 @@
       <c r="A14" s="135">
         <v>2</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -8096,7 +9406,7 @@
       <c r="A15" s="135">
         <v>2</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -8128,7 +9438,7 @@
       <c r="A16" s="135">
         <v>2</v>
       </c>
-      <c r="B16" s="171"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -8160,7 +9470,7 @@
       <c r="A17" s="135">
         <v>3</v>
       </c>
-      <c r="B17" s="167" t="s">
+      <c r="B17" s="170" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -8194,7 +9504,7 @@
       <c r="A18" s="135">
         <v>3</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -8224,7 +9534,7 @@
       <c r="A19" s="135">
         <v>3</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -8256,7 +9566,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="135"/>
-      <c r="B20" s="168"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -8280,7 +9590,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="135"/>
-      <c r="B21" s="168"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -8308,7 +9618,7 @@
       <c r="A22" s="135">
         <v>3</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -8338,7 +9648,7 @@
       <c r="A23" s="135">
         <v>3</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -8366,7 +9676,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="135"/>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="175" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -8388,7 +9698,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="135"/>
-      <c r="B25" s="173"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -8410,7 +9720,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="135"/>
-      <c r="B26" s="174"/>
+      <c r="B26" s="177"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -8594,7 +9904,7 @@
       <c r="D58" s="86" t="s">
         <v>303</v>
       </c>
-      <c r="E58" s="197">
+      <c r="E58" s="167">
         <f>SUM(D59:D64)</f>
         <v>1</v>
       </c>
@@ -8604,14 +9914,14 @@
       <c r="C59" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="D59" s="197">
+      <c r="D59" s="167">
         <v>0.11</v>
       </c>
       <c r="F59" s="9">
         <v>120</v>
       </c>
-      <c r="G59" s="196">
-        <f>F59/SUM($F$59:$F$64)</f>
+      <c r="G59" s="166">
+        <f t="shared" ref="G59:G64" si="0">F59/SUM($F$59:$F$64)</f>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="H59" s="54">
@@ -8623,14 +9933,14 @@
       <c r="C60" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D60" s="197">
+      <c r="D60" s="167">
         <v>0.42</v>
       </c>
       <c r="F60" s="9">
         <v>720</v>
       </c>
-      <c r="G60" s="196">
-        <f>F60/SUM($F$59:$F$64)</f>
+      <c r="G60" s="166">
+        <f t="shared" si="0"/>
         <v>0.51428571428571423</v>
       </c>
       <c r="H60" s="54">
@@ -8642,14 +9952,14 @@
       <c r="C61" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="197">
+      <c r="D61" s="167">
         <v>0.11</v>
       </c>
       <c r="F61" s="9">
         <v>120</v>
       </c>
-      <c r="G61" s="196">
-        <f>F61/SUM($F$59:$F$64)</f>
+      <c r="G61" s="166">
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="H61" s="54">
@@ -8661,14 +9971,14 @@
       <c r="C62" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="D62" s="198">
+      <c r="D62" s="168">
         <v>0.11</v>
       </c>
       <c r="F62" s="9">
         <v>120</v>
       </c>
-      <c r="G62" s="196">
-        <f>F62/SUM($F$59:$F$64)</f>
+      <c r="G62" s="166">
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="H62" s="54">
@@ -8680,14 +9990,14 @@
       <c r="C63" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="D63" s="198">
+      <c r="D63" s="168">
         <v>0.14000000000000001</v>
       </c>
       <c r="F63" s="9">
         <v>200</v>
       </c>
-      <c r="G63" s="196">
-        <f>F63/SUM($F$59:$F$64)</f>
+      <c r="G63" s="166">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="H63" s="54">
@@ -8699,14 +10009,14 @@
       <c r="C64" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="198">
+      <c r="D64" s="168">
         <v>0.11</v>
       </c>
       <c r="F64" s="9">
         <v>120</v>
       </c>
-      <c r="G64" s="196">
-        <f>F64/SUM($F$59:$F$64)</f>
+      <c r="G64" s="166">
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="H64" s="54">
@@ -8727,6 +10037,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:AI32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:AJ33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="200"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1">
+      <c r="E4" s="199" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="X4" s="199"/>
+      <c r="Y4" s="199"/>
+      <c r="Z4" s="199"/>
+      <c r="AA4" s="199"/>
+      <c r="AB4" s="199"/>
+      <c r="AC4" s="199"/>
+      <c r="AD4" s="199"/>
+      <c r="AE4" s="199"/>
+      <c r="AF4" s="199"/>
+      <c r="AG4" s="199"/>
+      <c r="AH4" s="199"/>
+      <c r="AI4" s="199"/>
+    </row>
+    <row r="5" spans="5:35" ht="24" customHeight="1">
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="213"/>
+      <c r="X5" s="213"/>
+      <c r="Y5" s="213"/>
+      <c r="Z5" s="213"/>
+      <c r="AA5" s="213"/>
+      <c r="AB5" s="213"/>
+      <c r="AC5" s="213"/>
+      <c r="AD5" s="213"/>
+      <c r="AE5" s="213"/>
+      <c r="AF5" s="213"/>
+      <c r="AG5" s="213"/>
+      <c r="AH5" s="213"/>
+      <c r="AI5" s="214"/>
+    </row>
+    <row r="6" spans="5:35" ht="24" customHeight="1">
+      <c r="E6" s="215"/>
+      <c r="F6" s="216" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="204"/>
+      <c r="AG6" s="204"/>
+      <c r="AH6" s="204"/>
+      <c r="AI6" s="205"/>
+    </row>
+    <row r="7" spans="5:35" ht="24" customHeight="1">
+      <c r="E7" s="215"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="204"/>
+      <c r="Z7" s="204"/>
+      <c r="AA7" s="204"/>
+      <c r="AB7" s="204"/>
+      <c r="AC7" s="204"/>
+      <c r="AD7" s="204"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="204"/>
+      <c r="AG7" s="204"/>
+      <c r="AH7" s="204"/>
+      <c r="AI7" s="205"/>
+    </row>
+    <row r="8" spans="5:35" ht="24" customHeight="1">
+      <c r="E8" s="215"/>
+      <c r="F8" s="204" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="204"/>
+      <c r="AH8" s="204"/>
+      <c r="AI8" s="205"/>
+    </row>
+    <row r="9" spans="5:35" ht="24" customHeight="1">
+      <c r="E9" s="215"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="206"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="208"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="206"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="208"/>
+      <c r="AI9" s="205"/>
+    </row>
+    <row r="10" spans="5:35" ht="24" customHeight="1">
+      <c r="E10" s="215"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="204"/>
+      <c r="AI10" s="205"/>
+    </row>
+    <row r="11" spans="5:35" ht="24" customHeight="1">
+      <c r="E11" s="215"/>
+      <c r="F11" s="204" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="204"/>
+      <c r="AF11" s="204"/>
+      <c r="AG11" s="204"/>
+      <c r="AH11" s="204"/>
+      <c r="AI11" s="205"/>
+    </row>
+    <row r="12" spans="5:35" ht="24" customHeight="1">
+      <c r="E12" s="215"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="206"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="208"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="206"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="207"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="207"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="208"/>
+      <c r="AI12" s="205"/>
+    </row>
+    <row r="13" spans="5:35" ht="24" customHeight="1">
+      <c r="E13" s="215"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="204"/>
+      <c r="X13" s="204"/>
+      <c r="Y13" s="204"/>
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="204"/>
+      <c r="AC13" s="204"/>
+      <c r="AD13" s="204"/>
+      <c r="AE13" s="204"/>
+      <c r="AF13" s="204"/>
+      <c r="AG13" s="204"/>
+      <c r="AH13" s="204"/>
+      <c r="AI13" s="205"/>
+    </row>
+    <row r="14" spans="5:35" ht="24" customHeight="1">
+      <c r="E14" s="215"/>
+      <c r="F14" s="204" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="204"/>
+      <c r="AF14" s="204"/>
+      <c r="AG14" s="204"/>
+      <c r="AH14" s="204"/>
+      <c r="AI14" s="205"/>
+    </row>
+    <row r="15" spans="5:35" ht="24" customHeight="1">
+      <c r="E15" s="215"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="207"/>
+      <c r="T15" s="207"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="207"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="206"/>
+      <c r="AA15" s="207"/>
+      <c r="AB15" s="207"/>
+      <c r="AC15" s="207"/>
+      <c r="AD15" s="207"/>
+      <c r="AE15" s="207"/>
+      <c r="AF15" s="207"/>
+      <c r="AG15" s="207"/>
+      <c r="AH15" s="208"/>
+      <c r="AI15" s="205"/>
+    </row>
+    <row r="16" spans="5:35" ht="24" customHeight="1">
+      <c r="E16" s="215"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="204"/>
+      <c r="S16" s="204"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="204"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="204"/>
+      <c r="Y16" s="204"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="204"/>
+      <c r="AB16" s="204"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="204"/>
+      <c r="AE16" s="204"/>
+      <c r="AF16" s="204"/>
+      <c r="AG16" s="204"/>
+      <c r="AH16" s="204"/>
+      <c r="AI16" s="205"/>
+    </row>
+    <row r="17" spans="5:35" ht="24" customHeight="1">
+      <c r="E17" s="215"/>
+      <c r="F17" s="204" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+      <c r="AC17" s="204"/>
+      <c r="AD17" s="204"/>
+      <c r="AE17" s="204"/>
+      <c r="AF17" s="204"/>
+      <c r="AG17" s="204"/>
+      <c r="AH17" s="204"/>
+      <c r="AI17" s="205"/>
+    </row>
+    <row r="18" spans="5:35" ht="24" customHeight="1">
+      <c r="E18" s="215"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="207"/>
+      <c r="X18" s="208"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="206"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="207"/>
+      <c r="AC18" s="207"/>
+      <c r="AD18" s="207"/>
+      <c r="AE18" s="207"/>
+      <c r="AF18" s="207"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="208"/>
+      <c r="AI18" s="205"/>
+    </row>
+    <row r="19" spans="5:35" ht="24" customHeight="1">
+      <c r="E19" s="215"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="204"/>
+      <c r="AF19" s="204"/>
+      <c r="AG19" s="204"/>
+      <c r="AH19" s="204"/>
+      <c r="AI19" s="205"/>
+    </row>
+    <row r="20" spans="5:35" ht="24" customHeight="1">
+      <c r="E20" s="215"/>
+      <c r="F20" s="204" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="204" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="204"/>
+      <c r="AE20" s="204"/>
+      <c r="AF20" s="204"/>
+      <c r="AG20" s="204"/>
+      <c r="AH20" s="204"/>
+      <c r="AI20" s="205"/>
+    </row>
+    <row r="21" spans="5:35" ht="24" customHeight="1">
+      <c r="E21" s="215"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="206"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="207"/>
+      <c r="V21" s="207"/>
+      <c r="W21" s="207"/>
+      <c r="X21" s="208"/>
+      <c r="Y21" s="204"/>
+      <c r="Z21" s="206"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="207"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="208"/>
+      <c r="AI21" s="205"/>
+    </row>
+    <row r="22" spans="5:35" ht="24" customHeight="1">
+      <c r="E22" s="215"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="204"/>
+      <c r="AD22" s="204"/>
+      <c r="AE22" s="204"/>
+      <c r="AF22" s="204"/>
+      <c r="AG22" s="204"/>
+      <c r="AH22" s="204"/>
+      <c r="AI22" s="205"/>
+    </row>
+    <row r="23" spans="5:35" ht="24" customHeight="1">
+      <c r="E23" s="215"/>
+      <c r="F23" s="204" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="204"/>
+      <c r="X23" s="204"/>
+      <c r="Y23" s="204"/>
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="204"/>
+      <c r="AB23" s="204"/>
+      <c r="AC23" s="204"/>
+      <c r="AD23" s="204"/>
+      <c r="AE23" s="204"/>
+      <c r="AF23" s="204"/>
+      <c r="AG23" s="204"/>
+      <c r="AH23" s="204"/>
+      <c r="AI23" s="205"/>
+    </row>
+    <row r="24" spans="5:35" ht="24" customHeight="1">
+      <c r="E24" s="215"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="206"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="207"/>
+      <c r="X24" s="208"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="204"/>
+      <c r="AD24" s="204"/>
+      <c r="AE24" s="204"/>
+      <c r="AF24" s="204"/>
+      <c r="AG24" s="204"/>
+      <c r="AH24" s="204"/>
+      <c r="AI24" s="205"/>
+    </row>
+    <row r="25" spans="5:35" ht="24" customHeight="1">
+      <c r="E25" s="215"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="204"/>
+      <c r="AF25" s="204"/>
+      <c r="AG25" s="204"/>
+      <c r="AH25" s="204"/>
+      <c r="AI25" s="205"/>
+    </row>
+    <row r="26" spans="5:35" ht="24" customHeight="1">
+      <c r="E26" s="215"/>
+      <c r="F26" s="204" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="204"/>
+      <c r="AF26" s="204"/>
+      <c r="AG26" s="204"/>
+      <c r="AH26" s="204"/>
+      <c r="AI26" s="205"/>
+    </row>
+    <row r="27" spans="5:35" ht="24" customHeight="1">
+      <c r="E27" s="215"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="213"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="213"/>
+      <c r="S27" s="213"/>
+      <c r="T27" s="213"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="213"/>
+      <c r="AD27" s="213"/>
+      <c r="AE27" s="213"/>
+      <c r="AF27" s="213"/>
+      <c r="AG27" s="213"/>
+      <c r="AH27" s="214"/>
+      <c r="AI27" s="205"/>
+    </row>
+    <row r="28" spans="5:35" ht="24" customHeight="1">
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="204"/>
+      <c r="P28" s="204"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="204"/>
+      <c r="Y28" s="204"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="204"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="204"/>
+      <c r="AF28" s="204"/>
+      <c r="AG28" s="204"/>
+      <c r="AH28" s="205"/>
+      <c r="AI28" s="205"/>
+    </row>
+    <row r="29" spans="5:35" ht="24" customHeight="1">
+      <c r="E29" s="215"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="218"/>
+      <c r="R29" s="218"/>
+      <c r="S29" s="218"/>
+      <c r="T29" s="218"/>
+      <c r="U29" s="218"/>
+      <c r="V29" s="218"/>
+      <c r="W29" s="218"/>
+      <c r="X29" s="218"/>
+      <c r="Y29" s="218"/>
+      <c r="Z29" s="218"/>
+      <c r="AA29" s="218"/>
+      <c r="AB29" s="218"/>
+      <c r="AC29" s="218"/>
+      <c r="AD29" s="218"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="205"/>
+    </row>
+    <row r="30" spans="5:35" ht="24" customHeight="1">
+      <c r="E30" s="201"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="202"/>
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
+      <c r="T30" s="202"/>
+      <c r="U30" s="202"/>
+      <c r="V30" s="202"/>
+      <c r="W30" s="202"/>
+      <c r="X30" s="202"/>
+      <c r="Y30" s="202"/>
+      <c r="Z30" s="202"/>
+      <c r="AA30" s="202"/>
+      <c r="AB30" s="202"/>
+      <c r="AC30" s="202"/>
+      <c r="AD30" s="202"/>
+      <c r="AE30" s="202"/>
+      <c r="AF30" s="202"/>
+      <c r="AG30" s="202"/>
+      <c r="AH30" s="202"/>
+      <c r="AI30" s="203"/>
+    </row>
+    <row r="31" spans="5:35" ht="24" customHeight="1">
+      <c r="E31" s="201"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="202"/>
+      <c r="R31" s="202"/>
+      <c r="S31" s="202"/>
+      <c r="T31" s="202"/>
+      <c r="U31" s="202"/>
+      <c r="V31" s="202"/>
+      <c r="W31" s="202"/>
+      <c r="X31" s="202"/>
+      <c r="Y31" s="202"/>
+      <c r="Z31" s="202"/>
+      <c r="AA31" s="202"/>
+      <c r="AB31" s="222" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="202"/>
+      <c r="AF31" s="220" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG31" s="221"/>
+      <c r="AH31" s="221"/>
+      <c r="AI31" s="203"/>
+    </row>
+    <row r="32" spans="5:35" ht="24" customHeight="1">
+      <c r="E32" s="209"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="210"/>
+      <c r="P32" s="210"/>
+      <c r="Q32" s="210"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="210"/>
+      <c r="AA32" s="210"/>
+      <c r="AB32" s="210"/>
+      <c r="AC32" s="210"/>
+      <c r="AD32" s="210"/>
+      <c r="AE32" s="210"/>
+      <c r="AF32" s="210"/>
+      <c r="AG32" s="210"/>
+      <c r="AH32" s="210"/>
+      <c r="AI32" s="211"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:AI4"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AF31:AH31"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:X23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="200"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1">
+      <c r="E2" s="199" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+    </row>
+    <row r="3" spans="5:23" ht="24" customHeight="1">
+      <c r="E3" s="212"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="214"/>
+    </row>
+    <row r="4" spans="5:23" ht="24" customHeight="1">
+      <c r="E4" s="224" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="225"/>
+      <c r="S4" s="225"/>
+      <c r="T4" s="225"/>
+      <c r="U4" s="225"/>
+      <c r="V4" s="225"/>
+      <c r="W4" s="226"/>
+    </row>
+    <row r="5" spans="5:23" ht="24" customHeight="1">
+      <c r="E5" s="215"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="204"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="205"/>
+    </row>
+    <row r="6" spans="5:23" ht="24" customHeight="1">
+      <c r="E6" s="215"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="223" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="206"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="205"/>
+    </row>
+    <row r="7" spans="5:23" ht="24" customHeight="1">
+      <c r="E7" s="215"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="223"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="205"/>
+    </row>
+    <row r="8" spans="5:23" ht="24" customHeight="1">
+      <c r="E8" s="215"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="223" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" s="206"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="205"/>
+    </row>
+    <row r="9" spans="5:23" ht="24" customHeight="1">
+      <c r="E9" s="215"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="223"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="205"/>
+    </row>
+    <row r="10" spans="5:23" ht="24" customHeight="1">
+      <c r="E10" s="215"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="223" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="206"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="207"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="207"/>
+      <c r="S10" s="207"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="205"/>
+    </row>
+    <row r="11" spans="5:23" ht="24" customHeight="1">
+      <c r="E11" s="215"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="223"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="205"/>
+    </row>
+    <row r="12" spans="5:23" ht="24" customHeight="1">
+      <c r="E12" s="215"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="223" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12" s="206"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="208"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="205"/>
+    </row>
+    <row r="13" spans="5:23" ht="24" customHeight="1">
+      <c r="E13" s="215"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="223"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="205"/>
+    </row>
+    <row r="14" spans="5:23" ht="24" customHeight="1">
+      <c r="E14" s="215"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="223" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="206"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="205"/>
+    </row>
+    <row r="15" spans="5:23" ht="24" customHeight="1">
+      <c r="E15" s="215"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="223"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="204"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="205"/>
+    </row>
+    <row r="16" spans="5:23" ht="24" customHeight="1">
+      <c r="E16" s="215"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="223" t="s">
+        <v>325</v>
+      </c>
+      <c r="L16" s="206"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="205"/>
+    </row>
+    <row r="17" spans="5:24" ht="24" customHeight="1">
+      <c r="E17" s="215"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="223"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="204"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="205"/>
+    </row>
+    <row r="18" spans="5:24" ht="24" customHeight="1">
+      <c r="E18" s="215"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="223" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" s="206"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="205"/>
+    </row>
+    <row r="19" spans="5:24" ht="24" customHeight="1">
+      <c r="E19" s="215"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="223"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="205"/>
+    </row>
+    <row r="20" spans="5:24" ht="24" customHeight="1">
+      <c r="E20" s="215"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="223" t="s">
+        <v>326</v>
+      </c>
+      <c r="L20" s="206"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="205"/>
+    </row>
+    <row r="21" spans="5:24" ht="24" customHeight="1">
+      <c r="E21" s="215"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="223"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="204"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="205"/>
+    </row>
+    <row r="22" spans="5:24" ht="24" customHeight="1">
+      <c r="E22" s="215"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="223" t="s">
+        <v>313</v>
+      </c>
+      <c r="K22" s="223"/>
+      <c r="L22" s="206"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="204"/>
+      <c r="X22" s="215"/>
+    </row>
+    <row r="23" spans="5:24" ht="20.100000000000001" customHeight="1">
+      <c r="E23" s="215"/>
+      <c r="X23" s="215"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:W2"/>
+    <mergeCell ref="E4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
@@ -9011,7 +11815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
@@ -9135,9 +11939,9 @@
       <c r="D10" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="156" t="s">
         <v>26</v>
       </c>
@@ -9256,11 +12060,11 @@
       <c r="D19" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="177"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
       <c r="J19" s="142"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
@@ -9429,9 +12233,9 @@
       <c r="D37" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="175"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="156" t="s">
         <v>26</v>
       </c>
@@ -9550,11 +12354,11 @@
       <c r="D46" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="175"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="177"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="180"/>
       <c r="J46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
@@ -9675,7 +12479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
@@ -9868,14 +12672,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AP11" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9945,10 +12749,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="182" t="s">
+      <c r="AP13" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="182"/>
+      <c r="AQ13" s="185"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -10148,7 +12952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
@@ -10331,14 +13135,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="180" t="s">
+      <c r="AP11" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AQ11" s="184"/>
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -10408,10 +13212,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="182" t="s">
+      <c r="AP13" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="182"/>
+      <c r="AQ13" s="185"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -10509,7 +13313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -10679,10 +13483,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="178" t="s">
+      <c r="AS11" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="179"/>
+      <c r="AT11" s="182"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10752,10 +13556,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="182" t="s">
+      <c r="AR13" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="182"/>
+      <c r="AS13" s="185"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -10788,1098 +13592,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM11" s="180" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="181"/>
-      <c r="AP11" s="180" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="179"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="9"/>
-    </row>
-    <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="184"/>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="184"/>
-      <c r="Y16" s="184"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="185"/>
-    </row>
-    <row r="17" spans="19:46" ht="18" customHeight="1">
-      <c r="S17" s="30"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="31"/>
-      <c r="AT17" s="18"/>
-    </row>
-    <row r="18" spans="19:46" ht="18" customHeight="1">
-      <c r="S18" s="32"/>
-      <c r="T18" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="34"/>
-    </row>
-    <row r="19" spans="19:46" ht="18" customHeight="1">
-      <c r="S19" s="32"/>
-      <c r="T19" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="19:46" ht="18" customHeight="1">
-      <c r="S20" s="32"/>
-      <c r="T20" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-    </row>
-    <row r="21" spans="19:46" ht="18" customHeight="1">
-      <c r="S21" s="32"/>
-      <c r="T21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-    </row>
-    <row r="22" spans="19:46" ht="18" customHeight="1">
-      <c r="S22" s="32"/>
-      <c r="T22" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-    </row>
-    <row r="23" spans="19:46" ht="18" customHeight="1">
-      <c r="S23" s="32"/>
-      <c r="T23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-    </row>
-    <row r="24" spans="19:46" ht="18" customHeight="1">
-      <c r="S24" s="32"/>
-      <c r="T24" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-    </row>
-    <row r="25" spans="19:46" ht="18" customHeight="1">
-      <c r="S25" s="32"/>
-      <c r="T25" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-    </row>
-    <row r="26" spans="19:46" ht="18" customHeight="1">
-      <c r="S26" s="32"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-    </row>
-    <row r="27" spans="19:46" ht="18" customHeight="1">
-      <c r="S27" s="32"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="186" t="s">
-        <v>77</v>
-      </c>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="180" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-    </row>
-    <row r="28" spans="19:46" ht="18" customHeight="1">
-      <c r="S28" s="13"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="S16:AB16"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="180" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ11" s="181"/>
-      <c r="AS11" s="178" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="179"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="48">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="9"/>
-    </row>
-    <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="Z16" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="17:46" ht="18" customHeight="1">
-      <c r="Z17" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA19" s="189"/>
-      <c r="AB19" s="189"/>
-      <c r="AC19" s="189"/>
-      <c r="AD19" s="189"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="189"/>
-      <c r="AG19" s="189"/>
-      <c r="AH19" s="189"/>
-      <c r="AI19" s="189"/>
-      <c r="AJ19" s="189"/>
-      <c r="AK19" s="190"/>
-      <c r="AT19" s="18"/>
-    </row>
-    <row r="20" spans="17:46" ht="18" customHeight="1">
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="31"/>
-    </row>
-    <row r="21" spans="17:46" ht="18" customHeight="1">
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="31"/>
-    </row>
-    <row r="22" spans="17:46" ht="18" customHeight="1">
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="31"/>
-    </row>
-    <row r="23" spans="17:46" ht="18" customHeight="1">
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="39">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="31"/>
-    </row>
-    <row r="24" spans="17:46" ht="18" customHeight="1">
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="39">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="31"/>
-    </row>
-    <row r="25" spans="17:46" ht="18" customHeight="1">
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="31"/>
-    </row>
-    <row r="26" spans="17:46" ht="18" customHeight="1">
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="186" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ26" s="187"/>
-      <c r="AK26" s="31"/>
-    </row>
-    <row r="27" spans="17:46" ht="18" customHeight="1">
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Z19:AK19"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="19" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="335">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1394,6 +1394,34 @@
   <si>
     <t>&lt;----------------------------------------- 720px ----------------------------------------&gt;</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업장소재지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:headerStyle="{ width: '40%' }"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2900,6 +2928,69 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2927,6 +3018,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2988,90 +3100,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3629,7 +3657,7 @@
       <c r="K9" s="123"/>
       <c r="L9" s="123"/>
       <c r="M9" s="118"/>
-      <c r="N9" s="169" t="s">
+      <c r="N9" s="190" t="s">
         <v>250</v>
       </c>
       <c r="O9" s="124" t="s">
@@ -3662,7 +3690,7 @@
       <c r="K10" s="123"/>
       <c r="L10" s="123"/>
       <c r="M10" s="118"/>
-      <c r="N10" s="169"/>
+      <c r="N10" s="190"/>
       <c r="O10" s="119"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="116"/>
@@ -4084,18 +4112,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="183" t="s">
+      <c r="AM11" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="184"/>
-      <c r="AP11" s="183" t="s">
+      <c r="AN11" s="212"/>
+      <c r="AP11" s="211" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -4216,18 +4244,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="186" t="s">
+      <c r="S16" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="188"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="215"/>
+      <c r="V16" s="215"/>
+      <c r="W16" s="215"/>
+      <c r="X16" s="215"/>
+      <c r="Y16" s="215"/>
+      <c r="Z16" s="215"/>
+      <c r="AA16" s="215"/>
+      <c r="AB16" s="216"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -4427,15 +4455,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="189" t="s">
+      <c r="W27" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="190"/>
+      <c r="X27" s="218"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="183" t="s">
+      <c r="Z27" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="184"/>
+      <c r="AA27" s="212"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -4661,14 +4689,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -4821,20 +4849,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="191" t="s">
+      <c r="Z19" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="192"/>
-      <c r="AB19" s="192"/>
-      <c r="AC19" s="192"/>
-      <c r="AD19" s="192"/>
-      <c r="AE19" s="192"/>
-      <c r="AF19" s="192"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="192"/>
-      <c r="AI19" s="192"/>
-      <c r="AJ19" s="192"/>
-      <c r="AK19" s="193"/>
+      <c r="AA19" s="220"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="220"/>
+      <c r="AF19" s="220"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="220"/>
+      <c r="AI19" s="220"/>
+      <c r="AJ19" s="220"/>
+      <c r="AK19" s="221"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -4965,10 +4993,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="189" t="s">
+      <c r="AI26" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="190"/>
+      <c r="AJ26" s="218"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -5180,14 +5208,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5330,18 +5358,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="188"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="216"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -5361,34 +5389,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="191" t="s">
+      <c r="R18" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="193"/>
-      <c r="AF18" s="191" t="s">
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="221"/>
+      <c r="AF18" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="192"/>
-      <c r="AI18" s="192"/>
-      <c r="AJ18" s="192"/>
-      <c r="AK18" s="192"/>
-      <c r="AL18" s="192"/>
-      <c r="AM18" s="192"/>
-      <c r="AN18" s="192"/>
-      <c r="AO18" s="192"/>
-      <c r="AP18" s="192"/>
-      <c r="AQ18" s="193"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="220"/>
+      <c r="AI18" s="220"/>
+      <c r="AJ18" s="220"/>
+      <c r="AK18" s="220"/>
+      <c r="AL18" s="220"/>
+      <c r="AM18" s="220"/>
+      <c r="AN18" s="220"/>
+      <c r="AO18" s="220"/>
+      <c r="AP18" s="220"/>
+      <c r="AQ18" s="221"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -5755,15 +5783,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="189" t="s">
+      <c r="X27" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="190"/>
+      <c r="Y27" s="218"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="183" t="s">
+      <c r="AA27" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="184"/>
+      <c r="AB27" s="212"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -5771,15 +5799,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="189" t="s">
+      <c r="AL27" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="190"/>
+      <c r="AM27" s="218"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="183" t="s">
+      <c r="AO27" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="184"/>
+      <c r="AP27" s="212"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -5787,15 +5815,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="189" t="s">
+      <c r="J28" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="190"/>
+      <c r="K28" s="218"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="212"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -5831,10 +5859,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="194" t="s">
+      <c r="M29" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="194"/>
+      <c r="N29" s="222"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -6314,14 +6342,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6532,20 +6560,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="191" t="s">
+      <c r="S20" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="192"/>
-      <c r="U20" s="192"/>
-      <c r="V20" s="192"/>
-      <c r="W20" s="192"/>
-      <c r="X20" s="192"/>
-      <c r="Y20" s="192"/>
-      <c r="Z20" s="192"/>
-      <c r="AA20" s="192"/>
-      <c r="AB20" s="192"/>
-      <c r="AC20" s="192"/>
-      <c r="AD20" s="193"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="221"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -6675,10 +6703,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="189" t="s">
+      <c r="AB26" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="190"/>
+      <c r="AC26" s="218"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -6890,14 +6918,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7024,18 +7052,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="195" t="s">
+      <c r="S16" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="196"/>
-      <c r="U16" s="196"/>
-      <c r="V16" s="196"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="196"/>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="197"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
+      <c r="W16" s="224"/>
+      <c r="X16" s="224"/>
+      <c r="Y16" s="224"/>
+      <c r="Z16" s="224"/>
+      <c r="AA16" s="224"/>
+      <c r="AB16" s="225"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -7172,15 +7200,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="189" t="s">
+      <c r="W24" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="190"/>
+      <c r="X24" s="218"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="183" t="s">
+      <c r="Z24" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="184"/>
+      <c r="AA24" s="212"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -7403,14 +7431,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7784,10 +7812,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="181" t="s">
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8082,10 +8110,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="181" t="s">
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -8366,10 +8394,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="181" t="s">
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8941,16 +8969,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="198" t="s">
+      <c r="Q24" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="198" t="s">
+      <c r="U24" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="198"/>
+      <c r="V24" s="226"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -8978,10 +9006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N64"/>
+  <dimension ref="A2:N77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -9048,7 +9076,7 @@
       <c r="A5" s="135">
         <v>1</v>
       </c>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="191" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -9086,7 +9114,7 @@
       <c r="A6" s="135">
         <v>1</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -9120,7 +9148,7 @@
       <c r="A7" s="135">
         <v>1</v>
       </c>
-      <c r="B7" s="172"/>
+      <c r="B7" s="193"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -9148,7 +9176,7 @@
       <c r="A8" s="135">
         <v>2</v>
       </c>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="194" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -9188,7 +9216,7 @@
       <c r="A9" s="135">
         <v>2</v>
       </c>
-      <c r="B9" s="171"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -9226,7 +9254,7 @@
       <c r="A10" s="135">
         <v>2</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -9264,7 +9292,7 @@
       <c r="A11" s="135">
         <v>2</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -9302,7 +9330,7 @@
       <c r="A12" s="135">
         <v>2</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -9334,7 +9362,7 @@
       <c r="A13" s="135">
         <v>2</v>
       </c>
-      <c r="B13" s="171"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -9370,7 +9398,7 @@
       <c r="A14" s="135">
         <v>2</v>
       </c>
-      <c r="B14" s="171"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -9406,7 +9434,7 @@
       <c r="A15" s="135">
         <v>2</v>
       </c>
-      <c r="B15" s="171"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -9438,7 +9466,7 @@
       <c r="A16" s="135">
         <v>2</v>
       </c>
-      <c r="B16" s="174"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -9470,7 +9498,7 @@
       <c r="A17" s="135">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="191" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -9504,7 +9532,7 @@
       <c r="A18" s="135">
         <v>3</v>
       </c>
-      <c r="B18" s="171"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -9534,7 +9562,7 @@
       <c r="A19" s="135">
         <v>3</v>
       </c>
-      <c r="B19" s="171"/>
+      <c r="B19" s="192"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -9566,7 +9594,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="135"/>
-      <c r="B20" s="171"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -9590,7 +9618,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="135"/>
-      <c r="B21" s="171"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -9618,7 +9646,7 @@
       <c r="A22" s="135">
         <v>3</v>
       </c>
-      <c r="B22" s="171"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -9648,7 +9676,7 @@
       <c r="A23" s="135">
         <v>3</v>
       </c>
-      <c r="B23" s="174"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -9676,7 +9704,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="135"/>
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="196" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -9698,7 +9726,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="135"/>
-      <c r="B25" s="176"/>
+      <c r="B25" s="197"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -9720,7 +9748,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="135"/>
-      <c r="B26" s="177"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -9895,9 +9923,6 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
-      <c r="B58" s="86" t="s">
-        <v>198</v>
-      </c>
       <c r="C58" s="86" t="s">
         <v>202</v>
       </c>
@@ -9910,7 +9935,6 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
-      <c r="B59" s="73"/>
       <c r="C59" s="73" t="s">
         <v>297</v>
       </c>
@@ -9929,7 +9953,6 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
-      <c r="B60" s="73"/>
       <c r="C60" s="73" t="s">
         <v>298</v>
       </c>
@@ -9948,7 +9971,6 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
-      <c r="B61" s="73"/>
       <c r="C61" s="73" t="s">
         <v>299</v>
       </c>
@@ -9967,7 +9989,6 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
-      <c r="B62" s="64"/>
       <c r="C62" s="64" t="s">
         <v>300</v>
       </c>
@@ -9986,7 +10007,6 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
-      <c r="B63" s="64"/>
       <c r="C63" s="64" t="s">
         <v>301</v>
       </c>
@@ -10005,7 +10025,6 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
-      <c r="B64" s="64"/>
       <c r="C64" s="64" t="s">
         <v>302</v>
       </c>
@@ -10021,6 +10040,93 @@
       </c>
       <c r="H64" s="54">
         <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15" customHeight="1">
+      <c r="C68" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" s="167">
+        <f>SUM(D69:D77)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="15" customHeight="1">
+      <c r="C69" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="167">
+        <v>0.08</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="15" customHeight="1">
+      <c r="C70" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="167">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="15" customHeight="1">
+      <c r="C71" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="167">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" ht="15" customHeight="1">
+      <c r="C72" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="168">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="15" customHeight="1">
+      <c r="C73" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="168">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="15" customHeight="1">
+      <c r="C74" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="168">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" ht="15" customHeight="1">
+      <c r="C75" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="168">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="15" customHeight="1">
+      <c r="C76" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" s="168">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="15" customHeight="1">
+      <c r="C77" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D77" s="168">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -10040,13 +10146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:AI32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:AJ33"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.25" style="200"/>
+    <col min="1" max="16384" width="3.25" style="169"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1">
@@ -10085,968 +10191,968 @@
       <c r="AI4" s="199"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1">
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="213"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="213"/>
-      <c r="AB5" s="213"/>
-      <c r="AC5" s="213"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="213"/>
-      <c r="AF5" s="213"/>
-      <c r="AG5" s="213"/>
-      <c r="AH5" s="213"/>
-      <c r="AI5" s="214"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="183"/>
     </row>
     <row r="6" spans="5:35" ht="24" customHeight="1">
-      <c r="E6" s="215"/>
-      <c r="F6" s="216" t="s">
+      <c r="E6" s="184"/>
+      <c r="F6" s="185" t="s">
         <v>320</v>
       </c>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="204"/>
-      <c r="AG6" s="204"/>
-      <c r="AH6" s="204"/>
-      <c r="AI6" s="205"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
+      <c r="AA6" s="173"/>
+      <c r="AB6" s="173"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="173"/>
+      <c r="AE6" s="173"/>
+      <c r="AF6" s="173"/>
+      <c r="AG6" s="173"/>
+      <c r="AH6" s="173"/>
+      <c r="AI6" s="174"/>
     </row>
     <row r="7" spans="5:35" ht="24" customHeight="1">
-      <c r="E7" s="215"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="204"/>
-      <c r="Z7" s="204"/>
-      <c r="AA7" s="204"/>
-      <c r="AB7" s="204"/>
-      <c r="AC7" s="204"/>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="204"/>
-      <c r="AG7" s="204"/>
-      <c r="AH7" s="204"/>
-      <c r="AI7" s="205"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173"/>
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="174"/>
     </row>
     <row r="8" spans="5:35" ht="24" customHeight="1">
-      <c r="E8" s="215"/>
-      <c r="F8" s="204" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="173" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204" t="s">
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173" t="s">
         <v>305</v>
       </c>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204" t="s">
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="204"/>
-      <c r="AH8" s="204"/>
-      <c r="AI8" s="205"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="5:35" ht="24" customHeight="1">
-      <c r="E9" s="215"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207"/>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
-      <c r="W9" s="207"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="206"/>
-      <c r="AA9" s="207"/>
-      <c r="AB9" s="207"/>
-      <c r="AC9" s="207"/>
-      <c r="AD9" s="207"/>
-      <c r="AE9" s="207"/>
-      <c r="AF9" s="207"/>
-      <c r="AG9" s="207"/>
-      <c r="AH9" s="208"/>
-      <c r="AI9" s="205"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="176"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="174"/>
     </row>
     <row r="10" spans="5:35" ht="24" customHeight="1">
-      <c r="E10" s="215"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="204"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="204"/>
-      <c r="AH10" s="204"/>
-      <c r="AI10" s="205"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="174"/>
     </row>
     <row r="11" spans="5:35" ht="24" customHeight="1">
-      <c r="E11" s="215"/>
-      <c r="F11" s="204" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="173" t="s">
         <v>307</v>
       </c>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204" t="s">
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="204"/>
-      <c r="Z11" s="204" t="s">
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173" t="s">
         <v>309</v>
       </c>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="204"/>
-      <c r="AE11" s="204"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="204"/>
-      <c r="AH11" s="204"/>
-      <c r="AI11" s="205"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="174"/>
     </row>
     <row r="12" spans="5:35" ht="24" customHeight="1">
-      <c r="E12" s="215"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="207"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
-      <c r="T12" s="207"/>
-      <c r="U12" s="207"/>
-      <c r="V12" s="207"/>
-      <c r="W12" s="207"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="204"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="207"/>
-      <c r="AB12" s="207"/>
-      <c r="AC12" s="207"/>
-      <c r="AD12" s="207"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="207"/>
-      <c r="AG12" s="207"/>
-      <c r="AH12" s="208"/>
-      <c r="AI12" s="205"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="176"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="174"/>
     </row>
     <row r="13" spans="5:35" ht="24" customHeight="1">
-      <c r="E13" s="215"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="204"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
-      <c r="Y13" s="204"/>
-      <c r="Z13" s="204"/>
-      <c r="AA13" s="204"/>
-      <c r="AB13" s="204"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="204"/>
-      <c r="AE13" s="204"/>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="204"/>
-      <c r="AH13" s="204"/>
-      <c r="AI13" s="205"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="174"/>
     </row>
     <row r="14" spans="5:35" ht="24" customHeight="1">
-      <c r="E14" s="215"/>
-      <c r="F14" s="204" t="s">
+      <c r="E14" s="184"/>
+      <c r="F14" s="173" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="204"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="204"/>
-      <c r="Y14" s="204"/>
-      <c r="Z14" s="204" t="s">
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="173"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="173"/>
+      <c r="Z14" s="173" t="s">
         <v>311</v>
       </c>
-      <c r="AA14" s="204"/>
-      <c r="AB14" s="204"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="204"/>
-      <c r="AE14" s="204"/>
-      <c r="AF14" s="204"/>
-      <c r="AG14" s="204"/>
-      <c r="AH14" s="204"/>
-      <c r="AI14" s="205"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="174"/>
     </row>
     <row r="15" spans="5:35" ht="24" customHeight="1">
-      <c r="E15" s="215"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
-      <c r="S15" s="207"/>
-      <c r="T15" s="207"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="207"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="204"/>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
-      <c r="AC15" s="207"/>
-      <c r="AD15" s="207"/>
-      <c r="AE15" s="207"/>
-      <c r="AF15" s="207"/>
-      <c r="AG15" s="207"/>
-      <c r="AH15" s="208"/>
-      <c r="AI15" s="205"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="174"/>
     </row>
     <row r="16" spans="5:35" ht="24" customHeight="1">
-      <c r="E16" s="215"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="204"/>
-      <c r="S16" s="204"/>
-      <c r="T16" s="204"/>
-      <c r="U16" s="204"/>
-      <c r="V16" s="204"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="204"/>
-      <c r="Y16" s="204"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="204"/>
-      <c r="AB16" s="204"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="204"/>
-      <c r="AE16" s="204"/>
-      <c r="AF16" s="204"/>
-      <c r="AG16" s="204"/>
-      <c r="AH16" s="204"/>
-      <c r="AI16" s="205"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="173"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
     </row>
     <row r="17" spans="5:35" ht="24" customHeight="1">
-      <c r="E17" s="215"/>
-      <c r="F17" s="204" t="s">
+      <c r="E17" s="184"/>
+      <c r="F17" s="173" t="s">
         <v>312</v>
       </c>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="204" t="s">
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173" t="s">
         <v>313</v>
       </c>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="204"/>
-      <c r="S17" s="204"/>
-      <c r="T17" s="204"/>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204" t="s">
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173" t="s">
         <v>314</v>
       </c>
-      <c r="AA17" s="204"/>
-      <c r="AB17" s="204"/>
-      <c r="AC17" s="204"/>
-      <c r="AD17" s="204"/>
-      <c r="AE17" s="204"/>
-      <c r="AF17" s="204"/>
-      <c r="AG17" s="204"/>
-      <c r="AH17" s="204"/>
-      <c r="AI17" s="205"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
     </row>
     <row r="18" spans="5:35" ht="24" customHeight="1">
-      <c r="E18" s="215"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="207"/>
-      <c r="AB18" s="207"/>
-      <c r="AC18" s="207"/>
-      <c r="AD18" s="207"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="207"/>
-      <c r="AG18" s="207"/>
-      <c r="AH18" s="208"/>
-      <c r="AI18" s="205"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="176"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="174"/>
     </row>
     <row r="19" spans="5:35" ht="24" customHeight="1">
-      <c r="E19" s="215"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="204"/>
-      <c r="W19" s="204"/>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="204"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="204"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="204"/>
-      <c r="AH19" s="204"/>
-      <c r="AI19" s="205"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="174"/>
     </row>
     <row r="20" spans="5:35" ht="24" customHeight="1">
-      <c r="E20" s="215"/>
-      <c r="F20" s="204" t="s">
+      <c r="E20" s="184"/>
+      <c r="F20" s="173" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="204" t="s">
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173" t="s">
         <v>316</v>
       </c>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="204"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204" t="s">
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="204"/>
-      <c r="AE20" s="204"/>
-      <c r="AF20" s="204"/>
-      <c r="AG20" s="204"/>
-      <c r="AH20" s="204"/>
-      <c r="AI20" s="205"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="174"/>
     </row>
     <row r="21" spans="5:35" ht="24" customHeight="1">
-      <c r="E21" s="215"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="207"/>
-      <c r="U21" s="207"/>
-      <c r="V21" s="207"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="204"/>
-      <c r="Z21" s="206"/>
-      <c r="AA21" s="207"/>
-      <c r="AB21" s="207"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="207"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="208"/>
-      <c r="AI21" s="205"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="176"/>
+      <c r="AE21" s="176"/>
+      <c r="AF21" s="176"/>
+      <c r="AG21" s="176"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="174"/>
     </row>
     <row r="22" spans="5:35" ht="24" customHeight="1">
-      <c r="E22" s="215"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="204"/>
-      <c r="T22" s="204"/>
-      <c r="U22" s="204"/>
-      <c r="V22" s="204"/>
-      <c r="W22" s="204"/>
-      <c r="X22" s="204"/>
-      <c r="Y22" s="204"/>
-      <c r="Z22" s="204"/>
-      <c r="AA22" s="204"/>
-      <c r="AB22" s="204"/>
-      <c r="AC22" s="204"/>
-      <c r="AD22" s="204"/>
-      <c r="AE22" s="204"/>
-      <c r="AF22" s="204"/>
-      <c r="AG22" s="204"/>
-      <c r="AH22" s="204"/>
-      <c r="AI22" s="205"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="174"/>
     </row>
     <row r="23" spans="5:35" ht="24" customHeight="1">
-      <c r="E23" s="215"/>
-      <c r="F23" s="204" t="s">
+      <c r="E23" s="184"/>
+      <c r="F23" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204" t="s">
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="204"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="204"/>
-      <c r="V23" s="204"/>
-      <c r="W23" s="204"/>
-      <c r="X23" s="204"/>
-      <c r="Y23" s="204"/>
-      <c r="Z23" s="204"/>
-      <c r="AA23" s="204"/>
-      <c r="AB23" s="204"/>
-      <c r="AC23" s="204"/>
-      <c r="AD23" s="204"/>
-      <c r="AE23" s="204"/>
-      <c r="AF23" s="204"/>
-      <c r="AG23" s="204"/>
-      <c r="AH23" s="204"/>
-      <c r="AI23" s="205"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="174"/>
     </row>
     <row r="24" spans="5:35" ht="24" customHeight="1">
-      <c r="E24" s="215"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="207"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="204"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207"/>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
-      <c r="W24" s="207"/>
-      <c r="X24" s="208"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="204"/>
-      <c r="AD24" s="204"/>
-      <c r="AE24" s="204"/>
-      <c r="AF24" s="204"/>
-      <c r="AG24" s="204"/>
-      <c r="AH24" s="204"/>
-      <c r="AI24" s="205"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="174"/>
     </row>
     <row r="25" spans="5:35" ht="24" customHeight="1">
-      <c r="E25" s="215"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="204"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="204"/>
-      <c r="AE25" s="204"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="204"/>
-      <c r="AH25" s="204"/>
-      <c r="AI25" s="205"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="174"/>
     </row>
     <row r="26" spans="5:35" ht="24" customHeight="1">
-      <c r="E26" s="215"/>
-      <c r="F26" s="204" t="s">
+      <c r="E26" s="184"/>
+      <c r="F26" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="204"/>
-      <c r="V26" s="204"/>
-      <c r="W26" s="204"/>
-      <c r="X26" s="204"/>
-      <c r="Y26" s="204"/>
-      <c r="Z26" s="204"/>
-      <c r="AA26" s="204"/>
-      <c r="AB26" s="204"/>
-      <c r="AC26" s="204"/>
-      <c r="AD26" s="204"/>
-      <c r="AE26" s="204"/>
-      <c r="AF26" s="204"/>
-      <c r="AG26" s="204"/>
-      <c r="AH26" s="204"/>
-      <c r="AI26" s="205"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="174"/>
     </row>
     <row r="27" spans="5:35" ht="24" customHeight="1">
-      <c r="E27" s="215"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="213"/>
-      <c r="P27" s="213"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="213"/>
-      <c r="AD27" s="213"/>
-      <c r="AE27" s="213"/>
-      <c r="AF27" s="213"/>
-      <c r="AG27" s="213"/>
-      <c r="AH27" s="214"/>
-      <c r="AI27" s="205"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182"/>
+      <c r="T27" s="182"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="182"/>
+      <c r="W27" s="182"/>
+      <c r="X27" s="182"/>
+      <c r="Y27" s="182"/>
+      <c r="Z27" s="182"/>
+      <c r="AA27" s="182"/>
+      <c r="AB27" s="182"/>
+      <c r="AC27" s="182"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="182"/>
+      <c r="AF27" s="182"/>
+      <c r="AG27" s="182"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="174"/>
     </row>
     <row r="28" spans="5:35" ht="24" customHeight="1">
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="204"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="204"/>
-      <c r="S28" s="204"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="204"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="204"/>
-      <c r="X28" s="204"/>
-      <c r="Y28" s="204"/>
-      <c r="Z28" s="204"/>
-      <c r="AA28" s="204"/>
-      <c r="AB28" s="204"/>
-      <c r="AC28" s="204"/>
-      <c r="AD28" s="204"/>
-      <c r="AE28" s="204"/>
-      <c r="AF28" s="204"/>
-      <c r="AG28" s="204"/>
-      <c r="AH28" s="205"/>
-      <c r="AI28" s="205"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="174"/>
+      <c r="AI28" s="174"/>
     </row>
     <row r="29" spans="5:35" ht="24" customHeight="1">
-      <c r="E29" s="215"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="218"/>
-      <c r="T29" s="218"/>
-      <c r="U29" s="218"/>
-      <c r="V29" s="218"/>
-      <c r="W29" s="218"/>
-      <c r="X29" s="218"/>
-      <c r="Y29" s="218"/>
-      <c r="Z29" s="218"/>
-      <c r="AA29" s="218"/>
-      <c r="AB29" s="218"/>
-      <c r="AC29" s="218"/>
-      <c r="AD29" s="218"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="218"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="205"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="174"/>
     </row>
     <row r="30" spans="5:35" ht="24" customHeight="1">
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="202"/>
-      <c r="Q30" s="202"/>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="202"/>
-      <c r="U30" s="202"/>
-      <c r="V30" s="202"/>
-      <c r="W30" s="202"/>
-      <c r="X30" s="202"/>
-      <c r="Y30" s="202"/>
-      <c r="Z30" s="202"/>
-      <c r="AA30" s="202"/>
-      <c r="AB30" s="202"/>
-      <c r="AC30" s="202"/>
-      <c r="AD30" s="202"/>
-      <c r="AE30" s="202"/>
-      <c r="AF30" s="202"/>
-      <c r="AG30" s="202"/>
-      <c r="AH30" s="202"/>
-      <c r="AI30" s="203"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="171"/>
+      <c r="AF30" s="171"/>
+      <c r="AG30" s="171"/>
+      <c r="AH30" s="171"/>
+      <c r="AI30" s="172"/>
     </row>
     <row r="31" spans="5:35" ht="24" customHeight="1">
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="202"/>
-      <c r="R31" s="202"/>
-      <c r="S31" s="202"/>
-      <c r="T31" s="202"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="202"/>
-      <c r="W31" s="202"/>
-      <c r="X31" s="202"/>
-      <c r="Y31" s="202"/>
-      <c r="Z31" s="202"/>
-      <c r="AA31" s="202"/>
-      <c r="AB31" s="222" t="s">
+      <c r="E31" s="170"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="202"/>
-      <c r="AF31" s="220" t="s">
+      <c r="AC31" s="200"/>
+      <c r="AD31" s="200"/>
+      <c r="AE31" s="171"/>
+      <c r="AF31" s="201" t="s">
         <v>323</v>
       </c>
-      <c r="AG31" s="221"/>
-      <c r="AH31" s="221"/>
-      <c r="AI31" s="203"/>
+      <c r="AG31" s="202"/>
+      <c r="AH31" s="202"/>
+      <c r="AI31" s="172"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1">
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="210"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="210"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
-      <c r="P32" s="210"/>
-      <c r="Q32" s="210"/>
-      <c r="R32" s="210"/>
-      <c r="S32" s="210"/>
-      <c r="T32" s="210"/>
-      <c r="U32" s="210"/>
-      <c r="V32" s="210"/>
-      <c r="W32" s="210"/>
-      <c r="X32" s="210"/>
-      <c r="Y32" s="210"/>
-      <c r="Z32" s="210"/>
-      <c r="AA32" s="210"/>
-      <c r="AB32" s="210"/>
-      <c r="AC32" s="210"/>
-      <c r="AD32" s="210"/>
-      <c r="AE32" s="210"/>
-      <c r="AF32" s="210"/>
-      <c r="AG32" s="210"/>
-      <c r="AH32" s="210"/>
-      <c r="AI32" s="211"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="179"/>
+      <c r="Y32" s="179"/>
+      <c r="Z32" s="179"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="179"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="179"/>
+      <c r="AG32" s="179"/>
+      <c r="AH32" s="179"/>
+      <c r="AI32" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11069,7 +11175,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.25" style="200"/>
+    <col min="1" max="16384" width="3.25" style="169"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1">
@@ -11096,429 +11202,429 @@
       <c r="W2" s="199"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1">
-      <c r="E3" s="212"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="214"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="183"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1">
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="203" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="225"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
-      <c r="W4" s="226"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="205"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1">
-      <c r="E5" s="215"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="205"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="174"/>
     </row>
     <row r="6" spans="5:23" ht="24" customHeight="1">
-      <c r="E6" s="215"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="223" t="s">
+      <c r="E6" s="184"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="189" t="s">
         <v>304</v>
       </c>
-      <c r="L6" s="206"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="205"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="174"/>
     </row>
     <row r="7" spans="5:23" ht="24" customHeight="1">
-      <c r="E7" s="215"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="223"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="205"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="189"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="174"/>
     </row>
     <row r="8" spans="5:23" ht="24" customHeight="1">
-      <c r="E8" s="215"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="223" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="189" t="s">
         <v>305</v>
       </c>
-      <c r="L8" s="206"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207"/>
-      <c r="U8" s="208"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="205"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="174"/>
     </row>
     <row r="9" spans="5:23" ht="24" customHeight="1">
-      <c r="E9" s="215"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="223"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="205"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="189"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
     </row>
     <row r="10" spans="5:23" ht="24" customHeight="1">
-      <c r="E10" s="215"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="223" t="s">
+      <c r="E10" s="184"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="189" t="s">
         <v>306</v>
       </c>
-      <c r="L10" s="206"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207"/>
-      <c r="U10" s="208"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="205"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="174"/>
     </row>
     <row r="11" spans="5:23" ht="24" customHeight="1">
-      <c r="E11" s="215"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="223"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="205"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="189"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="174"/>
     </row>
     <row r="12" spans="5:23" ht="24" customHeight="1">
-      <c r="E12" s="215"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="223" t="s">
+      <c r="E12" s="184"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="L12" s="206"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
-      <c r="T12" s="207"/>
-      <c r="U12" s="208"/>
-      <c r="V12" s="204"/>
-      <c r="W12" s="205"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="174"/>
     </row>
     <row r="13" spans="5:23" ht="24" customHeight="1">
-      <c r="E13" s="215"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="223"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="204"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="205"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="189"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="174"/>
     </row>
     <row r="14" spans="5:23" ht="24" customHeight="1">
-      <c r="E14" s="215"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="223" t="s">
+      <c r="E14" s="184"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="189" t="s">
         <v>308</v>
       </c>
-      <c r="L14" s="206"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="207"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="205"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="174"/>
     </row>
     <row r="15" spans="5:23" ht="24" customHeight="1">
-      <c r="E15" s="215"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="223"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="204"/>
-      <c r="T15" s="204"/>
-      <c r="U15" s="204"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="205"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="189"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="174"/>
     </row>
     <row r="16" spans="5:23" ht="24" customHeight="1">
-      <c r="E16" s="215"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="223" t="s">
+      <c r="E16" s="184"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="189" t="s">
         <v>325</v>
       </c>
-      <c r="L16" s="206"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="204"/>
-      <c r="W16" s="205"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="174"/>
     </row>
     <row r="17" spans="5:24" ht="24" customHeight="1">
-      <c r="E17" s="215"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="223"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="204"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="204"/>
-      <c r="S17" s="204"/>
-      <c r="T17" s="204"/>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="205"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="189"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="174"/>
     </row>
     <row r="18" spans="5:24" ht="24" customHeight="1">
-      <c r="E18" s="215"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="223" t="s">
+      <c r="E18" s="184"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="189" t="s">
         <v>310</v>
       </c>
-      <c r="L18" s="206"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="205"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="174"/>
     </row>
     <row r="19" spans="5:24" ht="24" customHeight="1">
-      <c r="E19" s="215"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="223"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="204"/>
-      <c r="W19" s="205"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="189"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="174"/>
     </row>
     <row r="20" spans="5:24" ht="24" customHeight="1">
-      <c r="E20" s="215"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="223" t="s">
+      <c r="E20" s="184"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="L20" s="206"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="205"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="174"/>
     </row>
     <row r="21" spans="5:24" ht="24" customHeight="1">
-      <c r="E21" s="215"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="223"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="204"/>
-      <c r="T21" s="204"/>
-      <c r="U21" s="204"/>
-      <c r="V21" s="204"/>
-      <c r="W21" s="205"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="189"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="174"/>
     </row>
     <row r="22" spans="5:24" ht="24" customHeight="1">
-      <c r="E22" s="215"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="223" t="s">
+      <c r="E22" s="184"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="189" t="s">
         <v>313</v>
       </c>
-      <c r="K22" s="223"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="204"/>
-      <c r="X22" s="215"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="173"/>
+      <c r="X22" s="184"/>
     </row>
     <row r="23" spans="5:24" ht="20.100000000000001" customHeight="1">
-      <c r="E23" s="215"/>
-      <c r="X23" s="215"/>
+      <c r="E23" s="184"/>
+      <c r="X23" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11939,9 +12045,9 @@
       <c r="D10" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="208"/>
       <c r="H10" s="156" t="s">
         <v>26</v>
       </c>
@@ -12060,11 +12166,11 @@
       <c r="D19" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="208"/>
       <c r="J19" s="142"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
@@ -12233,9 +12339,9 @@
       <c r="D37" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="180"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="156" t="s">
         <v>26</v>
       </c>
@@ -12354,11 +12460,11 @@
       <c r="D46" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="178"/>
-      <c r="F46" s="179"/>
-      <c r="G46" s="179"/>
-      <c r="H46" s="179"/>
-      <c r="I46" s="180"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="207"/>
+      <c r="H46" s="207"/>
+      <c r="I46" s="208"/>
       <c r="J46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
@@ -12672,14 +12778,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -12749,10 +12855,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="185" t="s">
+      <c r="AP13" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="185"/>
+      <c r="AQ13" s="213"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -13135,14 +13241,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="183" t="s">
+      <c r="AP11" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="184"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AQ11" s="212"/>
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -13212,10 +13318,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="185" t="s">
+      <c r="AP13" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="185"/>
+      <c r="AQ13" s="213"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -13483,10 +13589,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="181" t="s">
+      <c r="AS11" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="182"/>
+      <c r="AT11" s="210"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -13556,10 +13662,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="185" t="s">
+      <c r="AR13" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="185"/>
+      <c r="AS13" s="213"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="24" r:id="rId1"/>
     <sheet name="테이블" sheetId="15" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId4"/>
-    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId7"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId8"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId9"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId10"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId11"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId12"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId13"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId14"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId15"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId16"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId17"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId18"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId19"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId5"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="25" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId8"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId9"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId10"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId11"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId12"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId13"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId14"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId15"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId16"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId17"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId18"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId19"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId20"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="462">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9017,6 +9018,188 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드, 병의원명, 사업자등록번호, 원장명, 주소, 업체 수,업체명 ,업체 사업자등록번호, 삭제, 추가</t>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병의원명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원장명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>서울병원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-11-11111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천시..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천병원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기병원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원병원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>222-22-22222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>333-33-33333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅴ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주병원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>555-55-55555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>444-44-44444</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주시..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅴ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000-00-00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업장 소재지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체명, 사업자등록번호, 대표자명 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 지정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9024,7 +9207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="48">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9395,6 +9578,37 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -9458,7 +9672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -10004,6 +10218,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10016,7 +10258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10536,6 +10778,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10649,6 +10894,36 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11877,6 +12152,367 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="13.5"/>
+    <row r="2" spans="1:55" ht="17.25">
+      <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP2" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS2" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:55" s="5" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="5" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:55" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:55" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="195"/>
+    </row>
+    <row r="13" spans="1:55" ht="18" customHeight="1">
+      <c r="C13" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ13" s="198"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC13" s="52"/>
+    </row>
+    <row r="14" spans="1:55" ht="18" customHeight="1">
+      <c r="AI14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="10"/>
+      <c r="AP14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ14" s="22"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV14" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB14" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="18" customHeight="1">
+      <c r="AI15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ15" s="22"/>
+    </row>
+    <row r="16" spans="1:55" ht="18" customHeight="1">
+      <c r="AI16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ16" s="23"/>
+    </row>
+    <row r="25" spans="23:23" ht="18" customHeight="1">
+      <c r="W25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="53" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="54" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="55" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="56" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="57" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="58" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="59" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="60" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="61" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="62" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="63" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="64" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="65" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="66" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="67" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="68" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="69" s="27" customFormat="1" ht="18" customHeight="1"/>
+    <row r="70" s="27" customFormat="1" ht="18" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AP13:AQ13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -12045,10 +12681,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -12118,10 +12754,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="197" t="s">
+      <c r="AR13" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="197"/>
+      <c r="AS13" s="198"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -12156,7 +12792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
@@ -12337,18 +12973,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="195" t="s">
+      <c r="AM11" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="196"/>
-      <c r="AP11" s="195" t="s">
+      <c r="AN11" s="197"/>
+      <c r="AP11" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -12469,18 +13105,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="198" t="s">
+      <c r="S16" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="199"/>
-      <c r="U16" s="199"/>
-      <c r="V16" s="199"/>
-      <c r="W16" s="199"/>
-      <c r="X16" s="199"/>
-      <c r="Y16" s="199"/>
-      <c r="Z16" s="199"/>
-      <c r="AA16" s="199"/>
-      <c r="AB16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="200"/>
+      <c r="X16" s="200"/>
+      <c r="Y16" s="200"/>
+      <c r="Z16" s="200"/>
+      <c r="AA16" s="200"/>
+      <c r="AB16" s="201"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -12680,15 +13316,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="201" t="s">
+      <c r="W27" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="202"/>
+      <c r="X27" s="203"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="195" t="s">
+      <c r="Z27" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="196"/>
+      <c r="AA27" s="197"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -12731,7 +13367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -12914,14 +13550,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -13074,20 +13710,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="203" t="s">
+      <c r="Z19" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="204"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="204"/>
-      <c r="AH19" s="204"/>
-      <c r="AI19" s="204"/>
-      <c r="AJ19" s="204"/>
-      <c r="AK19" s="205"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="205"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="205"/>
+      <c r="AG19" s="205"/>
+      <c r="AH19" s="205"/>
+      <c r="AI19" s="205"/>
+      <c r="AJ19" s="205"/>
+      <c r="AK19" s="206"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -13218,10 +13854,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="201" t="s">
+      <c r="AI26" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="202"/>
+      <c r="AJ26" s="203"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -13250,7 +13886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
@@ -13433,14 +14069,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -13583,18 +14219,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="198" t="s">
+      <c r="F17" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="201"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -13614,34 +14250,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="203" t="s">
+      <c r="R18" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="205"/>
-      <c r="AF18" s="203" t="s">
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="205"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="205"/>
+      <c r="AC18" s="206"/>
+      <c r="AF18" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="204"/>
-      <c r="AH18" s="204"/>
-      <c r="AI18" s="204"/>
-      <c r="AJ18" s="204"/>
-      <c r="AK18" s="204"/>
-      <c r="AL18" s="204"/>
-      <c r="AM18" s="204"/>
-      <c r="AN18" s="204"/>
-      <c r="AO18" s="204"/>
-      <c r="AP18" s="204"/>
-      <c r="AQ18" s="205"/>
+      <c r="AG18" s="205"/>
+      <c r="AH18" s="205"/>
+      <c r="AI18" s="205"/>
+      <c r="AJ18" s="205"/>
+      <c r="AK18" s="205"/>
+      <c r="AL18" s="205"/>
+      <c r="AM18" s="205"/>
+      <c r="AN18" s="205"/>
+      <c r="AO18" s="205"/>
+      <c r="AP18" s="205"/>
+      <c r="AQ18" s="206"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -14008,15 +14644,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="201" t="s">
+      <c r="X27" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="202"/>
+      <c r="Y27" s="203"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="195" t="s">
+      <c r="AA27" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="196"/>
+      <c r="AB27" s="197"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -14024,15 +14660,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="201" t="s">
+      <c r="AL27" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="202"/>
+      <c r="AM27" s="203"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="195" t="s">
+      <c r="AO27" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="196"/>
+      <c r="AP27" s="197"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -14040,15 +14676,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="201" t="s">
+      <c r="J28" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="202"/>
+      <c r="K28" s="203"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="195" t="s">
+      <c r="M28" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="196"/>
+      <c r="N28" s="197"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -14084,10 +14720,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="206" t="s">
+      <c r="M29" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="206"/>
+      <c r="N29" s="207"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -14384,7 +15020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -14567,14 +15203,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -14785,20 +15421,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="203" t="s">
+      <c r="S20" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="204"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
+      <c r="W20" s="205"/>
+      <c r="X20" s="205"/>
+      <c r="Y20" s="205"/>
+      <c r="Z20" s="205"/>
+      <c r="AA20" s="205"/>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="205"/>
+      <c r="AD20" s="206"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -14928,10 +15564,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="201" t="s">
+      <c r="AB26" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="202"/>
+      <c r="AC26" s="203"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -14960,7 +15596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -15143,14 +15779,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -15277,18 +15913,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="207" t="s">
+      <c r="S16" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
-      <c r="W16" s="208"/>
-      <c r="X16" s="208"/>
-      <c r="Y16" s="208"/>
-      <c r="Z16" s="208"/>
-      <c r="AA16" s="208"/>
-      <c r="AB16" s="209"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="209"/>
+      <c r="W16" s="209"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="209"/>
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="209"/>
+      <c r="AB16" s="210"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -15425,15 +16061,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="201" t="s">
+      <c r="W24" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="202"/>
+      <c r="X24" s="203"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="195" t="s">
+      <c r="Z24" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="196"/>
+      <c r="AA24" s="197"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -15475,7 +16111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -15656,14 +16292,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -15863,7 +16499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -16037,10 +16673,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="193" t="s">
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -16161,7 +16797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -16335,10 +16971,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="193" t="s">
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -16459,309 +17095,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AP4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="O5" s="6"/>
-      <c r="U5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="O6" s="6"/>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="U7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS11" s="193" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="194"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="48">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AS11:AT11"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -16829,7 +17167,7 @@
       <c r="A5" s="103">
         <v>1</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="174" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -16867,7 +17205,7 @@
       <c r="A6" s="103">
         <v>1</v>
       </c>
-      <c r="B6" s="174"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -16901,7 +17239,7 @@
       <c r="A7" s="103">
         <v>1</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -16929,7 +17267,7 @@
       <c r="A8" s="103">
         <v>2</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="177" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -16969,7 +17307,7 @@
       <c r="A9" s="103">
         <v>2</v>
       </c>
-      <c r="B9" s="174"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -17007,7 +17345,7 @@
       <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="174"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -17045,7 +17383,7 @@
       <c r="A11" s="103">
         <v>2</v>
       </c>
-      <c r="B11" s="174"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -17083,7 +17421,7 @@
       <c r="A12" s="103">
         <v>2</v>
       </c>
-      <c r="B12" s="174"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -17115,7 +17453,7 @@
       <c r="A13" s="103">
         <v>2</v>
       </c>
-      <c r="B13" s="174"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -17151,7 +17489,7 @@
       <c r="A14" s="103">
         <v>2</v>
       </c>
-      <c r="B14" s="174"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -17187,7 +17525,7 @@
       <c r="A15" s="103">
         <v>2</v>
       </c>
-      <c r="B15" s="174"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -17219,7 +17557,7 @@
       <c r="A16" s="103">
         <v>2</v>
       </c>
-      <c r="B16" s="177"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -17251,7 +17589,7 @@
       <c r="A17" s="103">
         <v>3</v>
       </c>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -17285,7 +17623,7 @@
       <c r="A18" s="103">
         <v>3</v>
       </c>
-      <c r="B18" s="174"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17653,7 @@
       <c r="A19" s="103">
         <v>3</v>
       </c>
-      <c r="B19" s="174"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -17347,7 +17685,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="103"/>
-      <c r="B20" s="174"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -17371,7 +17709,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="174"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -17399,7 +17737,7 @@
       <c r="A22" s="103">
         <v>3</v>
       </c>
-      <c r="B22" s="174"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -17429,7 +17767,7 @@
       <c r="A23" s="103">
         <v>3</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -17457,7 +17795,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="103"/>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="179" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -17479,7 +17817,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="103"/>
-      <c r="B25" s="179"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -17501,7 +17839,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="103"/>
-      <c r="B26" s="180"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -17994,6 +18332,304 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AP4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="O5" s="6"/>
+      <c r="U5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="O6" s="6"/>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="U7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS11" s="194" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="195"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="48">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AS11:AT11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -18430,16 +19066,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="210" t="s">
+      <c r="Q24" s="211" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="210"/>
-      <c r="S24" s="210"/>
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="210" t="s">
+      <c r="U24" s="211" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="210"/>
+      <c r="V24" s="211"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -18477,39 +19113,39 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="181"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="181"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="181"/>
-      <c r="AI4" s="181"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="182"/>
+      <c r="AA4" s="182"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="182"/>
+      <c r="AG4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="182"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1">
       <c r="E5" s="142"/>
@@ -19429,17 +20065,17 @@
       <c r="Y31" s="132"/>
       <c r="Z31" s="132"/>
       <c r="AA31" s="132"/>
-      <c r="AB31" s="182" t="s">
+      <c r="AB31" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
       <c r="AE31" s="132"/>
-      <c r="AF31" s="183" t="s">
+      <c r="AF31" s="184" t="s">
         <v>312</v>
       </c>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
+      <c r="AG31" s="185"/>
+      <c r="AH31" s="185"/>
       <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1">
@@ -19488,6 +20124,507 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:AB27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="103"/>
+    <col min="5" max="5" width="8.625" style="103" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="103" customWidth="1"/>
+    <col min="8" max="8" width="1.625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="103" customWidth="1"/>
+    <col min="10" max="10" width="1.625" style="103" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="54"/>
+    <col min="12" max="12" width="12.625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="103" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="54" customWidth="1"/>
+    <col min="15" max="16" width="8.625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="10.625" style="54" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="103"/>
+    <col min="19" max="19" width="8.625" style="103" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="54" customWidth="1"/>
+    <col min="21" max="21" width="6.625" style="103" customWidth="1"/>
+    <col min="22" max="22" width="1.625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="4.625" style="103" customWidth="1"/>
+    <col min="24" max="24" width="1.625" style="103" customWidth="1"/>
+    <col min="25" max="25" width="12.625" style="54"/>
+    <col min="26" max="26" width="12.625" style="54" customWidth="1"/>
+    <col min="27" max="27" width="6.625" style="103" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="54" customWidth="1"/>
+    <col min="29" max="16384" width="12.625" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:28" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="173" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="173" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="173" t="s">
+        <v>422</v>
+      </c>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173" t="s">
+        <v>421</v>
+      </c>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173" t="s">
+        <v>401</v>
+      </c>
+      <c r="L7" s="173" t="s">
+        <v>455</v>
+      </c>
+      <c r="M7" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" s="173" t="s">
+        <v>454</v>
+      </c>
+      <c r="P7" s="173" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q7" s="173" t="s">
+        <v>418</v>
+      </c>
+      <c r="R7" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="173" t="s">
+        <v>419</v>
+      </c>
+      <c r="T7" s="173" t="s">
+        <v>420</v>
+      </c>
+      <c r="U7" s="173" t="s">
+        <v>422</v>
+      </c>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173" t="s">
+        <v>421</v>
+      </c>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z7" s="173" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA7" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" s="173" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C8" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="214" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="Q8" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="R8" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="S8" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="U8" s="217" t="s">
+        <v>426</v>
+      </c>
+      <c r="W8" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA8" s="54"/>
+    </row>
+    <row r="9" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C9" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9" s="103">
+        <v>1</v>
+      </c>
+      <c r="K9" s="213" t="s">
+        <v>440</v>
+      </c>
+      <c r="L9" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="M9" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="R9" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="S9" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="T9" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="U9" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="W9" s="103">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="213" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z9" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA9" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C10" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="103">
+        <v>2</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="K10" s="213" t="s">
+        <v>441</v>
+      </c>
+      <c r="L10" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="M10" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="R10" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="S10" s="103" t="s">
+        <v>435</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="U10" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="W10" s="103">
+        <v>2</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y10" s="213" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z10" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA10" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C11" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="103">
+        <v>3</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="213" t="s">
+        <v>442</v>
+      </c>
+      <c r="L11" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="M11" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="218" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="R11" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="S11" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="U11" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="W11" s="103">
+        <v>3</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y11" s="213" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z11" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA11" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="212" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G12" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="I12" s="103">
+        <v>1</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="213" t="s">
+        <v>451</v>
+      </c>
+      <c r="L12" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="M12" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="212" t="s">
+        <v>416</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="213" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z12" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA12" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="P13" s="212" t="s">
+        <v>416</v>
+      </c>
+      <c r="U13" s="54"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="213" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z13" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA13" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="P14" s="212" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="R14" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="S14" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="U14" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="W14" s="103">
+        <v>1</v>
+      </c>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="213" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z14" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA14" s="215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="18" customHeight="1" thickTop="1"/>
+    <row r="17" spans="2:7" ht="18" customHeight="1">
+      <c r="B17" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1">
+      <c r="C19" s="219" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="221"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1">
+      <c r="B21" s="173" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="198" t="s">
+        <v>456</v>
+      </c>
+      <c r="G21" s="198"/>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1">
+      <c r="B22" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1">
+      <c r="B23" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1">
+      <c r="B24" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1">
+      <c r="B25" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1">
+      <c r="F27" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="103" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -19500,27 +20637,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1">
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="182" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1">
       <c r="E3" s="142"/>
@@ -19544,27 +20681,27 @@
       <c r="W3" s="144"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1">
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="186" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="188"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1">
       <c r="E5" s="145"/>
@@ -19957,7 +21094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V34"/>
   <sheetViews>
@@ -20403,10 +21540,10 @@
       <c r="M23" s="156"/>
       <c r="N23" s="18"/>
       <c r="O23" s="158"/>
-      <c r="P23" s="188" t="s">
+      <c r="P23" s="189" t="s">
         <v>328</v>
       </c>
-      <c r="Q23" s="189"/>
+      <c r="Q23" s="190"/>
       <c r="S23" s="164" t="s">
         <v>66</v>
       </c>
@@ -20646,7 +21783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20662,7 +21799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
@@ -20784,9 +21921,9 @@
       <c r="D10" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="192"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
       <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
@@ -20905,11 +22042,11 @@
       <c r="D19" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="190"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="192"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="193"/>
       <c r="J19" s="110"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
@@ -21078,9 +22215,9 @@
       <c r="D37" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="190"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="192"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="124" t="s">
         <v>26</v>
       </c>
@@ -21199,11 +22336,11 @@
       <c r="D46" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="190"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="192"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="193"/>
       <c r="J46" s="110"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
@@ -21324,11 +22461,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:AF21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -21517,14 +22656,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="195" t="s">
+      <c r="AP11" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
+      <c r="AQ11" s="197"/>
+      <c r="AS11" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="194"/>
+      <c r="AT11" s="195"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -21594,10 +22733,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="197" t="s">
+      <c r="AP13" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="197"/>
+      <c r="AQ13" s="198"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -21795,365 +22934,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC70"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" ht="13.5"/>
-    <row r="2" spans="1:55" ht="17.25">
-      <c r="B2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS2" s="56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:55" s="5" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-    </row>
-    <row r="5" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:55" s="5" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:55" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:55" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="195" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ11" s="196"/>
-      <c r="AS11" s="193" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="194"/>
-    </row>
-    <row r="13" spans="1:55" ht="18" customHeight="1">
-      <c r="C13" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="197" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ13" s="197"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC13" s="52"/>
-    </row>
-    <row r="14" spans="1:55" ht="18" customHeight="1">
-      <c r="AI14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ14" s="10"/>
-      <c r="AP14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ14" s="22"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV14" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB14" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" ht="18" customHeight="1">
-      <c r="AI15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ15" s="22"/>
-    </row>
-    <row r="16" spans="1:55" ht="18" customHeight="1">
-      <c r="AI16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ16" s="23"/>
-    </row>
-    <row r="25" spans="23:23" ht="18" customHeight="1">
-      <c r="W25" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="53" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="54" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="55" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="56" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="57" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="58" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="59" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="60" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="61" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="62" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="63" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="64" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="65" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="66" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="67" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="68" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="69" s="27" customFormat="1" ht="18" customHeight="1"/>
-    <row r="70" s="27" customFormat="1" ht="18" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AP13:AQ13"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,31 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="15" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId3"/>
-    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId5"/>
-    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId8"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId9"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId10"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId11"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId12"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId13"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId14"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId15"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId16"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId17"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId18"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId19"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId20"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId21"/>
+    <sheet name="Sheet5" sheetId="28" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId4"/>
+    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId5"/>
+    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId6"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="25" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId9"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId10"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId11"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId12"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId13"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId14"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId15"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId16"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId17"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId18"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId19"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId20"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId21"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId22"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="468">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1704,6 +1708,192 @@
   </si>
   <si>
     <t>clients-companies (modal)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminClientsAssignCompaniesView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsAssignPharmaciesView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompaniesApprovedView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompaniesPendingView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminDirectRevenueCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminDirectRevenueView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticesView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceInputView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceViewView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductsView.vue</t>
+  </si>
+  <si>
+    <t>AdminSettlementMonthView.vue</t>
+  </si>
+  <si>
+    <t>AdminSettlementStatementsView.vue</t>
+  </si>
+  <si>
+    <t>AdminWholesaleRevenueCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminWholesaleRevenueView.vue</t>
+  </si>
+  <si>
+    <t>RegisterUser.vue</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+  </si>
+  <si>
+    <t>거래처 관리</t>
+  </si>
+  <si>
+    <t>업체 관리</t>
+  </si>
+  <si>
+    <t>매출 관리</t>
+  </si>
+  <si>
+    <t>실적 관리</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산내역서 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미승인 업체 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인 업체 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당업체 지정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문전약국 지정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대매뉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중메뉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2708,7 +2898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3370,6 +3560,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5349,6 +5542,479 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="13.5"/>
+    <row r="2" spans="1:55" ht="17.25">
+      <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:55" s="5" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="5" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="9" spans="1:55" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:55" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="206" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ11" s="207"/>
+      <c r="AS11" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="205"/>
+    </row>
+    <row r="13" spans="1:55" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ13" s="195"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC13" s="52"/>
+    </row>
+    <row r="14" spans="1:55" ht="18" customHeight="1">
+      <c r="AI14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="10"/>
+      <c r="AP14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ14" s="22"/>
+      <c r="AS14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV14" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB14" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="18" customHeight="1">
+      <c r="AI15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ15" s="22"/>
+    </row>
+    <row r="16" spans="1:55" ht="18" customHeight="1">
+      <c r="AI16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ16" s="23"/>
+    </row>
+    <row r="20" spans="2:40" ht="18" customHeight="1">
+      <c r="B20" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN20" s="99"/>
+    </row>
+    <row r="21" spans="2:40" ht="18" customHeight="1">
+      <c r="C21" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN21" s="53"/>
+    </row>
+    <row r="22" spans="2:40" ht="18" customHeight="1">
+      <c r="AM22" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AP13:AQ13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -5708,7 +6374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -5989,7 +6655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
@@ -6564,7 +7230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -7083,7 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
@@ -8217,7 +8883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -8793,7 +9459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -9308,7 +9974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -9696,7 +10362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -9994,7 +10660,527 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="221"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="221" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="221" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="221" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="221" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="221" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="221" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="221" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="221" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" s="221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="221" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="221" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="221" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="221" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="221" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>447</v>
+      </c>
+      <c r="F23" s="221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24" s="221" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="221" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>452</v>
+      </c>
+      <c r="F28" s="221" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="221" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="221" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>449</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="221" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -10292,7 +11478,777 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="13.5"/>
+    <row r="2" spans="1:46" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:46" s="5" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AP4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="O5" s="6"/>
+      <c r="U5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="O6" s="6"/>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="U7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="18" customHeight="1">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS11" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="205"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+    </row>
+    <row r="14" spans="1:46" ht="18" customHeight="1">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="48">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AS11:AT11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="13.5"/>
+    <row r="2" spans="1:45" ht="16.5">
+      <c r="B2" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="4" customFormat="1" ht="13.5"/>
+    <row r="4" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AP4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="O5" s="6"/>
+      <c r="U5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="O6" s="6"/>
+      <c r="U6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="U7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="9" spans="1:45" ht="18" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="18" customHeight="1">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="12" spans="1:45" ht="18" customHeight="1">
+      <c r="O12" s="21"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="1:45" ht="18" customHeight="1">
+      <c r="O13" s="30"/>
+      <c r="P13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="31"/>
+    </row>
+    <row r="14" spans="1:45" ht="18" customHeight="1">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+    </row>
+    <row r="15" spans="1:45" ht="18" customHeight="1">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+    </row>
+    <row r="16" spans="1:45" ht="18" customHeight="1">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+    </row>
+    <row r="17" spans="4:34" ht="18" customHeight="1">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+    </row>
+    <row r="18" spans="4:34" ht="18" customHeight="1">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+    </row>
+    <row r="19" spans="4:34" ht="18" customHeight="1">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+    </row>
+    <row r="20" spans="4:34" ht="18" customHeight="1">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+    </row>
+    <row r="21" spans="4:34" ht="18" customHeight="1">
+      <c r="O21" s="30"/>
+      <c r="P21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="31"/>
+    </row>
+    <row r="22" spans="4:34" ht="18" customHeight="1">
+      <c r="O22" s="30"/>
+      <c r="P22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="31"/>
+    </row>
+    <row r="23" spans="4:34" ht="18" customHeight="1">
+      <c r="O23" s="30"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="31"/>
+    </row>
+    <row r="24" spans="4:34" ht="18" customHeight="1">
+      <c r="O24" s="30"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="220" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="220" t="s">
+        <v>146</v>
+      </c>
+      <c r="V24" s="220"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="31"/>
+    </row>
+    <row r="25" spans="4:34" ht="18" customHeight="1">
+      <c r="O25" s="13"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:V24"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:AI32"/>
   <sheetViews>
@@ -11313,777 +13269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="13.5"/>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:46" s="5" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AP4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="O5" s="6"/>
-      <c r="U5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="O6" s="6"/>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:46" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="U7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="9" spans="1:46" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS11" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="205"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-    </row>
-    <row r="14" spans="1:46" ht="18" customHeight="1">
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="48">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AS11:AT11"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" ht="13.5"/>
-    <row r="2" spans="1:45" ht="16.5">
-      <c r="B2" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AP4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="O5" s="6"/>
-      <c r="U5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="O6" s="6"/>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="U7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="9" spans="1:45" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="12" spans="1:45" ht="18" customHeight="1">
-      <c r="O12" s="21"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="22"/>
-    </row>
-    <row r="13" spans="1:45" ht="18" customHeight="1">
-      <c r="O13" s="30"/>
-      <c r="P13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="31"/>
-    </row>
-    <row r="14" spans="1:45" ht="18" customHeight="1">
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-    </row>
-    <row r="15" spans="1:45" ht="18" customHeight="1">
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-    </row>
-    <row r="16" spans="1:45" ht="18" customHeight="1">
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-    </row>
-    <row r="17" spans="4:34" ht="18" customHeight="1">
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-    </row>
-    <row r="18" spans="4:34" ht="18" customHeight="1">
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-    </row>
-    <row r="19" spans="4:34" ht="18" customHeight="1">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-    </row>
-    <row r="20" spans="4:34" ht="18" customHeight="1">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-    </row>
-    <row r="21" spans="4:34" ht="18" customHeight="1">
-      <c r="O21" s="30"/>
-      <c r="P21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="31"/>
-    </row>
-    <row r="22" spans="4:34" ht="18" customHeight="1">
-      <c r="O22" s="30"/>
-      <c r="P22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="31"/>
-    </row>
-    <row r="23" spans="4:34" ht="18" customHeight="1">
-      <c r="O23" s="30"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="31"/>
-    </row>
-    <row r="24" spans="4:34" ht="18" customHeight="1">
-      <c r="O24" s="30"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="220" t="s">
-        <v>147</v>
-      </c>
-      <c r="R24" s="220"/>
-      <c r="S24" s="220"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="220" t="s">
-        <v>146</v>
-      </c>
-      <c r="V24" s="220"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="31"/>
-    </row>
-    <row r="25" spans="4:34" ht="18" customHeight="1">
-      <c r="O25" s="13"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:V24"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AB27"/>
   <sheetViews>
@@ -12582,7 +13768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:V47"/>
   <sheetViews>
@@ -13183,7 +14369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:X23"/>
   <sheetViews>
@@ -13652,7 +14838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V34"/>
   <sheetViews>
@@ -14339,7 +15525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14353,7 +15539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
@@ -15013,477 +16199,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="4.625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" ht="13.5"/>
-    <row r="2" spans="1:55" ht="17.25">
-      <c r="B2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="4" customFormat="1" ht="13.5"/>
-    <row r="4" spans="1:55" s="5" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-    </row>
-    <row r="5" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:55" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="9" spans="1:55" ht="18" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" ht="18" customHeight="1">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:55" ht="18" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="206" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT11" s="205"/>
-    </row>
-    <row r="13" spans="1:55" ht="18" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="195" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ13" s="195"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC13" s="52"/>
-    </row>
-    <row r="14" spans="1:55" ht="18" customHeight="1">
-      <c r="AI14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ14" s="10"/>
-      <c r="AP14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ14" s="22"/>
-      <c r="AS14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV14" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB14" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" ht="18" customHeight="1">
-      <c r="AI15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ15" s="22"/>
-    </row>
-    <row r="16" spans="1:55" ht="18" customHeight="1">
-      <c r="AI16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ16" s="23"/>
-    </row>
-    <row r="20" spans="2:40" ht="18" customHeight="1">
-      <c r="B20" s="97" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN20" s="99"/>
-    </row>
-    <row r="21" spans="2:40" ht="18" customHeight="1">
-      <c r="C21" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN21" s="53"/>
-    </row>
-    <row r="22" spans="2:40" ht="18" customHeight="1">
-      <c r="AM22" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AP13:AQ13"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="468">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10662,11 +10662,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F35"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10677,7 +10677,7 @@
     <col min="6" max="6" width="9" style="221"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" s="221" t="s">
         <v>463</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>412</v>
       </c>
@@ -10710,8 +10710,11 @@
       <c r="F3" s="221" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="H3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>413</v>
       </c>
@@ -10727,8 +10730,11 @@
       <c r="F4" s="221" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="H4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>414</v>
       </c>
@@ -10744,8 +10750,11 @@
       <c r="F5" s="221" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="H5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>415</v>
       </c>
@@ -10761,8 +10770,11 @@
       <c r="F6" s="221" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="H6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>416</v>
       </c>
@@ -10778,8 +10790,11 @@
       <c r="F7" s="221" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="H7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>417</v>
       </c>
@@ -10795,8 +10810,11 @@
       <c r="F8" s="221" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="H8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>418</v>
       </c>
@@ -10812,8 +10830,11 @@
       <c r="F9" s="221" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="H9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>419</v>
       </c>
@@ -10829,8 +10850,11 @@
       <c r="F10" s="221" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="H10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>420</v>
       </c>
@@ -10843,8 +10867,11 @@
       <c r="F11" s="221" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="H11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>421</v>
       </c>
@@ -10857,8 +10884,11 @@
       <c r="F12" s="221" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="H12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>422</v>
       </c>
@@ -10871,8 +10901,11 @@
       <c r="F13" s="221" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="H13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" t="s">
         <v>423</v>
       </c>
@@ -10889,7 +10922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>424</v>
       </c>
@@ -10906,7 +10939,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>425</v>
       </c>

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="15" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="28" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId4"/>
-    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId5"/>
-    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId6"/>
-    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId9"/>
-    <sheet name="관리자_업체목록" sheetId="3" r:id="rId10"/>
-    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId11"/>
-    <sheet name="관리자_승인요청" sheetId="6" r:id="rId12"/>
-    <sheet name="관리자-제품" sheetId="7" r:id="rId13"/>
-    <sheet name="관리자-거래처" sheetId="8" r:id="rId14"/>
-    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId15"/>
-    <sheet name="관리자-문전약국" sheetId="9" r:id="rId16"/>
-    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId17"/>
-    <sheet name="관리자-매출" sheetId="12" r:id="rId18"/>
-    <sheet name="이용자-제품" sheetId="5" r:id="rId19"/>
-    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId20"/>
-    <sheet name="이용자-거래처" sheetId="13" r:id="rId21"/>
-    <sheet name="이용자-내정보" sheetId="14" r:id="rId22"/>
+    <sheet name="Sheet6" sheetId="29" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId5"/>
+    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId6"/>
+    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId7"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="25" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId10"/>
+    <sheet name="관리자_업체목록" sheetId="3" r:id="rId11"/>
+    <sheet name="관리자_업체목록 (2)" sheetId="16" r:id="rId12"/>
+    <sheet name="관리자_승인요청" sheetId="6" r:id="rId13"/>
+    <sheet name="관리자-제품" sheetId="7" r:id="rId14"/>
+    <sheet name="관리자-거래처" sheetId="8" r:id="rId15"/>
+    <sheet name="관리자-거래처-등록" sheetId="11" r:id="rId16"/>
+    <sheet name="관리자-문전약국" sheetId="9" r:id="rId17"/>
+    <sheet name="관리자-문전약국-등록" sheetId="10" r:id="rId18"/>
+    <sheet name="관리자-매출" sheetId="12" r:id="rId19"/>
+    <sheet name="이용자-제품" sheetId="5" r:id="rId20"/>
+    <sheet name="이용자-제품 (2)" sheetId="17" r:id="rId21"/>
+    <sheet name="이용자-거래처" sheetId="13" r:id="rId22"/>
+    <sheet name="이용자-내정보" sheetId="14" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$B$2:$F$2</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="559">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1703,197 +1704,572 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>clients-companies (modal)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminClientsAssignCompaniesView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsAssignPharmaciesView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminClientsView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompaniesApprovedView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompaniesPendingView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminCompanyEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminDirectRevenueCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminDirectRevenueView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticeEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminNoticesView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceInputView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceView.vue</t>
+  </si>
+  <si>
+    <t>AdminPerformanceViewView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminPharmaciesView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductDetailView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductEditView.vue</t>
+  </si>
+  <si>
+    <t>AdminProductsView.vue</t>
+  </si>
+  <si>
+    <t>AdminSettlementMonthView.vue</t>
+  </si>
+  <si>
+    <t>AdminSettlementStatementsView.vue</t>
+  </si>
+  <si>
+    <t>AdminWholesaleRevenueCreateView.vue</t>
+  </si>
+  <si>
+    <t>AdminWholesaleRevenueView.vue</t>
+  </si>
+  <si>
+    <t>RegisterUser.vue</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+  </si>
+  <si>
+    <t>거래처 관리</t>
+  </si>
+  <si>
+    <t>업체 관리</t>
+  </si>
+  <si>
+    <t>매출 관리</t>
+  </si>
+  <si>
+    <t>실적 관리</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산내역서 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미승인 업체 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인 업체 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당업체 지정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문전약국 지정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대매뉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중메뉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>clients</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>clients-companies (modal)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminClientsAssignCompaniesView.vue</t>
-  </si>
-  <si>
-    <t>AdminClientsAssignPharmaciesView.vue</t>
-  </si>
-  <si>
-    <t>AdminClientsCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminClientsDetailView.vue</t>
-  </si>
-  <si>
-    <t>AdminClientsEditView.vue</t>
-  </si>
-  <si>
-    <t>AdminClientsView.vue</t>
-  </si>
-  <si>
-    <t>AdminCompaniesApprovedView.vue</t>
-  </si>
-  <si>
-    <t>AdminCompaniesPendingView.vue</t>
-  </si>
-  <si>
-    <t>AdminCompanyCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminCompanyDetailView.vue</t>
-  </si>
-  <si>
-    <t>AdminCompanyEditView.vue</t>
-  </si>
-  <si>
-    <t>AdminDirectRevenueCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminDirectRevenueView.vue</t>
-  </si>
-  <si>
-    <t>AdminNoticeCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminNoticeDetailView.vue</t>
-  </si>
-  <si>
-    <t>AdminNoticeEditView.vue</t>
-  </si>
-  <si>
-    <t>AdminNoticesView.vue</t>
-  </si>
-  <si>
-    <t>AdminPerformanceInputView.vue</t>
-  </si>
-  <si>
-    <t>AdminPerformanceView.vue</t>
-  </si>
-  <si>
-    <t>AdminPerformanceViewView.vue</t>
-  </si>
-  <si>
-    <t>AdminPharmaciesCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminPharmaciesDetailView.vue</t>
-  </si>
-  <si>
-    <t>AdminPharmaciesEditView.vue</t>
-  </si>
-  <si>
-    <t>AdminPharmaciesView.vue</t>
-  </si>
-  <si>
-    <t>AdminProductCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminProductDetailView.vue</t>
-  </si>
-  <si>
-    <t>AdminProductEditView.vue</t>
-  </si>
-  <si>
-    <t>AdminProductsView.vue</t>
-  </si>
-  <si>
-    <t>AdminSettlementMonthView.vue</t>
-  </si>
-  <si>
-    <t>AdminSettlementStatementsView.vue</t>
-  </si>
-  <si>
-    <t>AdminWholesaleRevenueCreateView.vue</t>
-  </si>
-  <si>
-    <t>AdminWholesaleRevenueView.vue</t>
-  </si>
-  <si>
-    <t>RegisterUser.vue</t>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 관리</t>
-  </si>
-  <si>
-    <t>거래처 관리</t>
-  </si>
-  <si>
-    <t>업체 관리</t>
-  </si>
-  <si>
-    <t>매출 관리</t>
-  </si>
-  <si>
-    <t>실적 관리</t>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정산내역서 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래처 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당업체 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문전약국 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대매뉴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중메뉴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
+    <t>약국코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmacies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clients-companies / clients-pharmacies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방수량합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방액합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교 정형외과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후시딘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선택  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국매출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 메뉴 집입시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 제출 기간이 아닙니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 선택 불가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택하면 자동으로 창 닫히기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 디폴트 : 정산월 - 1월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후시딘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후시당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후시시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제일후시캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 보험코드를 입력해도 제품명으로 보여주기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>∧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 제품목록에서 불러오기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약가 X 처방수량 계산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘이 제출기간이고 활성화된 정산월이 있으면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘이 제출기간이 아니거나 활성화된 정산월이 없으면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방월 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시작 : 제품 선택 - 제품명 또는 보험코드 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방 수량 입력 : 처방액 자동 계산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방 구분 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방구분까지 해서 한 행이라도 완성되면 등록 버튼 활성화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후부터 이동은 엔터 누를때마다 제품명 -&gt; 처방수량 -&gt; 다음 행 제품명 -&gt; 처방수량 -&gt; 다다음 행..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방구분은 변경하기 전까진 위의 행 값을 그대로 가져옴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고는 키보드 화살표 또는 마우스 클릭으로 선택해 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 누르면 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 내역은실적관리 &gt; 등록 현황에서 확인 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적 입력 가능 기간인 정산월의 데이터는 수정 및 삭제 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다라정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마바정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사아정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌구 저쩌구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 삭제 -&gt; 삭제하시겠습니까? 확인 / 취소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 추가 -&gt; 누른 아래에 빈 행 삽입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 드래그로 순서 변경 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-02 ~ 2025-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제품명                                 보험코드                                 약가                                 ...                               </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적 등록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1901,7 +2277,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,6 +2628,94 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2898,7 +3366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3448,6 +3916,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3562,7 +4042,238 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4145,9 +4856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N114"/>
+  <dimension ref="A2:N135"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4213,7 +4926,7 @@
       <c r="A5" s="103">
         <v>1</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="187" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -4251,7 +4964,7 @@
       <c r="A6" s="103">
         <v>1</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -4285,7 +4998,7 @@
       <c r="A7" s="103">
         <v>1</v>
       </c>
-      <c r="B7" s="185"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -4313,7 +5026,7 @@
       <c r="A8" s="103">
         <v>2</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="190" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -4353,7 +5066,7 @@
       <c r="A9" s="103">
         <v>2</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="188"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +5104,7 @@
       <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="184"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -4429,7 +5142,7 @@
       <c r="A11" s="103">
         <v>2</v>
       </c>
-      <c r="B11" s="184"/>
+      <c r="B11" s="188"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -4467,7 +5180,7 @@
       <c r="A12" s="103">
         <v>2</v>
       </c>
-      <c r="B12" s="184"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -4499,7 +5212,7 @@
       <c r="A13" s="103">
         <v>2</v>
       </c>
-      <c r="B13" s="184"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -4535,7 +5248,7 @@
       <c r="A14" s="103">
         <v>2</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -4571,7 +5284,7 @@
       <c r="A15" s="103">
         <v>2</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -4603,7 +5316,7 @@
       <c r="A16" s="103">
         <v>2</v>
       </c>
-      <c r="B16" s="187"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -4635,7 +5348,7 @@
       <c r="A17" s="103">
         <v>3</v>
       </c>
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="187" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -4669,7 +5382,7 @@
       <c r="A18" s="103">
         <v>3</v>
       </c>
-      <c r="B18" s="184"/>
+      <c r="B18" s="188"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -4699,7 +5412,7 @@
       <c r="A19" s="103">
         <v>3</v>
       </c>
-      <c r="B19" s="184"/>
+      <c r="B19" s="188"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -4731,7 +5444,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="103"/>
-      <c r="B20" s="184"/>
+      <c r="B20" s="188"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -4755,7 +5468,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="184"/>
+      <c r="B21" s="188"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -4783,7 +5496,7 @@
       <c r="A22" s="103">
         <v>3</v>
       </c>
-      <c r="B22" s="184"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -4813,7 +5526,7 @@
       <c r="A23" s="103">
         <v>3</v>
       </c>
-      <c r="B23" s="187"/>
+      <c r="B23" s="191"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -4841,7 +5554,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="103"/>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="192" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -4863,7 +5576,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="103"/>
-      <c r="B25" s="189"/>
+      <c r="B25" s="193"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -4885,7 +5598,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="103"/>
-      <c r="B26" s="190"/>
+      <c r="B26" s="194"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -5179,12 +5892,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="15" customHeight="1">
+    <row r="66" spans="3:7" ht="15" customHeight="1">
       <c r="C66" s="55" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="15" customHeight="1">
+    <row r="68" spans="3:7" ht="15" customHeight="1">
       <c r="C68" s="86" t="s">
         <v>202</v>
       </c>
@@ -5196,7 +5909,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="15" customHeight="1">
+    <row r="69" spans="3:7" ht="15" customHeight="1">
       <c r="C69" s="73" t="s">
         <v>198</v>
       </c>
@@ -5205,7 +5918,7 @@
       </c>
       <c r="E69" s="44"/>
     </row>
-    <row r="70" spans="3:5" ht="15" customHeight="1">
+    <row r="70" spans="3:7" ht="15" customHeight="1">
       <c r="C70" s="73" t="s">
         <v>64</v>
       </c>
@@ -5213,7 +5926,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="15" customHeight="1">
+    <row r="71" spans="3:7" ht="15" customHeight="1">
       <c r="C71" s="73" t="s">
         <v>60</v>
       </c>
@@ -5221,7 +5934,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="15" customHeight="1">
+    <row r="72" spans="3:7" ht="15" customHeight="1">
       <c r="C72" s="64" t="s">
         <v>317</v>
       </c>
@@ -5229,7 +5942,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="73" spans="3:5" ht="15" customHeight="1">
+    <row r="73" spans="3:7" ht="15" customHeight="1">
       <c r="C73" s="64" t="s">
         <v>318</v>
       </c>
@@ -5237,7 +5950,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="15" customHeight="1">
+    <row r="74" spans="3:7" ht="15" customHeight="1">
       <c r="C74" s="64" t="s">
         <v>319</v>
       </c>
@@ -5245,7 +5958,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="15" customHeight="1">
+    <row r="75" spans="3:7" ht="15" customHeight="1">
       <c r="C75" s="64" t="s">
         <v>321</v>
       </c>
@@ -5253,7 +5966,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="15" customHeight="1">
+    <row r="76" spans="3:7" ht="15" customHeight="1">
       <c r="C76" s="64" t="s">
         <v>322</v>
       </c>
@@ -5261,7 +5974,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="15" customHeight="1">
+    <row r="77" spans="3:7" ht="15" customHeight="1">
       <c r="C77" s="64" t="s">
         <v>320</v>
       </c>
@@ -5269,15 +5982,16 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="15" customHeight="1">
+    <row r="79" spans="3:7" ht="15" customHeight="1">
       <c r="C79" s="55" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" ht="15" customHeight="1">
+      <c r="G79" s="44"/>
+    </row>
+    <row r="80" spans="3:7" ht="15" customHeight="1">
       <c r="C80" s="55"/>
     </row>
-    <row r="81" spans="3:5" ht="15" customHeight="1">
+    <row r="81" spans="3:9" ht="15" customHeight="1">
       <c r="C81" s="86" t="s">
         <v>202</v>
       </c>
@@ -5288,104 +6002,192 @@
         <f>SUM(D82:D92)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="82" spans="3:5" ht="15" customHeight="1">
+      <c r="G81" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="I81" s="170">
+        <f>SUM(H82:H92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="15" customHeight="1">
       <c r="C82" s="73" t="s">
         <v>341</v>
       </c>
       <c r="D82" s="128" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="83" spans="3:5" ht="15" customHeight="1">
+      <c r="G82" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="H82" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="3:9" ht="15" customHeight="1">
       <c r="C83" s="73" t="s">
         <v>342</v>
       </c>
       <c r="D83" s="128">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="84" spans="3:5" ht="15" customHeight="1">
+      <c r="G83" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="H83" s="128">
+        <v>0.18</v>
+      </c>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="3:9" ht="15" customHeight="1">
       <c r="C84" s="73" t="s">
         <v>343</v>
       </c>
       <c r="D84" s="128">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" ht="15" customHeight="1">
+      <c r="G84" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="H84" s="128">
+        <v>0.1</v>
+      </c>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="3:9" ht="15" customHeight="1">
       <c r="C85" s="64" t="s">
         <v>344</v>
       </c>
       <c r="D85" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="86" spans="3:5" ht="15" customHeight="1">
+      <c r="G85" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" s="129">
+        <v>0.08</v>
+      </c>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="3:9" ht="15" customHeight="1">
       <c r="C86" s="64" t="s">
         <v>345</v>
       </c>
       <c r="D86" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" ht="15" customHeight="1">
+      <c r="G86" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" s="129">
+        <v>0.08</v>
+      </c>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="3:9" ht="15" customHeight="1">
       <c r="C87" s="64" t="s">
         <v>346</v>
       </c>
       <c r="D87" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="88" spans="3:5" ht="15" customHeight="1">
+      <c r="G87" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="H87" s="129">
+        <v>0.08</v>
+      </c>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="3:9" ht="15" customHeight="1">
       <c r="C88" s="64" t="s">
         <v>347</v>
       </c>
       <c r="D88" s="129">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="89" spans="3:5" ht="15" customHeight="1">
+      <c r="G88" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" s="129">
+        <v>0.12</v>
+      </c>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="3:9" ht="15" customHeight="1">
       <c r="C89" s="64" t="s">
         <v>348</v>
       </c>
       <c r="D89" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" ht="15" customHeight="1">
+      <c r="G89" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H89" s="129">
+        <v>0.1</v>
+      </c>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="3:9" ht="15" customHeight="1">
       <c r="C90" s="64" t="s">
         <v>349</v>
       </c>
       <c r="D90" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" ht="15" customHeight="1">
+      <c r="G90" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="H90" s="129">
+        <v>0.1</v>
+      </c>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="3:9" ht="15" customHeight="1">
       <c r="C91" s="73" t="s">
         <v>203</v>
       </c>
       <c r="D91" s="129">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="92" spans="3:5" ht="15" customHeight="1">
+      <c r="G91" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="129">
+        <v>0.16</v>
+      </c>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="3:9" ht="15" customHeight="1">
       <c r="C92" s="73" t="s">
         <v>350</v>
       </c>
       <c r="D92" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="94" spans="3:5" ht="15" customHeight="1">
+      <c r="G92" s="186" t="s">
+        <v>350</v>
+      </c>
+      <c r="H92" s="129"/>
+    </row>
+    <row r="94" spans="3:9" ht="15" customHeight="1">
       <c r="C94" s="55" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" ht="15" customHeight="1">
+        <v>470</v>
+      </c>
+      <c r="G94" s="55"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="3:9" ht="15" customHeight="1">
       <c r="C95" s="55"/>
-    </row>
-    <row r="96" spans="3:5" ht="15" customHeight="1">
+      <c r="G95" s="55"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="3:9" ht="15" customHeight="1">
       <c r="C96" s="86" t="s">
         <v>202</v>
       </c>
@@ -5393,137 +6195,332 @@
         <v>292</v>
       </c>
       <c r="E96" s="170">
-        <f>SUM(D97:D105)</f>
+        <f>SUM(D97:D103)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" ht="15" customHeight="1">
+      <c r="G96" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="I96" s="170">
+        <f>SUM(H97:H103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="15" customHeight="1">
       <c r="C97" s="73" t="s">
         <v>398</v>
       </c>
       <c r="D97" s="128">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" ht="15" customHeight="1">
+      <c r="G97" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="H97" s="128">
+        <v>0.08</v>
+      </c>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="3:9" ht="15" customHeight="1">
       <c r="C98" s="73" t="s">
         <v>399</v>
       </c>
       <c r="D98" s="128">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" ht="15" customHeight="1">
+        <v>0.16</v>
+      </c>
+      <c r="G98" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="H98" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="3:9" ht="15" customHeight="1">
       <c r="C99" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D99" s="128">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="100" spans="3:5" ht="15" customHeight="1">
+      <c r="G99" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="128">
+        <v>0.08</v>
+      </c>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="3:9" ht="15" customHeight="1">
       <c r="C100" s="64" t="s">
         <v>400</v>
       </c>
       <c r="D100" s="129">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="101" spans="3:5" ht="15" customHeight="1">
+      <c r="G100" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="H100" s="129">
+        <v>0.08</v>
+      </c>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="3:9" ht="15" customHeight="1">
       <c r="C101" s="64" t="s">
         <v>401</v>
       </c>
       <c r="D101" s="129">
+        <v>0.36</v>
+      </c>
+      <c r="G101" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="H101" s="129">
+        <v>0.4</v>
+      </c>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="3:9" ht="15" customHeight="1">
+      <c r="C102" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D102" s="129">
+        <v>0.16</v>
+      </c>
+      <c r="G102" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="H102" s="129">
+        <v>0.16</v>
+      </c>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="3:9" ht="15" customHeight="1">
+      <c r="C103" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="129">
+        <v>0.08</v>
+      </c>
+      <c r="G103" s="186" t="s">
+        <v>350</v>
+      </c>
+      <c r="H103" s="129"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="105" spans="3:9" ht="15" customHeight="1">
+      <c r="C105" s="55" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="15" customHeight="1">
+      <c r="C106" s="55"/>
+    </row>
+    <row r="107" spans="3:9" ht="15" customHeight="1">
+      <c r="C107" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" s="170">
+        <f>SUM(D108:D113)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" ht="15" customHeight="1">
+      <c r="C108" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="D108" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" ht="15" customHeight="1">
+      <c r="C109" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="D109" s="128">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" ht="15" customHeight="1">
+      <c r="C110" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" ht="15" customHeight="1">
+      <c r="C111" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" s="129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" ht="15" customHeight="1">
+      <c r="C112" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D112" s="129">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" ht="15" customHeight="1">
+      <c r="C113" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="D113" s="129">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" ht="15" customHeight="1">
+      <c r="C116" s="55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" ht="15" customHeight="1">
+      <c r="C117" s="55"/>
+    </row>
+    <row r="118" spans="3:5" ht="15" customHeight="1">
+      <c r="C118" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="170">
+        <f>SUM(D119:D126)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" ht="15" customHeight="1">
+      <c r="C119" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="D119" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" ht="15" customHeight="1">
+      <c r="C120" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="128">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" ht="15" customHeight="1">
+      <c r="C121" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" ht="15" customHeight="1">
+      <c r="C122" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="129">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" ht="15" customHeight="1">
+      <c r="C123" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="129">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="3:5" ht="15" customHeight="1">
-      <c r="C102" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="D102" s="129"/>
-    </row>
-    <row r="103" spans="3:5" ht="15" customHeight="1">
-      <c r="C103" s="64" t="s">
+    <row r="124" spans="3:5" ht="15" customHeight="1">
+      <c r="C124" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="129">
+      <c r="D124" s="129">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:5" ht="15" customHeight="1">
-      <c r="C104" s="64" t="s">
+    <row r="125" spans="3:5" ht="15" customHeight="1">
+      <c r="C125" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="D104" s="129">
+      <c r="D125" s="129">
         <v>0.08</v>
       </c>
     </row>
-    <row r="105" spans="3:5" ht="15" customHeight="1">
-      <c r="C105" s="73" t="s">
+    <row r="126" spans="3:5" ht="15" customHeight="1">
+      <c r="C126" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="D105" s="129">
+      <c r="D126" s="129">
         <v>0.12</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E126" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="3:5" ht="15" customHeight="1">
-      <c r="C107" s="55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" ht="15" customHeight="1">
-      <c r="C109" s="86" t="s">
+    <row r="128" spans="3:5" ht="15" customHeight="1">
+      <c r="C128" s="55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" ht="15" customHeight="1">
+      <c r="C130" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="D109" s="86" t="s">
+      <c r="D130" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="E109" s="170">
-        <f>SUM(D110:D114)</f>
+      <c r="E130" s="170">
+        <f>SUM(D131:D135)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:5" ht="15" customHeight="1">
-      <c r="C110" s="73" t="s">
+    <row r="131" spans="3:5" ht="15" customHeight="1">
+      <c r="C131" s="73" t="s">
         <v>405</v>
       </c>
-      <c r="D110" s="128">
+      <c r="D131" s="128">
         <v>0.06</v>
       </c>
     </row>
-    <row r="111" spans="3:5" ht="15" customHeight="1">
-      <c r="C111" s="73" t="s">
+    <row r="132" spans="3:5" ht="15" customHeight="1">
+      <c r="C132" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="D111" s="128">
+      <c r="D132" s="128">
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="3:5" ht="15" customHeight="1">
-      <c r="C112" s="73" t="s">
+    <row r="133" spans="3:5" ht="15" customHeight="1">
+      <c r="C133" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="128">
+      <c r="D133" s="128">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="113" spans="3:4" ht="15" customHeight="1">
-      <c r="C113" s="64" t="s">
+    <row r="134" spans="3:5" ht="15" customHeight="1">
+      <c r="C134" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="129">
+      <c r="D134" s="129">
         <v>0.12</v>
       </c>
     </row>
-    <row r="114" spans="3:4" ht="15" customHeight="1">
-      <c r="C114" s="64" t="s">
+    <row r="135" spans="3:5" ht="15" customHeight="1">
+      <c r="C135" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="D114" s="129">
+      <c r="D135" s="129">
         <v>0.48</v>
       </c>
     </row>
@@ -5541,6 +6538,668 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="118" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="118" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B3" s="106"/>
+      <c r="C3" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="115"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="108"/>
+      <c r="C5" s="123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="105"/>
+      <c r="F5" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="105"/>
+      <c r="H5" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="110"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="108"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="110"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="108"/>
+      <c r="C8" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="105"/>
+      <c r="F8" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="105"/>
+      <c r="H8" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" s="105"/>
+      <c r="J8" s="110"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="205"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="105"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="105"/>
+      <c r="H12" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="105"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="105"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="108"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="110"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="108"/>
+      <c r="C17" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="105"/>
+      <c r="J17" s="110"/>
+    </row>
+    <row r="18" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="110"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+    </row>
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="116"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+    </row>
+    <row r="22" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+    </row>
+    <row r="23" spans="2:10" ht="24" customHeight="1">
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="116"/>
+      <c r="I23" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="J23" s="110"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="111"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="112"/>
+    </row>
+    <row r="30" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B30" s="106"/>
+      <c r="C30" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="108"/>
+      <c r="C32" s="123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="105"/>
+      <c r="F32" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="105"/>
+      <c r="H32" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="I32" s="105"/>
+      <c r="J32" s="110"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="108"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="110"/>
+    </row>
+    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+    </row>
+    <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="108"/>
+      <c r="C35" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="105"/>
+      <c r="F35" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="105"/>
+      <c r="H35" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="105"/>
+      <c r="J35" s="110"/>
+    </row>
+    <row r="36" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="110"/>
+    </row>
+    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="205"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="105"/>
+      <c r="J37" s="110"/>
+    </row>
+    <row r="38" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B38" s="108"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="110"/>
+    </row>
+    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="108"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="105"/>
+      <c r="F39" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="105"/>
+      <c r="H39" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="105"/>
+      <c r="J39" s="110"/>
+    </row>
+    <row r="40" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
+    </row>
+    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
+    </row>
+    <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="108"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="110"/>
+    </row>
+    <row r="43" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="108"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="110"/>
+    </row>
+    <row r="44" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="108"/>
+      <c r="C44" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="105"/>
+      <c r="F44" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="H44" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="I44" s="105"/>
+      <c r="J44" s="110"/>
+    </row>
+    <row r="45" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
+    </row>
+    <row r="46" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="108"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="205"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="110"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
+    </row>
+    <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="116"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="110"/>
+    </row>
+    <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="108"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="110"/>
+    </row>
+    <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="108"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110"/>
+    </row>
+    <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="108"/>
+      <c r="C51" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="124" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" s="105"/>
+      <c r="F51" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" s="105"/>
+      <c r="J51" s="110"/>
+    </row>
+    <row r="52" spans="2:10" ht="27.95" customHeight="1">
+      <c r="B52" s="108"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
+    </row>
+    <row r="53" spans="2:10" ht="24" customHeight="1">
+      <c r="B53" s="108"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="H53" s="116"/>
+      <c r="I53" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="J53" s="110"/>
+    </row>
+    <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="111"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E46:I46"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC22"/>
   <sheetViews>
@@ -5733,14 +7392,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -5810,10 +7469,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="195" t="s">
+      <c r="AP13" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="195"/>
+      <c r="AQ13" s="199"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -6013,7 +7672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC70"/>
   <sheetViews>
@@ -6196,14 +7855,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -6273,10 +7932,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="195" t="s">
+      <c r="AP13" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="195"/>
+      <c r="AQ13" s="199"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -6374,7 +8033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
@@ -6544,10 +8203,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6617,10 +8276,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="195" t="s">
+      <c r="AR13" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="195"/>
+      <c r="AS13" s="199"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -6655,7 +8314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
@@ -6836,18 +8495,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="206" t="s">
+      <c r="AM11" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="207"/>
-      <c r="AP11" s="206" t="s">
+      <c r="AN11" s="211"/>
+      <c r="AP11" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -6968,18 +8627,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="208" t="s">
+      <c r="S16" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="209"/>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="209"/>
-      <c r="AB16" s="210"/>
+      <c r="T16" s="213"/>
+      <c r="U16" s="213"/>
+      <c r="V16" s="213"/>
+      <c r="W16" s="213"/>
+      <c r="X16" s="213"/>
+      <c r="Y16" s="213"/>
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="214"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -7179,15 +8838,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="211" t="s">
+      <c r="W27" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="212"/>
+      <c r="X27" s="216"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="206" t="s">
+      <c r="Z27" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="207"/>
+      <c r="AA27" s="211"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -7230,7 +8889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -7413,14 +9072,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7573,20 +9232,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="213" t="s">
+      <c r="Z19" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="214"/>
-      <c r="AF19" s="214"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="214"/>
-      <c r="AJ19" s="214"/>
-      <c r="AK19" s="215"/>
+      <c r="AA19" s="218"/>
+      <c r="AB19" s="218"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="218"/>
+      <c r="AE19" s="218"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="218"/>
+      <c r="AH19" s="218"/>
+      <c r="AI19" s="218"/>
+      <c r="AJ19" s="218"/>
+      <c r="AK19" s="219"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -7717,10 +9376,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="211" t="s">
+      <c r="AI26" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="212"/>
+      <c r="AJ26" s="216"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -7749,7 +9408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
@@ -7932,14 +9591,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8082,18 +9741,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="208" t="s">
+      <c r="F17" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="210"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="214"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -8113,34 +9772,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="213" t="s">
+      <c r="R18" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="215"/>
-      <c r="AF18" s="213" t="s">
+      <c r="S18" s="218"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="218"/>
+      <c r="V18" s="218"/>
+      <c r="W18" s="218"/>
+      <c r="X18" s="218"/>
+      <c r="Y18" s="218"/>
+      <c r="Z18" s="218"/>
+      <c r="AA18" s="218"/>
+      <c r="AB18" s="218"/>
+      <c r="AC18" s="219"/>
+      <c r="AF18" s="217" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="214"/>
-      <c r="AJ18" s="214"/>
-      <c r="AK18" s="214"/>
-      <c r="AL18" s="214"/>
-      <c r="AM18" s="214"/>
-      <c r="AN18" s="214"/>
-      <c r="AO18" s="214"/>
-      <c r="AP18" s="214"/>
-      <c r="AQ18" s="215"/>
+      <c r="AG18" s="218"/>
+      <c r="AH18" s="218"/>
+      <c r="AI18" s="218"/>
+      <c r="AJ18" s="218"/>
+      <c r="AK18" s="218"/>
+      <c r="AL18" s="218"/>
+      <c r="AM18" s="218"/>
+      <c r="AN18" s="218"/>
+      <c r="AO18" s="218"/>
+      <c r="AP18" s="218"/>
+      <c r="AQ18" s="219"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -8507,15 +10166,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="211" t="s">
+      <c r="X27" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="212"/>
+      <c r="Y27" s="216"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="206" t="s">
+      <c r="AA27" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="207"/>
+      <c r="AB27" s="211"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -8523,15 +10182,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="211" t="s">
+      <c r="AL27" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="212"/>
+      <c r="AM27" s="216"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="206" t="s">
+      <c r="AO27" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="207"/>
+      <c r="AP27" s="211"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -8539,15 +10198,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="211" t="s">
+      <c r="J28" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="212"/>
+      <c r="K28" s="216"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="206" t="s">
+      <c r="M28" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="207"/>
+      <c r="N28" s="211"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -8583,10 +10242,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="216" t="s">
+      <c r="M29" s="220" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="216"/>
+      <c r="N29" s="220"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -8883,7 +10542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -9066,14 +10725,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9284,20 +10943,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="213" t="s">
+      <c r="S20" s="217" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="215"/>
+      <c r="T20" s="218"/>
+      <c r="U20" s="218"/>
+      <c r="V20" s="218"/>
+      <c r="W20" s="218"/>
+      <c r="X20" s="218"/>
+      <c r="Y20" s="218"/>
+      <c r="Z20" s="218"/>
+      <c r="AA20" s="218"/>
+      <c r="AB20" s="218"/>
+      <c r="AC20" s="218"/>
+      <c r="AD20" s="219"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -9427,10 +11086,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="211" t="s">
+      <c r="AB26" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="212"/>
+      <c r="AC26" s="216"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -9459,7 +11118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -9642,14 +11301,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9776,18 +11435,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="217" t="s">
+      <c r="S16" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="218"/>
-      <c r="U16" s="218"/>
-      <c r="V16" s="218"/>
-      <c r="W16" s="218"/>
-      <c r="X16" s="218"/>
-      <c r="Y16" s="218"/>
-      <c r="Z16" s="218"/>
-      <c r="AA16" s="218"/>
-      <c r="AB16" s="219"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="223"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -9924,15 +11583,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="211" t="s">
+      <c r="W24" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="212"/>
+      <c r="X24" s="216"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="206" t="s">
+      <c r="Z24" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="207"/>
+      <c r="AA24" s="211"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -9974,7 +11633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
@@ -10155,14 +11814,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="206" t="s">
+      <c r="AP11" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="207"/>
-      <c r="AS11" s="204" t="s">
+      <c r="AQ11" s="211"/>
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10362,7 +12021,566 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="185"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="185" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="185" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="185" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" s="185" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="185" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="185" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" s="185" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="185" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="185" t="s">
+        <v>455</v>
+      </c>
+      <c r="H6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="185" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" s="185" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" s="185" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" s="185" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="185" t="s">
+        <v>454</v>
+      </c>
+      <c r="H11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="185" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="185" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="185" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="185" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>445</v>
+      </c>
+      <c r="F16" s="185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F17" s="185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="185" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="185" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" s="185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>446</v>
+      </c>
+      <c r="F24" s="185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="185" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="185" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>451</v>
+      </c>
+      <c r="F28" s="185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="185" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" t="s">
+        <v>467</v>
+      </c>
+      <c r="F30" s="185" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>448</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="185" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="185" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -10536,10 +12754,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="204" t="s">
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10660,560 +12878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="221"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="221" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="221" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="221" t="s">
-        <v>465</v>
-      </c>
-      <c r="E2" s="221" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" s="221" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="221" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="221" t="s">
-        <v>462</v>
-      </c>
-      <c r="H4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="221" t="s">
-        <v>455</v>
-      </c>
-      <c r="H5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E6" t="s">
-        <v>454</v>
-      </c>
-      <c r="F6" s="221" t="s">
-        <v>456</v>
-      </c>
-      <c r="H6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7" s="221" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F8" s="221" t="s">
-        <v>457</v>
-      </c>
-      <c r="H8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" t="s">
-        <v>459</v>
-      </c>
-      <c r="F9" s="221" t="s">
-        <v>457</v>
-      </c>
-      <c r="H9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F10" s="221" t="s">
-        <v>457</v>
-      </c>
-      <c r="H10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F11" s="221" t="s">
-        <v>455</v>
-      </c>
-      <c r="H11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" s="221" t="s">
-        <v>456</v>
-      </c>
-      <c r="H12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>448</v>
-      </c>
-      <c r="F13" s="221" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" t="s">
-        <v>449</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="221" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="221" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" t="s">
-        <v>446</v>
-      </c>
-      <c r="F16" s="221" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" t="s">
-        <v>446</v>
-      </c>
-      <c r="F17" s="221" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" t="s">
-        <v>446</v>
-      </c>
-      <c r="F18" s="221" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" t="s">
-        <v>446</v>
-      </c>
-      <c r="F19" s="221" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>430</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>432</v>
-      </c>
-      <c r="C23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F23" s="221" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" t="s">
-        <v>447</v>
-      </c>
-      <c r="F24" s="221" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>434</v>
-      </c>
-      <c r="C25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" t="s">
-        <v>447</v>
-      </c>
-      <c r="F25" s="221" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" t="s">
-        <v>447</v>
-      </c>
-      <c r="F26" s="221" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>436</v>
-      </c>
-      <c r="C27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="221" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>437</v>
-      </c>
-      <c r="C28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" t="s">
-        <v>452</v>
-      </c>
-      <c r="F28" s="221" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>438</v>
-      </c>
-      <c r="C29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" t="s">
-        <v>452</v>
-      </c>
-      <c r="F29" s="221" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>439</v>
-      </c>
-      <c r="C30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="221" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>440</v>
-      </c>
-      <c r="C31" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>441</v>
-      </c>
-      <c r="C32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>442</v>
-      </c>
-      <c r="C33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" t="s">
-        <v>449</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="221" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>443</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" t="s">
-        <v>449</v>
-      </c>
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="221" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -11387,10 +13052,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="204" t="s">
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -11511,7 +13176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT14"/>
   <sheetViews>
@@ -11671,10 +13336,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="204" t="s">
+      <c r="AS11" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="205"/>
+      <c r="AT11" s="209"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -11809,7 +13474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
@@ -12246,16 +13911,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="220" t="s">
+      <c r="Q24" s="224" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="220"/>
-      <c r="S24" s="220"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="220" t="s">
+      <c r="U24" s="224" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="220"/>
+      <c r="V24" s="224"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -12293,39 +13958,39 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="191" t="s">
+      <c r="E4" s="195" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="191"/>
-      <c r="AE4" s="191"/>
-      <c r="AF4" s="191"/>
-      <c r="AG4" s="191"/>
-      <c r="AH4" s="191"/>
-      <c r="AI4" s="191"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+      <c r="AD4" s="195"/>
+      <c r="AE4" s="195"/>
+      <c r="AF4" s="195"/>
+      <c r="AG4" s="195"/>
+      <c r="AH4" s="195"/>
+      <c r="AI4" s="195"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1">
       <c r="E5" s="142"/>
@@ -13245,17 +14910,17 @@
       <c r="Y31" s="132"/>
       <c r="Z31" s="132"/>
       <c r="AA31" s="132"/>
-      <c r="AB31" s="192" t="s">
+      <c r="AB31" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="AC31" s="192"/>
-      <c r="AD31" s="192"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="196"/>
       <c r="AE31" s="132"/>
-      <c r="AF31" s="193" t="s">
+      <c r="AF31" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="AG31" s="194"/>
-      <c r="AH31" s="194"/>
+      <c r="AG31" s="198"/>
+      <c r="AH31" s="198"/>
       <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1">
@@ -13303,6 +14968,1765 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AE234"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="10" width="11.625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="9" style="3"/>
+    <col min="14" max="15" width="4.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="3" customWidth="1"/>
+    <col min="19" max="21" width="16.625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="6.625" style="3" customWidth="1"/>
+    <col min="23" max="24" width="16.625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.625" style="3" customWidth="1"/>
+    <col min="27" max="28" width="9" style="3"/>
+    <col min="29" max="29" width="16.625" style="3" customWidth="1"/>
+    <col min="30" max="31" width="4.625" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D3" s="55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D5" s="24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D8" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H8" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I8" s="220"/>
+      <c r="J8" s="228"/>
+    </row>
+    <row r="10" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D10" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E10" s="226" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="245" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D12" s="246" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="19"/>
+      <c r="J12" s="235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D14" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I14" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D23" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="240">
+        <f>SUM(G15:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="240">
+        <f>SUM(H15:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="26" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D26" s="24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D29" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G29" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H29" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I29" s="220"/>
+      <c r="J29" s="228"/>
+    </row>
+    <row r="31" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D31" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E31" s="226" t="s">
+        <v>487</v>
+      </c>
+      <c r="F31" s="245"/>
+    </row>
+    <row r="33" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D33" s="246" t="s">
+        <v>491</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="245" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D35" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E35" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G35" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H35" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I35" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J35" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D39" s="247" t="s">
+        <v>498</v>
+      </c>
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="247"/>
+      <c r="H39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+    </row>
+    <row r="44" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D44" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="240">
+        <f>SUM(G36:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="240">
+        <f>SUM(H36:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D47" s="24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+    </row>
+    <row r="50" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D50" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E50" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G50" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H50" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I50" s="220"/>
+      <c r="J50" s="228"/>
+    </row>
+    <row r="52" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D52" s="275" t="s">
+        <v>486</v>
+      </c>
+      <c r="E52" s="262" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D53" s="278" t="s">
+        <v>517</v>
+      </c>
+      <c r="E53" s="277">
+        <v>2025</v>
+      </c>
+      <c r="F53" s="279" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D54" s="280" t="s">
+        <v>518</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="J54" s="235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D55" s="280" t="s">
+        <v>521</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D56" s="280" t="s">
+        <v>522</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="G56" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H56" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I56" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D57" s="281" t="s">
+        <v>523</v>
+      </c>
+      <c r="E57" s="282" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57" s="283" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D65" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="240">
+        <f>SUM(G57:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="240">
+        <f>SUM(H57:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D68" s="24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+    </row>
+    <row r="71" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D71" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E71" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H71" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I71" s="220"/>
+      <c r="J71" s="228"/>
+    </row>
+    <row r="73" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D73" s="250" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="254"/>
+      <c r="F73" s="255"/>
+      <c r="G73" s="263" t="s">
+        <v>491</v>
+      </c>
+      <c r="H73" s="255"/>
+      <c r="I73" s="252" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E74" s="256"/>
+      <c r="F74" s="257"/>
+      <c r="G74" s="264"/>
+      <c r="H74" s="257"/>
+      <c r="I74" s="253"/>
+    </row>
+    <row r="75" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D75" s="243" t="s">
+        <v>491</v>
+      </c>
+      <c r="E75" s="268"/>
+      <c r="F75" s="257"/>
+      <c r="G75" s="257"/>
+      <c r="H75" s="257"/>
+      <c r="I75" s="258"/>
+      <c r="J75" s="251" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E76" s="265" t="s">
+        <v>501</v>
+      </c>
+      <c r="F76" s="266" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="266" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="266" t="s">
+        <v>502</v>
+      </c>
+      <c r="I76" s="267"/>
+    </row>
+    <row r="77" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D77" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E77" s="256"/>
+      <c r="F77" s="257"/>
+      <c r="G77" s="257"/>
+      <c r="H77" s="257"/>
+      <c r="I77" s="258"/>
+      <c r="J77" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E78" s="269"/>
+      <c r="F78" s="270"/>
+      <c r="G78" s="272" t="s">
+        <v>503</v>
+      </c>
+      <c r="H78" s="270"/>
+      <c r="I78" s="271"/>
+    </row>
+    <row r="79" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E79" s="256"/>
+      <c r="F79" s="257"/>
+      <c r="G79" s="257"/>
+      <c r="H79" s="257"/>
+      <c r="I79" s="258"/>
+    </row>
+    <row r="80" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E80" s="256"/>
+      <c r="F80" s="257"/>
+      <c r="G80" s="257"/>
+      <c r="H80" s="257"/>
+      <c r="I80" s="258"/>
+    </row>
+    <row r="81" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D81" s="248"/>
+      <c r="E81" s="256"/>
+      <c r="F81" s="257"/>
+      <c r="G81" s="257"/>
+      <c r="H81" s="257"/>
+      <c r="I81" s="258"/>
+      <c r="J81" s="248"/>
+    </row>
+    <row r="82" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E82" s="256"/>
+      <c r="F82" s="257"/>
+      <c r="G82" s="257"/>
+      <c r="H82" s="257"/>
+      <c r="I82" s="258"/>
+    </row>
+    <row r="83" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E83" s="259"/>
+      <c r="F83" s="260"/>
+      <c r="G83" s="260"/>
+      <c r="H83" s="260"/>
+      <c r="I83" s="261"/>
+    </row>
+    <row r="86" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D86" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="240">
+        <f>SUM(G78:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="240">
+        <f>SUM(H78:H85)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="89" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D89" s="24" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+    </row>
+    <row r="92" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D92" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G92" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H92" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I92" s="220"/>
+      <c r="J92" s="228"/>
+    </row>
+    <row r="94" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D94" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E94" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D96" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="19"/>
+      <c r="J96" s="229" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D98" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E98" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F98" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G98" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H98" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I98" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J98" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D99" s="230" t="s">
+        <v>505</v>
+      </c>
+      <c r="E99" s="245" t="s">
+        <v>510</v>
+      </c>
+      <c r="F99" s="234"/>
+      <c r="G99" s="238" t="s">
+        <v>351</v>
+      </c>
+      <c r="H99" s="238" t="s">
+        <v>351</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D100" s="273" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D101" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D102" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D103" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D104" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D107" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="240">
+        <f>SUM(G99:G106)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="240">
+        <f>SUM(H99:H106)</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="110" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D110" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+    </row>
+    <row r="113" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D113" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G113" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H113" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I113" s="220"/>
+      <c r="J113" s="228"/>
+    </row>
+    <row r="115" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D115" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E115" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D117" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="E117" s="15"/>
+      <c r="F117" s="19"/>
+      <c r="J117" s="229" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D119" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E119" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F119" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G119" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H119" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I119" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J119" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D120" s="237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E120" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F120" s="234">
+        <v>100</v>
+      </c>
+      <c r="G120" s="233">
+        <v>100</v>
+      </c>
+      <c r="H120" s="232">
+        <f>F120*G120</f>
+        <v>10000</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E121" s="274" t="s">
+        <v>511</v>
+      </c>
+      <c r="F121" s="274" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10" ht="16.5" customHeight="1">
+      <c r="E122" s="245" t="s">
+        <v>512</v>
+      </c>
+      <c r="F122" s="245"/>
+    </row>
+    <row r="128" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D128" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="240">
+        <f>SUM(G120:G127)</f>
+        <v>100</v>
+      </c>
+      <c r="H128" s="240">
+        <f>SUM(H120:H127)</f>
+        <v>10000</v>
+      </c>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="4:10" ht="16.5" customHeight="1">
+      <c r="G129" s="274" t="s">
+        <v>511</v>
+      </c>
+      <c r="H129" s="274" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" ht="16.5" customHeight="1">
+      <c r="G130" s="284" t="s">
+        <v>533</v>
+      </c>
+      <c r="H130" s="284"/>
+    </row>
+    <row r="131" spans="4:10" ht="16.5" customHeight="1">
+      <c r="G131" s="249"/>
+      <c r="H131" s="249"/>
+    </row>
+    <row r="132" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D132" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="G132" s="245"/>
+      <c r="H132" s="245"/>
+    </row>
+    <row r="134" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+    </row>
+    <row r="135" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D135" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E135" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G135" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H135" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I135" s="220"/>
+      <c r="J135" s="228"/>
+    </row>
+    <row r="137" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D137" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E137" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D139" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="19"/>
+      <c r="J139" s="229" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10" ht="16.5" customHeight="1">
+      <c r="H140" s="245" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D141" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E141" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F141" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G141" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H141" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I141" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J141" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D142" s="237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F142" s="234">
+        <v>100</v>
+      </c>
+      <c r="G142" s="236">
+        <v>100</v>
+      </c>
+      <c r="H142" s="232">
+        <f>F142*G142</f>
+        <v>10000</v>
+      </c>
+      <c r="I142" s="242" t="s">
+        <v>494</v>
+      </c>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="4:10" ht="16.5" customHeight="1">
+      <c r="I143" s="239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10" ht="16.5" customHeight="1">
+      <c r="I144" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10" ht="16.5" customHeight="1">
+      <c r="I145" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D150" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="240">
+        <f>SUM(G142:G149)</f>
+        <v>100</v>
+      </c>
+      <c r="H150" s="240">
+        <f>SUM(H142:H149)</f>
+        <v>10000</v>
+      </c>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+    </row>
+    <row r="153" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D153" s="24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="36"/>
+    </row>
+    <row r="156" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D156" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E156" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G156" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H156" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I156" s="220"/>
+      <c r="J156" s="228"/>
+    </row>
+    <row r="158" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D158" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E158" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D160" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="E160" s="15"/>
+      <c r="F160" s="19"/>
+      <c r="J160" s="285" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D162" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E162" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F162" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G162" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H162" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I162" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J162" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D163" s="237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E163" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F163" s="234">
+        <v>100</v>
+      </c>
+      <c r="G163" s="236">
+        <v>100</v>
+      </c>
+      <c r="H163" s="232">
+        <f>F163*G163</f>
+        <v>10000</v>
+      </c>
+      <c r="I163" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D164" s="230"/>
+    </row>
+    <row r="166" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D166" s="286" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D167" s="286" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="168" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D168" s="286" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D171" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="240">
+        <f>SUM(G163:G170)</f>
+        <v>100</v>
+      </c>
+      <c r="H171" s="240">
+        <f>SUM(H163:H170)</f>
+        <v>10000</v>
+      </c>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+    </row>
+    <row r="174" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D174" s="24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+    </row>
+    <row r="177" spans="3:13" ht="16.5" customHeight="1">
+      <c r="D177" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E177" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G177" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H177" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I177" s="220"/>
+      <c r="J177" s="228"/>
+    </row>
+    <row r="179" spans="3:13" ht="16.5" customHeight="1">
+      <c r="D179" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E179" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="3:13" ht="16.5" customHeight="1">
+      <c r="D181" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="E181" s="15"/>
+      <c r="F181" s="19"/>
+      <c r="J181" s="285" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="183" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C183" s="183" t="s">
+        <v>552</v>
+      </c>
+      <c r="D183" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E183" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F183" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G183" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H183" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I183" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J183" s="183" t="s">
+        <v>322</v>
+      </c>
+      <c r="K183" s="183" t="s">
+        <v>547</v>
+      </c>
+      <c r="L183" s="183" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C184" s="288" t="s">
+        <v>552</v>
+      </c>
+      <c r="D184" s="237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E184" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F184" s="234">
+        <v>100</v>
+      </c>
+      <c r="G184" s="236">
+        <v>100</v>
+      </c>
+      <c r="H184" s="232">
+        <f>F184*G184</f>
+        <v>10000</v>
+      </c>
+      <c r="I184" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J184" s="9"/>
+      <c r="K184" s="287" t="s">
+        <v>548</v>
+      </c>
+      <c r="L184" s="288" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="185" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C185" s="288" t="s">
+        <v>552</v>
+      </c>
+      <c r="D185" s="237" t="s">
+        <v>542</v>
+      </c>
+      <c r="E185" s="3">
+        <v>123456790</v>
+      </c>
+      <c r="F185" s="234">
+        <v>80</v>
+      </c>
+      <c r="G185" s="236">
+        <v>200</v>
+      </c>
+      <c r="H185" s="232">
+        <f>F185*G185</f>
+        <v>16000</v>
+      </c>
+      <c r="I185" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J185" s="9"/>
+      <c r="K185" s="287" t="s">
+        <v>548</v>
+      </c>
+      <c r="L185" s="288" t="s">
+        <v>549</v>
+      </c>
+      <c r="M185" s="245" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C186" s="288" t="s">
+        <v>553</v>
+      </c>
+      <c r="D186" s="237" t="s">
+        <v>543</v>
+      </c>
+      <c r="E186" s="3">
+        <v>123456791</v>
+      </c>
+      <c r="F186" s="234">
+        <v>120</v>
+      </c>
+      <c r="G186" s="236">
+        <v>300</v>
+      </c>
+      <c r="H186" s="232">
+        <f>F186*G186</f>
+        <v>36000</v>
+      </c>
+      <c r="I186" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="K186" s="287" t="s">
+        <v>548</v>
+      </c>
+      <c r="L186" s="288" t="s">
+        <v>549</v>
+      </c>
+      <c r="M186" s="245" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="187" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C187" s="288" t="s">
+        <v>554</v>
+      </c>
+      <c r="D187" s="237" t="s">
+        <v>544</v>
+      </c>
+      <c r="E187" s="3">
+        <v>123456792</v>
+      </c>
+      <c r="F187" s="234">
+        <v>200</v>
+      </c>
+      <c r="G187" s="236">
+        <v>50</v>
+      </c>
+      <c r="H187" s="232">
+        <f>F187*G187</f>
+        <v>10000</v>
+      </c>
+      <c r="I187" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J187" s="9"/>
+      <c r="K187" s="287" t="s">
+        <v>548</v>
+      </c>
+      <c r="L187" s="288" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="188" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C188" s="288" t="s">
+        <v>552</v>
+      </c>
+      <c r="D188" s="237" t="s">
+        <v>545</v>
+      </c>
+      <c r="E188" s="3">
+        <v>123456793</v>
+      </c>
+      <c r="F188" s="234">
+        <v>300</v>
+      </c>
+      <c r="G188" s="236">
+        <v>100</v>
+      </c>
+      <c r="H188" s="232">
+        <f>F188*G188</f>
+        <v>30000</v>
+      </c>
+      <c r="I188" s="241" t="s">
+        <v>496</v>
+      </c>
+      <c r="J188" s="9"/>
+      <c r="K188" s="287" t="s">
+        <v>548</v>
+      </c>
+      <c r="L188" s="288" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="189" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C189" s="274" t="s">
+        <v>511</v>
+      </c>
+      <c r="D189" s="237"/>
+      <c r="F189" s="234"/>
+      <c r="G189" s="236"/>
+      <c r="H189" s="232"/>
+      <c r="I189" s="241"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+    </row>
+    <row r="190" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C190" s="249" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="192" spans="3:13" ht="16.5" customHeight="1">
+      <c r="D192" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="240">
+        <f>SUM(G184:G191)</f>
+        <v>750</v>
+      </c>
+      <c r="H192" s="240">
+        <f>SUM(H184:H191)</f>
+        <v>102000</v>
+      </c>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+    </row>
+    <row r="195" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D195" s="24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+    </row>
+    <row r="198" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D198" s="225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E198" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="G198" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="H198" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="I198" s="220"/>
+      <c r="J198" s="228"/>
+    </row>
+    <row r="200" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D200" s="225" t="s">
+        <v>486</v>
+      </c>
+      <c r="E200" s="226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="202" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D202" s="246" t="s">
+        <v>491</v>
+      </c>
+      <c r="E202" s="15"/>
+      <c r="F202" s="19"/>
+      <c r="J202" s="235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="4:10" ht="16.5" customHeight="1">
+      <c r="D204" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E204" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="F204" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="G204" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="H204" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="I204" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="J204" s="183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="213" spans="4:31" ht="16.5" customHeight="1">
+      <c r="D213" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+    </row>
+    <row r="216" spans="4:31" ht="16.5" customHeight="1">
+      <c r="D216" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="217" spans="4:31" ht="16.5" customHeight="1">
+      <c r="D217" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="222" spans="4:31" ht="18" customHeight="1">
+      <c r="N222" s="300"/>
+      <c r="O222" s="301"/>
+      <c r="P222" s="302"/>
+      <c r="Q222" s="300"/>
+      <c r="R222" s="300"/>
+      <c r="S222" s="300"/>
+      <c r="T222" s="300"/>
+      <c r="U222" s="300"/>
+      <c r="V222" s="300"/>
+      <c r="W222" s="300"/>
+      <c r="X222" s="300"/>
+      <c r="Y222" s="300"/>
+      <c r="Z222" s="300"/>
+      <c r="AA222" s="300"/>
+      <c r="AB222" s="300"/>
+      <c r="AC222" s="300"/>
+      <c r="AD222" s="300"/>
+      <c r="AE222" s="300"/>
+    </row>
+    <row r="223" spans="4:31" ht="28.5" customHeight="1">
+      <c r="N223" s="300"/>
+      <c r="O223" s="301" t="s">
+        <v>558</v>
+      </c>
+      <c r="P223" s="302"/>
+      <c r="Q223" s="300"/>
+      <c r="R223" s="300"/>
+      <c r="S223" s="300"/>
+      <c r="T223" s="300"/>
+      <c r="U223" s="300"/>
+      <c r="V223" s="300"/>
+      <c r="W223" s="300"/>
+      <c r="X223" s="300"/>
+      <c r="Y223" s="300"/>
+      <c r="Z223" s="300"/>
+      <c r="AA223" s="300"/>
+      <c r="AB223" s="300"/>
+      <c r="AC223" s="300"/>
+      <c r="AD223" s="300"/>
+      <c r="AE223" s="300"/>
+    </row>
+    <row r="224" spans="4:31" ht="18" customHeight="1">
+      <c r="N224" s="300"/>
+      <c r="O224" s="300"/>
+      <c r="P224" s="302"/>
+      <c r="Q224" s="300"/>
+      <c r="R224" s="300"/>
+      <c r="S224" s="300"/>
+      <c r="T224" s="300"/>
+      <c r="U224" s="300"/>
+      <c r="V224" s="300"/>
+      <c r="W224" s="300"/>
+      <c r="X224" s="300"/>
+      <c r="Y224" s="300"/>
+      <c r="Z224" s="300"/>
+      <c r="AA224" s="300"/>
+      <c r="AB224" s="300"/>
+      <c r="AC224" s="300"/>
+      <c r="AD224" s="300"/>
+      <c r="AE224" s="300"/>
+    </row>
+    <row r="225" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N225" s="300"/>
+      <c r="O225" s="21"/>
+      <c r="P225" s="276"/>
+      <c r="Q225" s="36"/>
+      <c r="R225" s="36"/>
+      <c r="S225" s="36"/>
+      <c r="T225" s="36"/>
+      <c r="U225" s="36"/>
+      <c r="V225" s="36"/>
+      <c r="W225" s="36"/>
+      <c r="X225" s="36"/>
+      <c r="Y225" s="36"/>
+      <c r="Z225" s="36"/>
+      <c r="AA225" s="36"/>
+      <c r="AB225" s="36"/>
+      <c r="AC225" s="36"/>
+      <c r="AD225" s="22"/>
+      <c r="AE225" s="300"/>
+    </row>
+    <row r="226" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N226" s="300"/>
+      <c r="O226" s="30"/>
+      <c r="P226" s="38"/>
+      <c r="Q226" s="18"/>
+      <c r="R226" s="18"/>
+      <c r="S226" s="18"/>
+      <c r="T226" s="18"/>
+      <c r="U226" s="18"/>
+      <c r="V226" s="18"/>
+      <c r="W226" s="18"/>
+      <c r="X226" s="18"/>
+      <c r="Y226" s="18"/>
+      <c r="Z226" s="18"/>
+      <c r="AA226" s="18"/>
+      <c r="AB226" s="18"/>
+      <c r="AC226" s="18"/>
+      <c r="AD226" s="31"/>
+      <c r="AE226" s="300"/>
+    </row>
+    <row r="227" spans="14:31" ht="27.95" customHeight="1">
+      <c r="N227" s="300"/>
+      <c r="O227" s="30"/>
+      <c r="P227" s="289" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q227" s="290" t="s">
+        <v>477</v>
+      </c>
+      <c r="R227" s="298"/>
+      <c r="S227" s="289" t="s">
+        <v>484</v>
+      </c>
+      <c r="T227" s="291" t="s">
+        <v>556</v>
+      </c>
+      <c r="U227" s="292"/>
+      <c r="V227" s="298"/>
+      <c r="W227" s="289" t="s">
+        <v>486</v>
+      </c>
+      <c r="X227" s="290" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y227" s="298"/>
+      <c r="Z227" s="18"/>
+      <c r="AA227" s="18"/>
+      <c r="AB227" s="18"/>
+      <c r="AC227" s="18"/>
+      <c r="AD227" s="31"/>
+      <c r="AE227" s="300"/>
+    </row>
+    <row r="228" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N228" s="300"/>
+      <c r="O228" s="30"/>
+      <c r="P228" s="299"/>
+      <c r="Q228" s="298"/>
+      <c r="R228" s="298"/>
+      <c r="S228" s="298"/>
+      <c r="T228" s="298"/>
+      <c r="U228" s="298"/>
+      <c r="V228" s="298"/>
+      <c r="W228" s="298"/>
+      <c r="X228" s="298"/>
+      <c r="Y228" s="298"/>
+      <c r="Z228" s="18"/>
+      <c r="AA228" s="18"/>
+      <c r="AB228" s="18"/>
+      <c r="AC228" s="18"/>
+      <c r="AD228" s="31"/>
+      <c r="AE228" s="300"/>
+    </row>
+    <row r="229" spans="14:31" ht="27.95" customHeight="1">
+      <c r="N229" s="300"/>
+      <c r="O229" s="30"/>
+      <c r="P229" s="293" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q229" s="291"/>
+      <c r="R229" s="294"/>
+      <c r="S229" s="292"/>
+      <c r="T229" s="18"/>
+      <c r="U229" s="298"/>
+      <c r="V229" s="298"/>
+      <c r="W229" s="298"/>
+      <c r="X229" s="298"/>
+      <c r="Y229" s="298"/>
+      <c r="Z229" s="18"/>
+      <c r="AA229" s="18"/>
+      <c r="AB229" s="18"/>
+      <c r="AC229" s="295" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD229" s="31"/>
+      <c r="AE229" s="300"/>
+    </row>
+    <row r="230" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N230" s="300"/>
+      <c r="O230" s="30"/>
+      <c r="P230" s="38"/>
+      <c r="Q230" s="18"/>
+      <c r="R230" s="18"/>
+      <c r="S230" s="18"/>
+      <c r="T230" s="18"/>
+      <c r="U230" s="18"/>
+      <c r="V230" s="18"/>
+      <c r="W230" s="18"/>
+      <c r="X230" s="18"/>
+      <c r="Y230" s="18"/>
+      <c r="Z230" s="18"/>
+      <c r="AA230" s="18"/>
+      <c r="AB230" s="18"/>
+      <c r="AC230" s="18"/>
+      <c r="AD230" s="31"/>
+      <c r="AE230" s="300"/>
+    </row>
+    <row r="231" spans="14:31" ht="27.95" customHeight="1">
+      <c r="N231" s="300"/>
+      <c r="O231" s="30"/>
+      <c r="P231" s="297" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q231" s="296"/>
+      <c r="R231" s="296"/>
+      <c r="S231" s="296"/>
+      <c r="T231" s="296"/>
+      <c r="U231" s="296"/>
+      <c r="V231" s="296"/>
+      <c r="W231" s="296"/>
+      <c r="X231" s="296"/>
+      <c r="Y231" s="296"/>
+      <c r="Z231" s="296"/>
+      <c r="AA231" s="296"/>
+      <c r="AB231" s="296"/>
+      <c r="AC231" s="296"/>
+      <c r="AD231" s="31"/>
+      <c r="AE231" s="300"/>
+    </row>
+    <row r="232" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N232" s="300"/>
+      <c r="O232" s="30"/>
+      <c r="P232" s="38"/>
+      <c r="Q232" s="18"/>
+      <c r="R232" s="18"/>
+      <c r="S232" s="18"/>
+      <c r="T232" s="18"/>
+      <c r="U232" s="18"/>
+      <c r="V232" s="18"/>
+      <c r="W232" s="18"/>
+      <c r="X232" s="18"/>
+      <c r="Y232" s="18"/>
+      <c r="Z232" s="18"/>
+      <c r="AA232" s="18"/>
+      <c r="AB232" s="18"/>
+      <c r="AC232" s="18"/>
+      <c r="AD232" s="31"/>
+      <c r="AE232" s="300"/>
+    </row>
+    <row r="233" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N233" s="300"/>
+      <c r="O233" s="30"/>
+      <c r="P233" s="38"/>
+      <c r="Q233" s="18"/>
+      <c r="R233" s="18"/>
+      <c r="S233" s="18"/>
+      <c r="T233" s="18"/>
+      <c r="U233" s="18"/>
+      <c r="V233" s="18"/>
+      <c r="W233" s="18"/>
+      <c r="X233" s="18"/>
+      <c r="Y233" s="18"/>
+      <c r="Z233" s="18"/>
+      <c r="AA233" s="18"/>
+      <c r="AB233" s="18"/>
+      <c r="AC233" s="18"/>
+      <c r="AD233" s="31"/>
+      <c r="AE233" s="300"/>
+    </row>
+    <row r="234" spans="14:31" ht="16.5" customHeight="1">
+      <c r="N234" s="300"/>
+      <c r="O234" s="30"/>
+      <c r="P234" s="38"/>
+      <c r="Q234" s="18"/>
+      <c r="R234" s="18"/>
+      <c r="S234" s="18"/>
+      <c r="T234" s="18"/>
+      <c r="U234" s="18"/>
+      <c r="V234" s="18"/>
+      <c r="W234" s="18"/>
+      <c r="X234" s="18"/>
+      <c r="Y234" s="18"/>
+      <c r="Z234" s="18"/>
+      <c r="AA234" s="18"/>
+      <c r="AB234" s="18"/>
+      <c r="AC234" s="18"/>
+      <c r="AD234" s="31"/>
+      <c r="AE234" s="300"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="T227:U227"/>
+    <mergeCell ref="Q229:S229"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="H71:J71"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AB27"/>
   <sheetViews>
@@ -13758,10 +17182,10 @@
       <c r="E21" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="195" t="s">
+      <c r="F21" s="199" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="195"/>
+      <c r="G21" s="199"/>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1">
       <c r="B22" s="42" t="s">
@@ -13801,7 +17225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:V47"/>
   <sheetViews>
@@ -14359,10 +17783,10 @@
       <c r="F41" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="195" t="s">
+      <c r="G41" s="199" t="s">
         <v>392</v>
       </c>
-      <c r="H41" s="195"/>
+      <c r="H41" s="199"/>
     </row>
     <row r="42" spans="3:11" ht="18" customHeight="1">
       <c r="C42" s="42" t="s">
@@ -14402,7 +17826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:X23"/>
   <sheetViews>
@@ -14414,27 +17838,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1">
-      <c r="E2" s="191" t="s">
+      <c r="E2" s="195" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1">
       <c r="E3" s="142"/>
@@ -14458,27 +17882,27 @@
       <c r="W3" s="144"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1">
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="198"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="202"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1">
       <c r="E5" s="145"/>
@@ -14871,7 +18295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V34"/>
   <sheetViews>
@@ -15315,10 +18739,10 @@
       <c r="M23" s="156"/>
       <c r="N23" s="18"/>
       <c r="O23" s="158"/>
-      <c r="P23" s="199" t="s">
+      <c r="P23" s="203" t="s">
         <v>328</v>
       </c>
-      <c r="Q23" s="200"/>
+      <c r="Q23" s="204"/>
       <c r="S23" s="164" t="s">
         <v>66</v>
       </c>
@@ -15558,7 +18982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15570,666 +18994,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="118" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="118" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="118" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B3" s="106"/>
-      <c r="C3" s="113" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-    </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="108"/>
-      <c r="C5" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="110"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="110"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="108"/>
-      <c r="C8" s="123" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="124" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="110"/>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
-    </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="124" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="124" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="124" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-    </row>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
-    </row>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="108"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="110"/>
-    </row>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="124" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
-    </row>
-    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="110"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
-    </row>
-    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="124" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
-    </row>
-    <row r="22" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
-    </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1">
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="J23" s="110"/>
-    </row>
-    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="111"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="112"/>
-    </row>
-    <row r="30" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B30" s="106"/>
-      <c r="C30" s="113" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
-    </row>
-    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="108"/>
-      <c r="C32" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="I32" s="105"/>
-      <c r="J32" s="110"/>
-    </row>
-    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="108"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
-    </row>
-    <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="108"/>
-      <c r="C35" s="123" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="E35" s="105"/>
-      <c r="F35" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="124" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="105"/>
-      <c r="J35" s="110"/>
-    </row>
-    <row r="36" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="110"/>
-    </row>
-    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="124" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="105"/>
-      <c r="J37" s="110"/>
-    </row>
-    <row r="38" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B38" s="108"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="110"/>
-    </row>
-    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="108"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="124" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="105"/>
-      <c r="F39" s="124" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="105"/>
-      <c r="J39" s="110"/>
-    </row>
-    <row r="40" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
-    </row>
-    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
-    </row>
-    <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="108"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="110"/>
-    </row>
-    <row r="43" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="108"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110"/>
-    </row>
-    <row r="44" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="108"/>
-      <c r="C44" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="124" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="124" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="H44" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="I44" s="105"/>
-      <c r="J44" s="110"/>
-    </row>
-    <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="110"/>
-    </row>
-    <row r="46" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="201"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="203"/>
-      <c r="J46" s="110"/>
-    </row>
-    <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
-    </row>
-    <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="124" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="110"/>
-    </row>
-    <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="108"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="110"/>
-    </row>
-    <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110"/>
-    </row>
-    <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="108"/>
-      <c r="C51" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="E51" s="105"/>
-      <c r="F51" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="G51" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="H51" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I51" s="105"/>
-      <c r="J51" s="110"/>
-    </row>
-    <row r="52" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
-    </row>
-    <row r="53" spans="2:10" ht="24" customHeight="1">
-      <c r="B53" s="108"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="H53" s="116"/>
-      <c r="I53" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="J53" s="110"/>
-    </row>
-    <row r="54" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="112"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E46:I46"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="15" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="564">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2272,14 +2272,34 @@
     <t>실적 등록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>처방구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(40px)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="53">
     <font>
@@ -3928,6 +3948,207 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3964,6 +4185,42 @@
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4027,9 +4284,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4040,240 +4294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4856,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N135"/>
+  <dimension ref="A2:N149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4926,7 +4946,7 @@
       <c r="A5" s="103">
         <v>1</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="254" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -4964,7 +4984,7 @@
       <c r="A6" s="103">
         <v>1</v>
       </c>
-      <c r="B6" s="188"/>
+      <c r="B6" s="255"/>
       <c r="C6" s="73" t="s">
         <v>209</v>
       </c>
@@ -4998,7 +5018,7 @@
       <c r="A7" s="103">
         <v>1</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="256"/>
       <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
@@ -5026,7 +5046,7 @@
       <c r="A8" s="103">
         <v>2</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="257" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -5066,7 +5086,7 @@
       <c r="A9" s="103">
         <v>2</v>
       </c>
-      <c r="B9" s="188"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="64" t="s">
         <v>23</v>
       </c>
@@ -5104,7 +5124,7 @@
       <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="188"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
@@ -5142,7 +5162,7 @@
       <c r="A11" s="103">
         <v>2</v>
       </c>
-      <c r="B11" s="188"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="64" t="s">
         <v>25</v>
       </c>
@@ -5180,7 +5200,7 @@
       <c r="A12" s="103">
         <v>2</v>
       </c>
-      <c r="B12" s="188"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="64" t="s">
         <v>26</v>
       </c>
@@ -5212,7 +5232,7 @@
       <c r="A13" s="103">
         <v>2</v>
       </c>
-      <c r="B13" s="188"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="64" t="s">
         <v>27</v>
       </c>
@@ -5248,7 +5268,7 @@
       <c r="A14" s="103">
         <v>2</v>
       </c>
-      <c r="B14" s="188"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
@@ -5284,7 +5304,7 @@
       <c r="A15" s="103">
         <v>2</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="64" t="s">
         <v>29</v>
       </c>
@@ -5316,7 +5336,7 @@
       <c r="A16" s="103">
         <v>2</v>
       </c>
-      <c r="B16" s="191"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="69" t="s">
         <v>30</v>
       </c>
@@ -5348,7 +5368,7 @@
       <c r="A17" s="103">
         <v>3</v>
       </c>
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="254" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="73" t="s">
@@ -5382,7 +5402,7 @@
       <c r="A18" s="103">
         <v>3</v>
       </c>
-      <c r="B18" s="188"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="64" t="s">
         <v>31</v>
       </c>
@@ -5412,7 +5432,7 @@
       <c r="A19" s="103">
         <v>3</v>
       </c>
-      <c r="B19" s="188"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="64" t="s">
         <v>158</v>
       </c>
@@ -5444,7 +5464,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="103"/>
-      <c r="B20" s="188"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="64" t="s">
         <v>32</v>
       </c>
@@ -5468,7 +5488,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="188"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="68" t="s">
         <v>178</v>
       </c>
@@ -5496,7 +5516,7 @@
       <c r="A22" s="103">
         <v>3</v>
       </c>
-      <c r="B22" s="188"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="68" t="s">
         <v>181</v>
       </c>
@@ -5526,7 +5546,7 @@
       <c r="A23" s="103">
         <v>3</v>
       </c>
-      <c r="B23" s="191"/>
+      <c r="B23" s="258"/>
       <c r="C23" s="77" t="s">
         <v>183</v>
       </c>
@@ -5554,7 +5574,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="103"/>
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="259" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -5576,7 +5596,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="103"/>
-      <c r="B25" s="193"/>
+      <c r="B25" s="260"/>
       <c r="C25" s="68" t="s">
         <v>174</v>
       </c>
@@ -5598,7 +5618,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="103"/>
-      <c r="B26" s="194"/>
+      <c r="B26" s="261"/>
       <c r="C26" s="77" t="s">
         <v>176</v>
       </c>
@@ -6522,6 +6542,98 @@
       </c>
       <c r="D135" s="129">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" ht="15" customHeight="1">
+      <c r="C139" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D139" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" s="170">
+        <f>SUM(D140:D149)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" ht="15" customHeight="1">
+      <c r="C140" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D140" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" ht="15" customHeight="1">
+      <c r="C141" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D141" s="128">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" ht="15" customHeight="1">
+      <c r="C142" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="128">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" ht="15" customHeight="1">
+      <c r="C143" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" s="129">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" ht="15" customHeight="1">
+      <c r="C144" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="D144" s="129">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" ht="15" customHeight="1">
+      <c r="C145" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D145" s="129">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" ht="15" customHeight="1">
+      <c r="C146" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="D146" s="128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" ht="15" customHeight="1">
+      <c r="C147" s="73" t="s">
+        <v>560</v>
+      </c>
+      <c r="D147" s="128">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" ht="15" customHeight="1">
+      <c r="C148" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="D148" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" ht="15" customHeight="1">
+      <c r="C149" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" s="128" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6659,9 +6771,9 @@
       <c r="D10" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="205"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="286"/>
       <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
@@ -6780,11 +6892,11 @@
       <c r="D19" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="207"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="286"/>
       <c r="J19" s="110"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
@@ -6953,9 +7065,9 @@
       <c r="D37" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="205"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="207"/>
+      <c r="E37" s="284"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="286"/>
       <c r="H37" s="124" t="s">
         <v>26</v>
       </c>
@@ -7074,11 +7186,11 @@
       <c r="D46" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="206"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="207"/>
+      <c r="E46" s="284"/>
+      <c r="F46" s="285"/>
+      <c r="G46" s="285"/>
+      <c r="H46" s="285"/>
+      <c r="I46" s="286"/>
       <c r="J46" s="110"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
@@ -7392,14 +7504,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -7469,10 +7581,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="17"/>
-      <c r="AP13" s="199" t="s">
+      <c r="AP13" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="199"/>
+      <c r="AQ13" s="278"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17" t="s">
         <v>32</v>
@@ -7855,14 +7967,14 @@
       <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>76</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:55" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -7932,10 +8044,10 @@
         <v>48</v>
       </c>
       <c r="AO13" s="52"/>
-      <c r="AP13" s="199" t="s">
+      <c r="AP13" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="199"/>
+      <c r="AQ13" s="278"/>
       <c r="AR13" s="52"/>
       <c r="AS13" s="52" t="s">
         <v>32</v>
@@ -8203,10 +8315,10 @@
     </row>
     <row r="11" spans="1:46" ht="18" customHeight="1">
       <c r="C11" s="8"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8276,10 +8388,10 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
-      <c r="AR13" s="199" t="s">
+      <c r="AR13" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="199"/>
+      <c r="AS13" s="278"/>
       <c r="AT13" s="17"/>
     </row>
     <row r="14" spans="1:46" ht="18" customHeight="1">
@@ -8495,18 +8607,18 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" s="210" t="s">
+      <c r="AM11" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="211"/>
-      <c r="AP11" s="210" t="s">
+      <c r="AN11" s="290"/>
+      <c r="AP11" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -8627,18 +8739,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="212" t="s">
+      <c r="S16" s="291" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="213"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="213"/>
-      <c r="X16" s="213"/>
-      <c r="Y16" s="213"/>
-      <c r="Z16" s="213"/>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="214"/>
+      <c r="T16" s="292"/>
+      <c r="U16" s="292"/>
+      <c r="V16" s="292"/>
+      <c r="W16" s="292"/>
+      <c r="X16" s="292"/>
+      <c r="Y16" s="292"/>
+      <c r="Z16" s="292"/>
+      <c r="AA16" s="292"/>
+      <c r="AB16" s="293"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -8838,15 +8950,15 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="215" t="s">
+      <c r="W27" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="216"/>
+      <c r="X27" s="295"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="210" t="s">
+      <c r="Z27" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="AA27" s="211"/>
+      <c r="AA27" s="290"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
@@ -9072,14 +9184,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9232,20 +9344,20 @@
       </c>
     </row>
     <row r="19" spans="17:46" ht="18" customHeight="1">
-      <c r="Z19" s="217" t="s">
+      <c r="Z19" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="AA19" s="218"/>
-      <c r="AB19" s="218"/>
-      <c r="AC19" s="218"/>
-      <c r="AD19" s="218"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="218"/>
-      <c r="AG19" s="218"/>
-      <c r="AH19" s="218"/>
-      <c r="AI19" s="218"/>
-      <c r="AJ19" s="218"/>
-      <c r="AK19" s="219"/>
+      <c r="AA19" s="297"/>
+      <c r="AB19" s="297"/>
+      <c r="AC19" s="297"/>
+      <c r="AD19" s="297"/>
+      <c r="AE19" s="297"/>
+      <c r="AF19" s="297"/>
+      <c r="AG19" s="297"/>
+      <c r="AH19" s="297"/>
+      <c r="AI19" s="297"/>
+      <c r="AJ19" s="297"/>
+      <c r="AK19" s="298"/>
       <c r="AT19" s="18"/>
     </row>
     <row r="20" spans="17:46" ht="18" customHeight="1">
@@ -9376,10 +9488,10 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="215" t="s">
+      <c r="AI26" s="294" t="s">
         <v>115</v>
       </c>
-      <c r="AJ26" s="216"/>
+      <c r="AJ26" s="295"/>
       <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="17:46" ht="18" customHeight="1">
@@ -9591,14 +9703,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -9741,18 +9853,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="17" spans="6:46" ht="18" customHeight="1">
-      <c r="F17" s="212" t="s">
+      <c r="F17" s="291" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="214"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="292"/>
+      <c r="J17" s="292"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="292"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="292"/>
+      <c r="O17" s="293"/>
       <c r="W17" s="46" t="s">
         <v>112</v>
       </c>
@@ -9772,34 +9884,34 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="31"/>
-      <c r="R18" s="217" t="s">
+      <c r="R18" s="296" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="218"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="218"/>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
-      <c r="Y18" s="218"/>
-      <c r="Z18" s="218"/>
-      <c r="AA18" s="218"/>
-      <c r="AB18" s="218"/>
-      <c r="AC18" s="219"/>
-      <c r="AF18" s="217" t="s">
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="297"/>
+      <c r="V18" s="297"/>
+      <c r="W18" s="297"/>
+      <c r="X18" s="297"/>
+      <c r="Y18" s="297"/>
+      <c r="Z18" s="297"/>
+      <c r="AA18" s="297"/>
+      <c r="AB18" s="297"/>
+      <c r="AC18" s="298"/>
+      <c r="AF18" s="296" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="218"/>
-      <c r="AH18" s="218"/>
-      <c r="AI18" s="218"/>
-      <c r="AJ18" s="218"/>
-      <c r="AK18" s="218"/>
-      <c r="AL18" s="218"/>
-      <c r="AM18" s="218"/>
-      <c r="AN18" s="218"/>
-      <c r="AO18" s="218"/>
-      <c r="AP18" s="218"/>
-      <c r="AQ18" s="219"/>
+      <c r="AG18" s="297"/>
+      <c r="AH18" s="297"/>
+      <c r="AI18" s="297"/>
+      <c r="AJ18" s="297"/>
+      <c r="AK18" s="297"/>
+      <c r="AL18" s="297"/>
+      <c r="AM18" s="297"/>
+      <c r="AN18" s="297"/>
+      <c r="AO18" s="297"/>
+      <c r="AP18" s="297"/>
+      <c r="AQ18" s="298"/>
     </row>
     <row r="19" spans="6:46" ht="18" customHeight="1">
       <c r="F19" s="32"/>
@@ -10166,15 +10278,15 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="215" t="s">
+      <c r="X27" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="216"/>
+      <c r="Y27" s="295"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="210" t="s">
+      <c r="AA27" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="AB27" s="211"/>
+      <c r="AB27" s="290"/>
       <c r="AC27" s="31"/>
       <c r="AF27" s="30"/>
       <c r="AG27" s="18"/>
@@ -10182,15 +10294,15 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="215" t="s">
+      <c r="AL27" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="AM27" s="216"/>
+      <c r="AM27" s="295"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="210" t="s">
+      <c r="AO27" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="211"/>
+      <c r="AP27" s="290"/>
       <c r="AQ27" s="31"/>
     </row>
     <row r="28" spans="6:46" ht="18" customHeight="1">
@@ -10198,15 +10310,15 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="215" t="s">
+      <c r="J28" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="216"/>
+      <c r="K28" s="295"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="210" t="s">
+      <c r="M28" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="211"/>
+      <c r="N28" s="290"/>
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
       <c r="R28" s="13"/>
@@ -10242,10 +10354,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="220" t="s">
+      <c r="M29" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="220"/>
+      <c r="N29" s="268"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -10725,14 +10837,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -10943,20 +11055,20 @@
     </row>
     <row r="20" spans="8:46" ht="18" customHeight="1">
       <c r="R20" s="25"/>
-      <c r="S20" s="217" t="s">
+      <c r="S20" s="296" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="218"/>
-      <c r="W20" s="218"/>
-      <c r="X20" s="218"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="218"/>
-      <c r="AC20" s="218"/>
-      <c r="AD20" s="219"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="297"/>
+      <c r="V20" s="297"/>
+      <c r="W20" s="297"/>
+      <c r="X20" s="297"/>
+      <c r="Y20" s="297"/>
+      <c r="Z20" s="297"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="297"/>
+      <c r="AC20" s="297"/>
+      <c r="AD20" s="298"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -11086,10 +11198,10 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="215" t="s">
+      <c r="AB26" s="294" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="216"/>
+      <c r="AC26" s="295"/>
       <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="8:46" ht="18" customHeight="1">
@@ -11301,14 +11413,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -11435,18 +11547,18 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="16" spans="1:46" ht="18" customHeight="1">
-      <c r="S16" s="221" t="s">
+      <c r="S16" s="299" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="222"/>
-      <c r="Z16" s="222"/>
-      <c r="AA16" s="222"/>
-      <c r="AB16" s="223"/>
+      <c r="T16" s="300"/>
+      <c r="U16" s="300"/>
+      <c r="V16" s="300"/>
+      <c r="W16" s="300"/>
+      <c r="X16" s="300"/>
+      <c r="Y16" s="300"/>
+      <c r="Z16" s="300"/>
+      <c r="AA16" s="300"/>
+      <c r="AB16" s="301"/>
     </row>
     <row r="17" spans="19:46" ht="18" customHeight="1">
       <c r="S17" s="30"/>
@@ -11583,15 +11695,15 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="215" t="s">
+      <c r="W24" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="216"/>
+      <c r="X24" s="295"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="210" t="s">
+      <c r="Z24" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="AA24" s="211"/>
+      <c r="AA24" s="290"/>
       <c r="AB24" s="31"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
@@ -11814,14 +11926,14 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="210" t="s">
+      <c r="AP11" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="AQ11" s="211"/>
-      <c r="AS11" s="208" t="s">
+      <c r="AQ11" s="290"/>
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -12754,10 +12866,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="208" t="s">
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -13052,10 +13164,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="208" t="s">
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="52" t="s">
@@ -13336,10 +13448,10 @@
       <c r="J11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AS11" s="208" t="s">
+      <c r="AS11" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="209"/>
+      <c r="AT11" s="288"/>
     </row>
     <row r="13" spans="1:46" ht="18" customHeight="1">
       <c r="C13" s="17" t="s">
@@ -13911,16 +14023,16 @@
     <row r="24" spans="4:34" ht="18" customHeight="1">
       <c r="O24" s="30"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="224" t="s">
+      <c r="Q24" s="302" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
+      <c r="R24" s="302"/>
+      <c r="S24" s="302"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="224" t="s">
+      <c r="U24" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="224"/>
+      <c r="V24" s="302"/>
       <c r="W24" s="18"/>
       <c r="X24" s="31"/>
     </row>
@@ -13958,39 +14070,39 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="262" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="195"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
+      <c r="AC4" s="262"/>
+      <c r="AD4" s="262"/>
+      <c r="AE4" s="262"/>
+      <c r="AF4" s="262"/>
+      <c r="AG4" s="262"/>
+      <c r="AH4" s="262"/>
+      <c r="AI4" s="262"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1">
       <c r="E5" s="142"/>
@@ -14910,17 +15022,17 @@
       <c r="Y31" s="132"/>
       <c r="Z31" s="132"/>
       <c r="AA31" s="132"/>
-      <c r="AB31" s="196" t="s">
+      <c r="AB31" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="AC31" s="196"/>
-      <c r="AD31" s="196"/>
+      <c r="AC31" s="263"/>
+      <c r="AD31" s="263"/>
       <c r="AE31" s="132"/>
-      <c r="AF31" s="197" t="s">
+      <c r="AF31" s="264" t="s">
         <v>312</v>
       </c>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="198"/>
+      <c r="AG31" s="265"/>
+      <c r="AH31" s="265"/>
       <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1">
@@ -14971,7 +15083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AE234"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
@@ -15018,39 +15130,39 @@
       <c r="J7" s="36"/>
     </row>
     <row r="8" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E8" s="226" t="s">
+      <c r="E8" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G8" s="225" t="s">
+      <c r="G8" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H8" s="227" t="s">
+      <c r="H8" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="228"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
     </row>
     <row r="10" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E10" s="226" t="s">
+      <c r="E10" s="188" t="s">
         <v>487</v>
       </c>
-      <c r="F10" s="245" t="s">
+      <c r="F10" s="205" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D12" s="246" t="s">
+      <c r="D12" s="206" t="s">
         <v>491</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="19"/>
-      <c r="J12" s="235" t="s">
+      <c r="J12" s="195" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15083,11 +15195,11 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="240">
+      <c r="G23" s="200">
         <f>SUM(G15:G22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="240">
+      <c r="H23" s="200">
         <f>SUM(H15:H22)</f>
         <v>0</v>
       </c>
@@ -15109,40 +15221,40 @@
       <c r="J28" s="36"/>
     </row>
     <row r="29" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D29" s="225" t="s">
+      <c r="D29" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E29" s="226" t="s">
+      <c r="E29" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G29" s="225" t="s">
+      <c r="G29" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="227" t="s">
+      <c r="H29" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I29" s="220"/>
-      <c r="J29" s="228"/>
+      <c r="I29" s="268"/>
+      <c r="J29" s="269"/>
     </row>
     <row r="31" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D31" s="225" t="s">
+      <c r="D31" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E31" s="226" t="s">
+      <c r="E31" s="188" t="s">
         <v>487</v>
       </c>
-      <c r="F31" s="245"/>
+      <c r="F31" s="205"/>
     </row>
     <row r="33" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D33" s="246" t="s">
+      <c r="D33" s="206" t="s">
         <v>491</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="245" t="s">
+      <c r="F33" s="204"/>
+      <c r="G33" s="205" t="s">
         <v>499</v>
       </c>
-      <c r="J33" s="235" t="s">
+      <c r="J33" s="195" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15170,15 +15282,15 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D39" s="247" t="s">
+      <c r="D39" s="277" t="s">
         <v>498</v>
       </c>
-      <c r="E39" s="247"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="247"/>
-      <c r="H39" s="247"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="247"/>
+      <c r="E39" s="277"/>
+      <c r="F39" s="277"/>
+      <c r="G39" s="277"/>
+      <c r="H39" s="277"/>
+      <c r="I39" s="277"/>
+      <c r="J39" s="277"/>
     </row>
     <row r="44" spans="4:10" ht="16.5" customHeight="1">
       <c r="D44" s="15" t="s">
@@ -15186,11 +15298,11 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="240">
+      <c r="G44" s="200">
         <f>SUM(G36:G43)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="240">
+      <c r="H44" s="200">
         <f>SUM(H36:H43)</f>
         <v>0</v>
       </c>
@@ -15230,42 +15342,42 @@
       <c r="J49" s="36"/>
     </row>
     <row r="50" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D50" s="225" t="s">
+      <c r="D50" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E50" s="226" t="s">
+      <c r="E50" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G50" s="225" t="s">
+      <c r="G50" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H50" s="227" t="s">
+      <c r="H50" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I50" s="220"/>
-      <c r="J50" s="228"/>
+      <c r="I50" s="268"/>
+      <c r="J50" s="269"/>
     </row>
     <row r="52" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D52" s="275" t="s">
+      <c r="D52" s="230" t="s">
         <v>486</v>
       </c>
-      <c r="E52" s="262" t="s">
+      <c r="E52" s="219" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="53" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D53" s="278" t="s">
+      <c r="D53" s="233" t="s">
         <v>517</v>
       </c>
-      <c r="E53" s="277">
+      <c r="E53" s="232">
         <v>2025</v>
       </c>
-      <c r="F53" s="279" t="s">
+      <c r="F53" s="234" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="54" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D54" s="280" t="s">
+      <c r="D54" s="235" t="s">
         <v>518</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -15274,12 +15386,12 @@
       <c r="F54" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="J54" s="235" t="s">
+      <c r="J54" s="195" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="235" t="s">
         <v>521</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -15290,7 +15402,7 @@
       </c>
     </row>
     <row r="56" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D56" s="280" t="s">
+      <c r="D56" s="235" t="s">
         <v>522</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -15313,13 +15425,13 @@
       </c>
     </row>
     <row r="57" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D57" s="281" t="s">
+      <c r="D57" s="236" t="s">
         <v>523</v>
       </c>
-      <c r="E57" s="282" t="s">
+      <c r="E57" s="237" t="s">
         <v>524</v>
       </c>
-      <c r="F57" s="283" t="s">
+      <c r="F57" s="238" t="s">
         <v>525</v>
       </c>
     </row>
@@ -15329,11 +15441,11 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="240">
+      <c r="G65" s="200">
         <f>SUM(G57:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="240">
+      <c r="H65" s="200">
         <f>SUM(H57:H64)</f>
         <v>0</v>
       </c>
@@ -15373,128 +15485,128 @@
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D71" s="225" t="s">
+      <c r="D71" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E71" s="226" t="s">
+      <c r="E71" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G71" s="225" t="s">
+      <c r="G71" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H71" s="227" t="s">
+      <c r="H71" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I71" s="220"/>
-      <c r="J71" s="228"/>
+      <c r="I71" s="268"/>
+      <c r="J71" s="269"/>
     </row>
     <row r="73" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D73" s="250" t="s">
+      <c r="D73" s="209" t="s">
         <v>486</v>
       </c>
-      <c r="E73" s="254"/>
-      <c r="F73" s="255"/>
-      <c r="G73" s="263" t="s">
+      <c r="E73" s="211"/>
+      <c r="F73" s="212"/>
+      <c r="G73" s="273" t="s">
         <v>491</v>
       </c>
-      <c r="H73" s="255"/>
-      <c r="I73" s="252" t="s">
+      <c r="H73" s="212"/>
+      <c r="I73" s="275" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="74" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E74" s="256"/>
-      <c r="F74" s="257"/>
-      <c r="G74" s="264"/>
-      <c r="H74" s="257"/>
-      <c r="I74" s="253"/>
+      <c r="E74" s="213"/>
+      <c r="F74" s="214"/>
+      <c r="G74" s="274"/>
+      <c r="H74" s="214"/>
+      <c r="I74" s="276"/>
     </row>
     <row r="75" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="203" t="s">
         <v>491</v>
       </c>
-      <c r="E75" s="268"/>
-      <c r="F75" s="257"/>
-      <c r="G75" s="257"/>
-      <c r="H75" s="257"/>
-      <c r="I75" s="258"/>
-      <c r="J75" s="251" t="s">
+      <c r="E75" s="223"/>
+      <c r="F75" s="214"/>
+      <c r="G75" s="214"/>
+      <c r="H75" s="214"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="210" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="76" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E76" s="265" t="s">
+      <c r="E76" s="220" t="s">
         <v>501</v>
       </c>
-      <c r="F76" s="266" t="s">
+      <c r="F76" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="266" t="s">
+      <c r="G76" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="266" t="s">
+      <c r="H76" s="221" t="s">
         <v>502</v>
       </c>
-      <c r="I76" s="267"/>
+      <c r="I76" s="222"/>
     </row>
     <row r="77" spans="4:10" ht="16.5" customHeight="1">
       <c r="D77" s="183" t="s">
         <v>478</v>
       </c>
-      <c r="E77" s="256"/>
-      <c r="F77" s="257"/>
-      <c r="G77" s="257"/>
-      <c r="H77" s="257"/>
-      <c r="I77" s="258"/>
+      <c r="E77" s="213"/>
+      <c r="F77" s="214"/>
+      <c r="G77" s="214"/>
+      <c r="H77" s="214"/>
+      <c r="I77" s="215"/>
       <c r="J77" s="183" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="78" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E78" s="269"/>
-      <c r="F78" s="270"/>
-      <c r="G78" s="272" t="s">
+      <c r="E78" s="224"/>
+      <c r="F78" s="225"/>
+      <c r="G78" s="227" t="s">
         <v>503</v>
       </c>
-      <c r="H78" s="270"/>
-      <c r="I78" s="271"/>
+      <c r="H78" s="225"/>
+      <c r="I78" s="226"/>
     </row>
     <row r="79" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E79" s="256"/>
-      <c r="F79" s="257"/>
-      <c r="G79" s="257"/>
-      <c r="H79" s="257"/>
-      <c r="I79" s="258"/>
+      <c r="E79" s="213"/>
+      <c r="F79" s="214"/>
+      <c r="G79" s="214"/>
+      <c r="H79" s="214"/>
+      <c r="I79" s="215"/>
     </row>
     <row r="80" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E80" s="256"/>
-      <c r="F80" s="257"/>
-      <c r="G80" s="257"/>
-      <c r="H80" s="257"/>
-      <c r="I80" s="258"/>
+      <c r="E80" s="213"/>
+      <c r="F80" s="214"/>
+      <c r="G80" s="214"/>
+      <c r="H80" s="214"/>
+      <c r="I80" s="215"/>
     </row>
     <row r="81" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D81" s="248"/>
-      <c r="E81" s="256"/>
-      <c r="F81" s="257"/>
-      <c r="G81" s="257"/>
-      <c r="H81" s="257"/>
-      <c r="I81" s="258"/>
-      <c r="J81" s="248"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="213"/>
+      <c r="F81" s="214"/>
+      <c r="G81" s="214"/>
+      <c r="H81" s="214"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="207"/>
     </row>
     <row r="82" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E82" s="256"/>
-      <c r="F82" s="257"/>
-      <c r="G82" s="257"/>
-      <c r="H82" s="257"/>
-      <c r="I82" s="258"/>
+      <c r="E82" s="213"/>
+      <c r="F82" s="214"/>
+      <c r="G82" s="214"/>
+      <c r="H82" s="214"/>
+      <c r="I82" s="215"/>
     </row>
     <row r="83" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E83" s="259"/>
-      <c r="F83" s="260"/>
-      <c r="G83" s="260"/>
-      <c r="H83" s="260"/>
-      <c r="I83" s="261"/>
+      <c r="E83" s="216"/>
+      <c r="F83" s="217"/>
+      <c r="G83" s="217"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="218"/>
     </row>
     <row r="86" spans="4:10" ht="16.5" customHeight="1">
       <c r="D86" s="15" t="s">
@@ -15502,11 +15614,11 @@
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="240">
+      <c r="G86" s="200">
         <f>SUM(G78:G85)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="240">
+      <c r="H86" s="200">
         <f>SUM(H78:H85)</f>
         <v>0</v>
       </c>
@@ -15528,36 +15640,36 @@
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D92" s="225" t="s">
+      <c r="D92" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E92" s="226" t="s">
+      <c r="E92" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G92" s="225" t="s">
+      <c r="G92" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H92" s="227" t="s">
+      <c r="H92" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I92" s="220"/>
-      <c r="J92" s="228"/>
+      <c r="I92" s="268"/>
+      <c r="J92" s="269"/>
     </row>
     <row r="94" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D94" s="225" t="s">
+      <c r="D94" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="226" t="s">
+      <c r="E94" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="96" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D96" s="231" t="s">
+      <c r="D96" s="191" t="s">
         <v>492</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="19"/>
-      <c r="J96" s="229" t="s">
+      <c r="J96" s="189" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15585,17 +15697,17 @@
       </c>
     </row>
     <row r="99" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D99" s="230" t="s">
+      <c r="D99" s="190" t="s">
         <v>505</v>
       </c>
-      <c r="E99" s="245" t="s">
+      <c r="E99" s="205" t="s">
         <v>510</v>
       </c>
-      <c r="F99" s="234"/>
-      <c r="G99" s="238" t="s">
+      <c r="F99" s="194"/>
+      <c r="G99" s="198" t="s">
         <v>351</v>
       </c>
-      <c r="H99" s="238" t="s">
+      <c r="H99" s="198" t="s">
         <v>351</v>
       </c>
       <c r="I99" s="9" t="s">
@@ -15604,7 +15716,7 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D100" s="273" t="s">
+      <c r="D100" s="228" t="s">
         <v>506</v>
       </c>
     </row>
@@ -15634,11 +15746,11 @@
       </c>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="240">
+      <c r="G107" s="200">
         <f>SUM(G99:G106)</f>
         <v>0</v>
       </c>
-      <c r="H107" s="240">
+      <c r="H107" s="200">
         <f>SUM(H99:H106)</f>
         <v>0</v>
       </c>
@@ -15660,36 +15772,36 @@
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D113" s="225" t="s">
+      <c r="D113" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E113" s="226" t="s">
+      <c r="E113" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G113" s="225" t="s">
+      <c r="G113" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H113" s="227" t="s">
+      <c r="H113" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I113" s="220"/>
-      <c r="J113" s="228"/>
+      <c r="I113" s="268"/>
+      <c r="J113" s="269"/>
     </row>
     <row r="115" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D115" s="225" t="s">
+      <c r="D115" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E115" s="226" t="s">
+      <c r="E115" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="117" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D117" s="231" t="s">
+      <c r="D117" s="191" t="s">
         <v>492</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="19"/>
-      <c r="J117" s="229" t="s">
+      <c r="J117" s="189" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15717,19 +15829,19 @@
       </c>
     </row>
     <row r="120" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D120" s="237" t="s">
+      <c r="D120" s="197" t="s">
         <v>493</v>
       </c>
       <c r="E120" s="3">
         <v>123456789</v>
       </c>
-      <c r="F120" s="234">
+      <c r="F120" s="194">
         <v>100</v>
       </c>
-      <c r="G120" s="233">
+      <c r="G120" s="193">
         <v>100</v>
       </c>
-      <c r="H120" s="232">
+      <c r="H120" s="192">
         <f>F120*G120</f>
         <v>10000</v>
       </c>
@@ -15739,18 +15851,18 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E121" s="274" t="s">
+      <c r="E121" s="229" t="s">
         <v>511</v>
       </c>
-      <c r="F121" s="274" t="s">
+      <c r="F121" s="229" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="122" spans="4:10" ht="16.5" customHeight="1">
-      <c r="E122" s="245" t="s">
+      <c r="E122" s="205" t="s">
         <v>512</v>
       </c>
-      <c r="F122" s="245"/>
+      <c r="F122" s="205"/>
     </row>
     <row r="128" spans="4:10" ht="16.5" customHeight="1">
       <c r="D128" s="184" t="s">
@@ -15758,11 +15870,11 @@
       </c>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
-      <c r="G128" s="240">
+      <c r="G128" s="200">
         <f>SUM(G120:G127)</f>
         <v>100</v>
       </c>
-      <c r="H128" s="240">
+      <c r="H128" s="200">
         <f>SUM(H120:H127)</f>
         <v>10000</v>
       </c>
@@ -15770,29 +15882,29 @@
       <c r="J128" s="15"/>
     </row>
     <row r="129" spans="4:10" ht="16.5" customHeight="1">
-      <c r="G129" s="274" t="s">
+      <c r="G129" s="229" t="s">
         <v>511</v>
       </c>
-      <c r="H129" s="274" t="s">
+      <c r="H129" s="229" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="130" spans="4:10" ht="16.5" customHeight="1">
-      <c r="G130" s="284" t="s">
+      <c r="G130" s="266" t="s">
         <v>533</v>
       </c>
-      <c r="H130" s="284"/>
+      <c r="H130" s="266"/>
     </row>
     <row r="131" spans="4:10" ht="16.5" customHeight="1">
-      <c r="G131" s="249"/>
-      <c r="H131" s="249"/>
+      <c r="G131" s="208"/>
+      <c r="H131" s="208"/>
     </row>
     <row r="132" spans="4:10" ht="16.5" customHeight="1">
       <c r="D132" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="G132" s="245"/>
-      <c r="H132" s="245"/>
+      <c r="G132" s="205"/>
+      <c r="H132" s="205"/>
     </row>
     <row r="134" spans="4:10" ht="16.5" customHeight="1">
       <c r="D134" s="36"/>
@@ -15804,41 +15916,41 @@
       <c r="J134" s="36"/>
     </row>
     <row r="135" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D135" s="225" t="s">
+      <c r="D135" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E135" s="226" t="s">
+      <c r="E135" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G135" s="225" t="s">
+      <c r="G135" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H135" s="227" t="s">
+      <c r="H135" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I135" s="220"/>
-      <c r="J135" s="228"/>
+      <c r="I135" s="268"/>
+      <c r="J135" s="269"/>
     </row>
     <row r="137" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D137" s="225" t="s">
+      <c r="D137" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E137" s="226" t="s">
+      <c r="E137" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="139" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D139" s="231" t="s">
+      <c r="D139" s="191" t="s">
         <v>492</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="19"/>
-      <c r="J139" s="229" t="s">
+      <c r="J139" s="189" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="140" spans="4:10" ht="16.5" customHeight="1">
-      <c r="H140" s="245" t="s">
+      <c r="H140" s="205" t="s">
         <v>513</v>
       </c>
     </row>
@@ -15866,29 +15978,29 @@
       </c>
     </row>
     <row r="142" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D142" s="237" t="s">
+      <c r="D142" s="197" t="s">
         <v>493</v>
       </c>
       <c r="E142" s="3">
         <v>123456789</v>
       </c>
-      <c r="F142" s="234">
+      <c r="F142" s="194">
         <v>100</v>
       </c>
-      <c r="G142" s="236">
+      <c r="G142" s="196">
         <v>100</v>
       </c>
-      <c r="H142" s="232">
+      <c r="H142" s="192">
         <f>F142*G142</f>
         <v>10000</v>
       </c>
-      <c r="I142" s="242" t="s">
+      <c r="I142" s="202" t="s">
         <v>494</v>
       </c>
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="4:10" ht="16.5" customHeight="1">
-      <c r="I143" s="239" t="s">
+      <c r="I143" s="199" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15908,11 +16020,11 @@
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
-      <c r="G150" s="240">
+      <c r="G150" s="200">
         <f>SUM(G142:G149)</f>
         <v>100</v>
       </c>
-      <c r="H150" s="240">
+      <c r="H150" s="200">
         <f>SUM(H142:H149)</f>
         <v>10000</v>
       </c>
@@ -15934,36 +16046,36 @@
       <c r="J155" s="36"/>
     </row>
     <row r="156" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D156" s="225" t="s">
+      <c r="D156" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E156" s="226" t="s">
+      <c r="E156" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G156" s="225" t="s">
+      <c r="G156" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H156" s="227" t="s">
+      <c r="H156" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I156" s="220"/>
-      <c r="J156" s="228"/>
+      <c r="I156" s="268"/>
+      <c r="J156" s="269"/>
     </row>
     <row r="158" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D158" s="225" t="s">
+      <c r="D158" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E158" s="226" t="s">
+      <c r="E158" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="160" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D160" s="231" t="s">
+      <c r="D160" s="191" t="s">
         <v>492</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="19"/>
-      <c r="J160" s="285" t="s">
+      <c r="J160" s="239" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15991,42 +16103,42 @@
       </c>
     </row>
     <row r="163" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D163" s="237" t="s">
+      <c r="D163" s="197" t="s">
         <v>493</v>
       </c>
       <c r="E163" s="3">
         <v>123456789</v>
       </c>
-      <c r="F163" s="234">
+      <c r="F163" s="194">
         <v>100</v>
       </c>
-      <c r="G163" s="236">
+      <c r="G163" s="196">
         <v>100</v>
       </c>
-      <c r="H163" s="232">
+      <c r="H163" s="192">
         <f>F163*G163</f>
         <v>10000</v>
       </c>
-      <c r="I163" s="241" t="s">
+      <c r="I163" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D164" s="230"/>
+      <c r="D164" s="190"/>
     </row>
     <row r="166" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D166" s="286" t="s">
+      <c r="D166" s="240" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="167" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D167" s="286" t="s">
+      <c r="D167" s="240" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="168" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D168" s="286" t="s">
+      <c r="D168" s="240" t="s">
         <v>538</v>
       </c>
     </row>
@@ -16036,11 +16148,11 @@
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="240">
+      <c r="G171" s="200">
         <f>SUM(G163:G170)</f>
         <v>100</v>
       </c>
-      <c r="H171" s="240">
+      <c r="H171" s="200">
         <f>SUM(H163:H170)</f>
         <v>10000</v>
       </c>
@@ -16062,36 +16174,36 @@
       <c r="J176" s="36"/>
     </row>
     <row r="177" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D177" s="225" t="s">
+      <c r="D177" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E177" s="226" t="s">
+      <c r="E177" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G177" s="225" t="s">
+      <c r="G177" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H177" s="227" t="s">
+      <c r="H177" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I177" s="220"/>
-      <c r="J177" s="228"/>
+      <c r="I177" s="268"/>
+      <c r="J177" s="269"/>
     </row>
     <row r="179" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D179" s="225" t="s">
+      <c r="D179" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E179" s="226" t="s">
+      <c r="E179" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="181" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D181" s="231" t="s">
+      <c r="D181" s="191" t="s">
         <v>492</v>
       </c>
       <c r="E181" s="15"/>
       <c r="F181" s="19"/>
-      <c r="J181" s="285" t="s">
+      <c r="J181" s="239" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16128,182 +16240,182 @@
       </c>
     </row>
     <row r="184" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C184" s="288" t="s">
+      <c r="C184" s="242" t="s">
         <v>552</v>
       </c>
-      <c r="D184" s="237" t="s">
+      <c r="D184" s="197" t="s">
         <v>493</v>
       </c>
       <c r="E184" s="3">
         <v>123456789</v>
       </c>
-      <c r="F184" s="234">
+      <c r="F184" s="194">
         <v>100</v>
       </c>
-      <c r="G184" s="236">
+      <c r="G184" s="196">
         <v>100</v>
       </c>
-      <c r="H184" s="232">
+      <c r="H184" s="192">
         <f>F184*G184</f>
         <v>10000</v>
       </c>
-      <c r="I184" s="241" t="s">
+      <c r="I184" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J184" s="9"/>
-      <c r="K184" s="287" t="s">
+      <c r="K184" s="241" t="s">
         <v>548</v>
       </c>
-      <c r="L184" s="288" t="s">
+      <c r="L184" s="242" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="185" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C185" s="288" t="s">
+      <c r="C185" s="242" t="s">
         <v>552</v>
       </c>
-      <c r="D185" s="237" t="s">
+      <c r="D185" s="197" t="s">
         <v>542</v>
       </c>
       <c r="E185" s="3">
         <v>123456790</v>
       </c>
-      <c r="F185" s="234">
+      <c r="F185" s="194">
         <v>80</v>
       </c>
-      <c r="G185" s="236">
+      <c r="G185" s="196">
         <v>200</v>
       </c>
-      <c r="H185" s="232">
+      <c r="H185" s="192">
         <f>F185*G185</f>
         <v>16000</v>
       </c>
-      <c r="I185" s="241" t="s">
+      <c r="I185" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J185" s="9"/>
-      <c r="K185" s="287" t="s">
+      <c r="K185" s="241" t="s">
         <v>548</v>
       </c>
-      <c r="L185" s="288" t="s">
+      <c r="L185" s="242" t="s">
         <v>549</v>
       </c>
-      <c r="M185" s="245" t="s">
+      <c r="M185" s="205" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="186" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C186" s="288" t="s">
+      <c r="C186" s="242" t="s">
         <v>553</v>
       </c>
-      <c r="D186" s="237" t="s">
+      <c r="D186" s="197" t="s">
         <v>543</v>
       </c>
       <c r="E186" s="3">
         <v>123456791</v>
       </c>
-      <c r="F186" s="234">
+      <c r="F186" s="194">
         <v>120</v>
       </c>
-      <c r="G186" s="236">
+      <c r="G186" s="196">
         <v>300</v>
       </c>
-      <c r="H186" s="232">
+      <c r="H186" s="192">
         <f>F186*G186</f>
         <v>36000</v>
       </c>
-      <c r="I186" s="241" t="s">
+      <c r="I186" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J186" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="K186" s="287" t="s">
+      <c r="K186" s="241" t="s">
         <v>548</v>
       </c>
-      <c r="L186" s="288" t="s">
+      <c r="L186" s="242" t="s">
         <v>549</v>
       </c>
-      <c r="M186" s="245" t="s">
+      <c r="M186" s="205" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="187" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C187" s="288" t="s">
+      <c r="C187" s="242" t="s">
         <v>554</v>
       </c>
-      <c r="D187" s="237" t="s">
+      <c r="D187" s="197" t="s">
         <v>544</v>
       </c>
       <c r="E187" s="3">
         <v>123456792</v>
       </c>
-      <c r="F187" s="234">
+      <c r="F187" s="194">
         <v>200</v>
       </c>
-      <c r="G187" s="236">
+      <c r="G187" s="196">
         <v>50</v>
       </c>
-      <c r="H187" s="232">
+      <c r="H187" s="192">
         <f>F187*G187</f>
         <v>10000</v>
       </c>
-      <c r="I187" s="241" t="s">
+      <c r="I187" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J187" s="9"/>
-      <c r="K187" s="287" t="s">
+      <c r="K187" s="241" t="s">
         <v>548</v>
       </c>
-      <c r="L187" s="288" t="s">
+      <c r="L187" s="242" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="188" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C188" s="288" t="s">
+      <c r="C188" s="242" t="s">
         <v>552</v>
       </c>
-      <c r="D188" s="237" t="s">
+      <c r="D188" s="197" t="s">
         <v>545</v>
       </c>
       <c r="E188" s="3">
         <v>123456793</v>
       </c>
-      <c r="F188" s="234">
+      <c r="F188" s="194">
         <v>300</v>
       </c>
-      <c r="G188" s="236">
+      <c r="G188" s="196">
         <v>100</v>
       </c>
-      <c r="H188" s="232">
+      <c r="H188" s="192">
         <f>F188*G188</f>
         <v>30000</v>
       </c>
-      <c r="I188" s="241" t="s">
+      <c r="I188" s="201" t="s">
         <v>496</v>
       </c>
       <c r="J188" s="9"/>
-      <c r="K188" s="287" t="s">
+      <c r="K188" s="241" t="s">
         <v>548</v>
       </c>
-      <c r="L188" s="288" t="s">
+      <c r="L188" s="242" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="189" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C189" s="274" t="s">
+      <c r="C189" s="229" t="s">
         <v>511</v>
       </c>
-      <c r="D189" s="237"/>
-      <c r="F189" s="234"/>
-      <c r="G189" s="236"/>
-      <c r="H189" s="232"/>
-      <c r="I189" s="241"/>
+      <c r="D189" s="197"/>
+      <c r="F189" s="194"/>
+      <c r="G189" s="196"/>
+      <c r="H189" s="192"/>
+      <c r="I189" s="201"/>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
     </row>
     <row r="190" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C190" s="249" t="s">
+      <c r="C190" s="208" t="s">
         <v>555</v>
       </c>
     </row>
@@ -16313,11 +16425,11 @@
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
-      <c r="G192" s="240">
+      <c r="G192" s="200">
         <f>SUM(G184:G191)</f>
         <v>750</v>
       </c>
-      <c r="H192" s="240">
+      <c r="H192" s="200">
         <f>SUM(H184:H191)</f>
         <v>102000</v>
       </c>
@@ -16340,36 +16452,36 @@
       <c r="J197" s="36"/>
     </row>
     <row r="198" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D198" s="225" t="s">
+      <c r="D198" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="E198" s="226" t="s">
+      <c r="E198" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="G198" s="225" t="s">
+      <c r="G198" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H198" s="227" t="s">
+      <c r="H198" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="I198" s="220"/>
-      <c r="J198" s="228"/>
+      <c r="I198" s="268"/>
+      <c r="J198" s="269"/>
     </row>
     <row r="200" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D200" s="225" t="s">
+      <c r="D200" s="187" t="s">
         <v>486</v>
       </c>
-      <c r="E200" s="226" t="s">
+      <c r="E200" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="202" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D202" s="246" t="s">
+      <c r="D202" s="206" t="s">
         <v>491</v>
       </c>
       <c r="E202" s="15"/>
       <c r="F202" s="19"/>
-      <c r="J202" s="235" t="s">
+      <c r="J202" s="195" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16422,71 +16534,71 @@
       </c>
     </row>
     <row r="222" spans="4:31" ht="18" customHeight="1">
-      <c r="N222" s="300"/>
-      <c r="O222" s="301"/>
-      <c r="P222" s="302"/>
-      <c r="Q222" s="300"/>
-      <c r="R222" s="300"/>
-      <c r="S222" s="300"/>
-      <c r="T222" s="300"/>
-      <c r="U222" s="300"/>
-      <c r="V222" s="300"/>
-      <c r="W222" s="300"/>
-      <c r="X222" s="300"/>
-      <c r="Y222" s="300"/>
-      <c r="Z222" s="300"/>
-      <c r="AA222" s="300"/>
-      <c r="AB222" s="300"/>
-      <c r="AC222" s="300"/>
-      <c r="AD222" s="300"/>
-      <c r="AE222" s="300"/>
+      <c r="N222" s="251"/>
+      <c r="O222" s="252"/>
+      <c r="P222" s="253"/>
+      <c r="Q222" s="251"/>
+      <c r="R222" s="251"/>
+      <c r="S222" s="251"/>
+      <c r="T222" s="251"/>
+      <c r="U222" s="251"/>
+      <c r="V222" s="251"/>
+      <c r="W222" s="251"/>
+      <c r="X222" s="251"/>
+      <c r="Y222" s="251"/>
+      <c r="Z222" s="251"/>
+      <c r="AA222" s="251"/>
+      <c r="AB222" s="251"/>
+      <c r="AC222" s="251"/>
+      <c r="AD222" s="251"/>
+      <c r="AE222" s="251"/>
     </row>
     <row r="223" spans="4:31" ht="28.5" customHeight="1">
-      <c r="N223" s="300"/>
-      <c r="O223" s="301" t="s">
+      <c r="N223" s="251"/>
+      <c r="O223" s="252" t="s">
         <v>558</v>
       </c>
-      <c r="P223" s="302"/>
-      <c r="Q223" s="300"/>
-      <c r="R223" s="300"/>
-      <c r="S223" s="300"/>
-      <c r="T223" s="300"/>
-      <c r="U223" s="300"/>
-      <c r="V223" s="300"/>
-      <c r="W223" s="300"/>
-      <c r="X223" s="300"/>
-      <c r="Y223" s="300"/>
-      <c r="Z223" s="300"/>
-      <c r="AA223" s="300"/>
-      <c r="AB223" s="300"/>
-      <c r="AC223" s="300"/>
-      <c r="AD223" s="300"/>
-      <c r="AE223" s="300"/>
+      <c r="P223" s="253"/>
+      <c r="Q223" s="251"/>
+      <c r="R223" s="251"/>
+      <c r="S223" s="251"/>
+      <c r="T223" s="251"/>
+      <c r="U223" s="251"/>
+      <c r="V223" s="251"/>
+      <c r="W223" s="251"/>
+      <c r="X223" s="251"/>
+      <c r="Y223" s="251"/>
+      <c r="Z223" s="251"/>
+      <c r="AA223" s="251"/>
+      <c r="AB223" s="251"/>
+      <c r="AC223" s="251"/>
+      <c r="AD223" s="251"/>
+      <c r="AE223" s="251"/>
     </row>
     <row r="224" spans="4:31" ht="18" customHeight="1">
-      <c r="N224" s="300"/>
-      <c r="O224" s="300"/>
-      <c r="P224" s="302"/>
-      <c r="Q224" s="300"/>
-      <c r="R224" s="300"/>
-      <c r="S224" s="300"/>
-      <c r="T224" s="300"/>
-      <c r="U224" s="300"/>
-      <c r="V224" s="300"/>
-      <c r="W224" s="300"/>
-      <c r="X224" s="300"/>
-      <c r="Y224" s="300"/>
-      <c r="Z224" s="300"/>
-      <c r="AA224" s="300"/>
-      <c r="AB224" s="300"/>
-      <c r="AC224" s="300"/>
-      <c r="AD224" s="300"/>
-      <c r="AE224" s="300"/>
+      <c r="N224" s="251"/>
+      <c r="O224" s="251"/>
+      <c r="P224" s="253"/>
+      <c r="Q224" s="251"/>
+      <c r="R224" s="251"/>
+      <c r="S224" s="251"/>
+      <c r="T224" s="251"/>
+      <c r="U224" s="251"/>
+      <c r="V224" s="251"/>
+      <c r="W224" s="251"/>
+      <c r="X224" s="251"/>
+      <c r="Y224" s="251"/>
+      <c r="Z224" s="251"/>
+      <c r="AA224" s="251"/>
+      <c r="AB224" s="251"/>
+      <c r="AC224" s="251"/>
+      <c r="AD224" s="251"/>
+      <c r="AE224" s="251"/>
     </row>
     <row r="225" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N225" s="300"/>
+      <c r="N225" s="251"/>
       <c r="O225" s="21"/>
-      <c r="P225" s="276"/>
+      <c r="P225" s="231"/>
       <c r="Q225" s="36"/>
       <c r="R225" s="36"/>
       <c r="S225" s="36"/>
@@ -16501,10 +16613,10 @@
       <c r="AB225" s="36"/>
       <c r="AC225" s="36"/>
       <c r="AD225" s="22"/>
-      <c r="AE225" s="300"/>
+      <c r="AE225" s="251"/>
     </row>
     <row r="226" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N226" s="300"/>
+      <c r="N226" s="251"/>
       <c r="O226" s="30"/>
       <c r="P226" s="38"/>
       <c r="Q226" s="18"/>
@@ -16521,86 +16633,86 @@
       <c r="AB226" s="18"/>
       <c r="AC226" s="18"/>
       <c r="AD226" s="31"/>
-      <c r="AE226" s="300"/>
+      <c r="AE226" s="251"/>
     </row>
     <row r="227" spans="14:31" ht="27.95" customHeight="1">
-      <c r="N227" s="300"/>
+      <c r="N227" s="251"/>
       <c r="O227" s="30"/>
-      <c r="P227" s="289" t="s">
+      <c r="P227" s="243" t="s">
         <v>476</v>
       </c>
-      <c r="Q227" s="290" t="s">
+      <c r="Q227" s="244" t="s">
         <v>477</v>
       </c>
-      <c r="R227" s="298"/>
-      <c r="S227" s="289" t="s">
+      <c r="R227" s="249"/>
+      <c r="S227" s="243" t="s">
         <v>484</v>
       </c>
-      <c r="T227" s="291" t="s">
+      <c r="T227" s="270" t="s">
         <v>556</v>
       </c>
-      <c r="U227" s="292"/>
-      <c r="V227" s="298"/>
-      <c r="W227" s="289" t="s">
+      <c r="U227" s="271"/>
+      <c r="V227" s="249"/>
+      <c r="W227" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="X227" s="290" t="s">
+      <c r="X227" s="244" t="s">
         <v>487</v>
       </c>
-      <c r="Y227" s="298"/>
+      <c r="Y227" s="249"/>
       <c r="Z227" s="18"/>
       <c r="AA227" s="18"/>
       <c r="AB227" s="18"/>
       <c r="AC227" s="18"/>
       <c r="AD227" s="31"/>
-      <c r="AE227" s="300"/>
+      <c r="AE227" s="251"/>
     </row>
     <row r="228" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N228" s="300"/>
+      <c r="N228" s="251"/>
       <c r="O228" s="30"/>
-      <c r="P228" s="299"/>
-      <c r="Q228" s="298"/>
-      <c r="R228" s="298"/>
-      <c r="S228" s="298"/>
-      <c r="T228" s="298"/>
-      <c r="U228" s="298"/>
-      <c r="V228" s="298"/>
-      <c r="W228" s="298"/>
-      <c r="X228" s="298"/>
-      <c r="Y228" s="298"/>
+      <c r="P228" s="250"/>
+      <c r="Q228" s="249"/>
+      <c r="R228" s="249"/>
+      <c r="S228" s="249"/>
+      <c r="T228" s="249"/>
+      <c r="U228" s="249"/>
+      <c r="V228" s="249"/>
+      <c r="W228" s="249"/>
+      <c r="X228" s="249"/>
+      <c r="Y228" s="249"/>
       <c r="Z228" s="18"/>
       <c r="AA228" s="18"/>
       <c r="AB228" s="18"/>
       <c r="AC228" s="18"/>
       <c r="AD228" s="31"/>
-      <c r="AE228" s="300"/>
+      <c r="AE228" s="251"/>
     </row>
     <row r="229" spans="14:31" ht="27.95" customHeight="1">
-      <c r="N229" s="300"/>
+      <c r="N229" s="251"/>
       <c r="O229" s="30"/>
-      <c r="P229" s="293" t="s">
+      <c r="P229" s="245" t="s">
         <v>491</v>
       </c>
-      <c r="Q229" s="291"/>
-      <c r="R229" s="294"/>
-      <c r="S229" s="292"/>
+      <c r="Q229" s="270"/>
+      <c r="R229" s="272"/>
+      <c r="S229" s="271"/>
       <c r="T229" s="18"/>
-      <c r="U229" s="298"/>
-      <c r="V229" s="298"/>
-      <c r="W229" s="298"/>
-      <c r="X229" s="298"/>
-      <c r="Y229" s="298"/>
+      <c r="U229" s="249"/>
+      <c r="V229" s="249"/>
+      <c r="W229" s="249"/>
+      <c r="X229" s="249"/>
+      <c r="Y229" s="249"/>
       <c r="Z229" s="18"/>
       <c r="AA229" s="18"/>
       <c r="AB229" s="18"/>
-      <c r="AC229" s="295" t="s">
+      <c r="AC229" s="246" t="s">
         <v>78</v>
       </c>
       <c r="AD229" s="31"/>
-      <c r="AE229" s="300"/>
+      <c r="AE229" s="251"/>
     </row>
     <row r="230" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N230" s="300"/>
+      <c r="N230" s="251"/>
       <c r="O230" s="30"/>
       <c r="P230" s="38"/>
       <c r="Q230" s="18"/>
@@ -16617,32 +16729,32 @@
       <c r="AB230" s="18"/>
       <c r="AC230" s="18"/>
       <c r="AD230" s="31"/>
-      <c r="AE230" s="300"/>
+      <c r="AE230" s="251"/>
     </row>
     <row r="231" spans="14:31" ht="27.95" customHeight="1">
-      <c r="N231" s="300"/>
+      <c r="N231" s="251"/>
       <c r="O231" s="30"/>
-      <c r="P231" s="297" t="s">
+      <c r="P231" s="248" t="s">
         <v>557</v>
       </c>
-      <c r="Q231" s="296"/>
-      <c r="R231" s="296"/>
-      <c r="S231" s="296"/>
-      <c r="T231" s="296"/>
-      <c r="U231" s="296"/>
-      <c r="V231" s="296"/>
-      <c r="W231" s="296"/>
-      <c r="X231" s="296"/>
-      <c r="Y231" s="296"/>
-      <c r="Z231" s="296"/>
-      <c r="AA231" s="296"/>
-      <c r="AB231" s="296"/>
-      <c r="AC231" s="296"/>
+      <c r="Q231" s="247"/>
+      <c r="R231" s="247"/>
+      <c r="S231" s="247"/>
+      <c r="T231" s="247"/>
+      <c r="U231" s="247"/>
+      <c r="V231" s="247"/>
+      <c r="W231" s="247"/>
+      <c r="X231" s="247"/>
+      <c r="Y231" s="247"/>
+      <c r="Z231" s="247"/>
+      <c r="AA231" s="247"/>
+      <c r="AB231" s="247"/>
+      <c r="AC231" s="247"/>
       <c r="AD231" s="31"/>
-      <c r="AE231" s="300"/>
+      <c r="AE231" s="251"/>
     </row>
     <row r="232" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N232" s="300"/>
+      <c r="N232" s="251"/>
       <c r="O232" s="30"/>
       <c r="P232" s="38"/>
       <c r="Q232" s="18"/>
@@ -16659,10 +16771,10 @@
       <c r="AB232" s="18"/>
       <c r="AC232" s="18"/>
       <c r="AD232" s="31"/>
-      <c r="AE232" s="300"/>
+      <c r="AE232" s="251"/>
     </row>
     <row r="233" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N233" s="300"/>
+      <c r="N233" s="251"/>
       <c r="O233" s="30"/>
       <c r="P233" s="38"/>
       <c r="Q233" s="18"/>
@@ -16679,10 +16791,10 @@
       <c r="AB233" s="18"/>
       <c r="AC233" s="18"/>
       <c r="AD233" s="31"/>
-      <c r="AE233" s="300"/>
+      <c r="AE233" s="251"/>
     </row>
     <row r="234" spans="14:31" ht="16.5" customHeight="1">
-      <c r="N234" s="300"/>
+      <c r="N234" s="251"/>
       <c r="O234" s="30"/>
       <c r="P234" s="38"/>
       <c r="Q234" s="18"/>
@@ -16699,26 +16811,26 @@
       <c r="AB234" s="18"/>
       <c r="AC234" s="18"/>
       <c r="AD234" s="31"/>
-      <c r="AE234" s="300"/>
+      <c r="AE234" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="H198:J198"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="T227:U227"/>
-    <mergeCell ref="Q229:S229"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H92:J92"/>
     <mergeCell ref="H113:J113"/>
     <mergeCell ref="H135:J135"/>
     <mergeCell ref="H156:J156"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="H71:J71"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="T227:U227"/>
+    <mergeCell ref="Q229:S229"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17182,10 +17294,10 @@
       <c r="E21" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="199" t="s">
+      <c r="F21" s="278" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="199"/>
+      <c r="G21" s="278"/>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1">
       <c r="B22" s="42" t="s">
@@ -17783,10 +17895,10 @@
       <c r="F41" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="199" t="s">
+      <c r="G41" s="278" t="s">
         <v>392</v>
       </c>
-      <c r="H41" s="199"/>
+      <c r="H41" s="278"/>
     </row>
     <row r="42" spans="3:11" ht="18" customHeight="1">
       <c r="C42" s="42" t="s">
@@ -17838,27 +17950,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1">
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="262" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1">
       <c r="E3" s="142"/>
@@ -17882,27 +17994,27 @@
       <c r="W3" s="144"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1">
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="279" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="201"/>
-      <c r="W4" s="202"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="280"/>
+      <c r="O4" s="280"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="280"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="280"/>
+      <c r="V4" s="280"/>
+      <c r="W4" s="281"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1">
       <c r="E5" s="145"/>
@@ -18739,10 +18851,10 @@
       <c r="M23" s="156"/>
       <c r="N23" s="18"/>
       <c r="O23" s="158"/>
-      <c r="P23" s="203" t="s">
+      <c r="P23" s="282" t="s">
         <v>328</v>
       </c>
-      <c r="Q23" s="204"/>
+      <c r="Q23" s="283"/>
       <c r="S23" s="164" t="s">
         <v>66</v>
       </c>

--- a/planing/UI.xlsx
+++ b/planing/UI.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="569">
   <si>
     <t>정산내역서 관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2290,6 +2290,25 @@
   </si>
   <si>
     <t>(40px)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerformanceRegisterList.vue</t>
+  </si>
+  <si>
+    <t>실적 관리 &gt; 등록 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방월</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4185,18 +4204,33 @@
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4204,21 +4238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4876,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N149"/>
+  <dimension ref="A2:N168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -6544,96 +6563,230 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="139" spans="3:5" ht="15" customHeight="1">
-      <c r="C139" s="86" t="s">
+    <row r="137" spans="3:5" ht="15" customHeight="1">
+      <c r="C137" s="55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" ht="15" customHeight="1">
+      <c r="C138" s="54" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" ht="15" customHeight="1">
+      <c r="C140" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="D139" s="86" t="s">
+      <c r="D140" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="E139" s="170">
-        <f>SUM(D140:D149)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" ht="15" customHeight="1">
-      <c r="C140" s="73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D140" s="128" t="s">
-        <v>563</v>
+      <c r="E140" s="170">
+        <f>SUM(D141:D152)</f>
+        <v>0.87999999999999989</v>
       </c>
     </row>
     <row r="141" spans="3:5" ht="15" customHeight="1">
       <c r="C141" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D141" s="128">
-        <v>0.2</v>
+        <v>562</v>
+      </c>
+      <c r="D141" s="128" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="15" customHeight="1">
       <c r="C142" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="D142" s="128">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" ht="15" customHeight="1">
+      <c r="C143" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="D143" s="128"/>
+    </row>
+    <row r="144" spans="3:5" ht="15" customHeight="1">
+      <c r="C144" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D144" s="128">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" ht="15" customHeight="1">
+      <c r="C145" s="73" t="s">
         <v>343</v>
       </c>
-      <c r="D142" s="128">
+      <c r="D145" s="128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" ht="15" customHeight="1">
+      <c r="C146" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" s="129">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" ht="15" customHeight="1">
+      <c r="C147" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="D147" s="129">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" ht="15" customHeight="1">
+      <c r="C148" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D148" s="129">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" ht="15" customHeight="1">
+      <c r="C149" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="D149" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" ht="15" customHeight="1">
+      <c r="C150" s="73" t="s">
+        <v>560</v>
+      </c>
+      <c r="D150" s="128">
         <v>0.12</v>
       </c>
     </row>
-    <row r="143" spans="3:5" ht="15" customHeight="1">
-      <c r="C143" s="64" t="s">
+    <row r="151" spans="3:5" ht="15" customHeight="1">
+      <c r="C151" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="D151" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" ht="15" customHeight="1">
+      <c r="C152" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D152" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" ht="15" customHeight="1">
+      <c r="C154" s="55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" ht="15" customHeight="1">
+      <c r="C155" s="54" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" ht="15" customHeight="1">
+      <c r="C157" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="E157" s="170">
+        <f>SUM(D158:D168)</f>
+        <v>0.94000000000000017</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" ht="15" customHeight="1">
+      <c r="C158" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D158" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" ht="15" customHeight="1">
+      <c r="C159" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159" s="128">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" ht="15" customHeight="1">
+      <c r="C160" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="D160" s="128">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="15" customHeight="1">
+      <c r="C161" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="D161" s="128">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" ht="15" customHeight="1">
+      <c r="C162" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D162" s="128">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" ht="15" customHeight="1">
+      <c r="C163" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="128">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" ht="15" customHeight="1">
+      <c r="C164" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="D143" s="129">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" ht="15" customHeight="1">
-      <c r="C144" s="64" t="s">
+      <c r="D164" s="129">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" ht="15" customHeight="1">
+      <c r="C165" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="D144" s="129">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" ht="15" customHeight="1">
-      <c r="C145" s="64" t="s">
+      <c r="D165" s="129">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" ht="15" customHeight="1">
+      <c r="C166" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="D145" s="129">
+      <c r="D166" s="129">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" ht="15" customHeight="1">
+      <c r="C167" s="73" t="s">
+        <v>483</v>
+      </c>
+      <c r="D167" s="128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" ht="15" customHeight="1">
+      <c r="C168" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D168" s="128">
         <v>0.12</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" ht="15" customHeight="1">
-      <c r="C146" s="73" t="s">
-        <v>559</v>
-      </c>
-      <c r="D146" s="128">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" ht="15" customHeight="1">
-      <c r="C147" s="73" t="s">
-        <v>560</v>
-      </c>
-      <c r="D147" s="128">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" ht="15" customHeight="1">
-      <c r="C148" s="64" t="s">
-        <v>561</v>
-      </c>
-      <c r="D148" s="128" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" ht="15" customHeight="1">
-      <c r="C149" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="D149" s="128" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -10354,10 +10507,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="268" t="s">
+      <c r="M29" s="267" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="268"/>
+      <c r="N29" s="267"/>
       <c r="O29" s="23"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
@@ -15139,11 +15292,11 @@
       <c r="G8" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H8" s="267" t="s">
+      <c r="H8" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="268"/>
     </row>
     <row r="10" spans="4:10" ht="16.5" customHeight="1">
       <c r="D10" s="187" t="s">
@@ -15230,11 +15383,11 @@
       <c r="G29" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="267" t="s">
+      <c r="H29" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I29" s="268"/>
-      <c r="J29" s="269"/>
+      <c r="I29" s="267"/>
+      <c r="J29" s="268"/>
     </row>
     <row r="31" spans="4:10" ht="16.5" customHeight="1">
       <c r="D31" s="187" t="s">
@@ -15282,15 +15435,15 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="16.5" customHeight="1">
-      <c r="D39" s="277" t="s">
+      <c r="D39" s="269" t="s">
         <v>498</v>
       </c>
-      <c r="E39" s="277"/>
-      <c r="F39" s="277"/>
-      <c r="G39" s="277"/>
-      <c r="H39" s="277"/>
-      <c r="I39" s="277"/>
-      <c r="J39" s="277"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="269"/>
     </row>
     <row r="44" spans="4:10" ht="16.5" customHeight="1">
       <c r="D44" s="15" t="s">
@@ -15351,11 +15504,11 @@
       <c r="G50" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H50" s="267" t="s">
+      <c r="H50" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I50" s="268"/>
-      <c r="J50" s="269"/>
+      <c r="I50" s="267"/>
+      <c r="J50" s="268"/>
     </row>
     <row r="52" spans="4:10" ht="16.5" customHeight="1">
       <c r="D52" s="230" t="s">
@@ -15494,11 +15647,11 @@
       <c r="G71" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H71" s="267" t="s">
+      <c r="H71" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I71" s="268"/>
-      <c r="J71" s="269"/>
+      <c r="I71" s="267"/>
+      <c r="J71" s="268"/>
     </row>
     <row r="73" spans="4:10" ht="16.5" customHeight="1">
       <c r="D73" s="209" t="s">
@@ -15506,20 +15659,20 @@
       </c>
       <c r="E73" s="211"/>
       <c r="F73" s="212"/>
-      <c r="G73" s="273" t="s">
+      <c r="G73" s="270" t="s">
         <v>491</v>
       </c>
       <c r="H73" s="212"/>
-      <c r="I73" s="275" t="s">
+      <c r="I73" s="272" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="74" spans="4:10" ht="16.5" customHeight="1">
       <c r="E74" s="213"/>
       <c r="F74" s="214"/>
-      <c r="G74" s="274"/>
+      <c r="G74" s="271"/>
       <c r="H74" s="214"/>
-      <c r="I74" s="276"/>
+      <c r="I74" s="273"/>
     </row>
     <row r="75" spans="4:10" ht="16.5" customHeight="1">
       <c r="D75" s="203" t="s">
@@ -15649,11 +15802,11 @@
       <c r="G92" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H92" s="267" t="s">
+      <c r="H92" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I92" s="268"/>
-      <c r="J92" s="269"/>
+      <c r="I92" s="267"/>
+      <c r="J92" s="268"/>
     </row>
     <row r="94" spans="4:10" ht="16.5" customHeight="1">
       <c r="D94" s="187" t="s">
@@ -15781,11 +15934,11 @@
       <c r="G113" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H113" s="267" t="s">
+      <c r="H113" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I113" s="268"/>
-      <c r="J113" s="269"/>
+      <c r="I113" s="267"/>
+      <c r="J113" s="268"/>
     </row>
     <row r="115" spans="4:10" ht="16.5" customHeight="1">
       <c r="D115" s="187" t="s">
@@ -15890,10 +16043,10 @@
       </c>
     </row>
     <row r="130" spans="4:10" ht="16.5" customHeight="1">
-      <c r="G130" s="266" t="s">
+      <c r="G130" s="274" t="s">
         <v>533</v>
       </c>
-      <c r="H130" s="266"/>
+      <c r="H130" s="274"/>
     </row>
     <row r="131" spans="4:10" ht="16.5" customHeight="1">
       <c r="G131" s="208"/>
@@ -15925,11 +16078,11 @@
       <c r="G135" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H135" s="267" t="s">
+      <c r="H135" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I135" s="268"/>
-      <c r="J135" s="269"/>
+      <c r="I135" s="267"/>
+      <c r="J135" s="268"/>
     </row>
     <row r="137" spans="4:10" ht="16.5" customHeight="1">
       <c r="D137" s="187" t="s">
@@ -16055,11 +16208,11 @@
       <c r="G156" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H156" s="267" t="s">
+      <c r="H156" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I156" s="268"/>
-      <c r="J156" s="269"/>
+      <c r="I156" s="267"/>
+      <c r="J156" s="268"/>
     </row>
     <row r="158" spans="4:10" ht="16.5" customHeight="1">
       <c r="D158" s="187" t="s">
@@ -16183,11 +16336,11 @@
       <c r="G177" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H177" s="267" t="s">
+      <c r="H177" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I177" s="268"/>
-      <c r="J177" s="269"/>
+      <c r="I177" s="267"/>
+      <c r="J177" s="268"/>
     </row>
     <row r="179" spans="3:13" ht="16.5" customHeight="1">
       <c r="D179" s="187" t="s">
@@ -16461,11 +16614,11 @@
       <c r="G198" s="187" t="s">
         <v>484</v>
       </c>
-      <c r="H198" s="267" t="s">
+      <c r="H198" s="266" t="s">
         <v>556</v>
       </c>
-      <c r="I198" s="268"/>
-      <c r="J198" s="269"/>
+      <c r="I198" s="267"/>
+      <c r="J198" s="268"/>
     </row>
     <row r="200" spans="4:10" ht="16.5" customHeight="1">
       <c r="D200" s="187" t="s">
@@ -16648,10 +16801,10 @@
       <c r="S227" s="243" t="s">
         <v>484</v>
       </c>
-      <c r="T227" s="270" t="s">
+      <c r="T227" s="275" t="s">
         <v>556</v>
       </c>
-      <c r="U227" s="271"/>
+      <c r="U227" s="276"/>
       <c r="V227" s="249"/>
       <c r="W227" s="243" t="s">
         <v>486</v>
@@ -16693,9 +16846,9 @@
       <c r="P229" s="245" t="s">
         <v>491</v>
       </c>
-      <c r="Q229" s="270"/>
-      <c r="R229" s="272"/>
-      <c r="S229" s="271"/>
+      <c r="Q229" s="275"/>
+      <c r="R229" s="277"/>
+      <c r="S229" s="276"/>
       <c r="T229" s="18"/>
       <c r="U229" s="249"/>
       <c r="V229" s="249"/>
@@ -16815,6 +16968,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T227:U227"/>
+    <mergeCell ref="Q229:S229"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="H177:J177"/>
     <mergeCell ref="H113:J113"/>
     <mergeCell ref="H135:J135"/>
     <mergeCell ref="H156:J156"/>
@@ -16824,13 +16984,6 @@
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="I73:I74"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="H198:J198"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="T227:U227"/>
-    <mergeCell ref="Q229:S229"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
